--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,24 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['39', '50', '53', '90+5']</t>
+  </si>
+  <si>
+    <t>['30', '39']</t>
+  </si>
+  <si>
+    <t>['40', '90']</t>
+  </si>
+  <si>
+    <t>['39', '78']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -592,9 +610,6 @@
     <t>['22', '36', '59']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['50', '73']</t>
   </si>
   <si>
@@ -649,10 +664,10 @@
     <t>['55', '60']</t>
   </si>
   <si>
-    <t>['25', '64']</t>
+    <t>['17', '80']</t>
   </si>
   <si>
-    <t>['17', '80']</t>
+    <t>['25', '64']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -664,10 +679,10 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['32', '90+1', '90+3']</t>
   </si>
   <si>
-    <t>['32', '90+1', '90+3']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['38', '90+7']</t>
@@ -1032,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1381,7 @@
         <v>2.2</v>
       </c>
       <c r="AT2">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1467,7 +1482,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1658,7 +1673,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1745,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1849,7 +1864,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2127,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT6">
         <v>2.17</v>
@@ -2321,7 +2336,7 @@
         <v>1.83</v>
       </c>
       <c r="AT7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2509,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2613,7 +2628,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2700,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
         <v>1.33</v>
@@ -2891,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2995,7 +3010,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3276,7 +3291,7 @@
         <v>1.83</v>
       </c>
       <c r="AT12">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3568,7 +3583,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3655,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT14">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4228,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT17">
         <v>0.43</v>
@@ -4332,7 +4347,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4422,7 +4437,7 @@
         <v>1.29</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4523,7 +4538,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4905,7 +4920,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5377,7 +5392,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU23">
         <v>2.03</v>
@@ -5478,7 +5493,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5568,7 +5583,7 @@
         <v>0.67</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU24">
         <v>2.19</v>
@@ -5860,7 +5875,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6138,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT27">
         <v>0.71</v>
@@ -6242,7 +6257,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6433,7 +6448,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6624,7 +6639,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6711,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6815,7 +6830,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6902,10 +6917,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>2.25</v>
@@ -7006,7 +7021,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7093,7 +7108,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -7197,7 +7212,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7287,7 +7302,7 @@
         <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU33">
         <v>2.06</v>
@@ -7388,7 +7403,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7478,7 +7493,7 @@
         <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>1.46</v>
@@ -7579,7 +7594,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7666,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT35">
         <v>1.33</v>
@@ -7857,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT36">
         <v>1.67</v>
@@ -7961,7 +7976,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8433,7 +8448,7 @@
         <v>2.17</v>
       </c>
       <c r="AT39">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8534,7 +8549,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8621,10 +8636,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT40">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -9194,10 +9209,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.42</v>
@@ -9385,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT44">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU44">
         <v>1.5</v>
@@ -9576,10 +9591,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9680,7 +9695,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9958,7 +9973,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -10444,7 +10459,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10725,7 +10740,7 @@
         <v>0.83</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU51">
         <v>2.07</v>
@@ -11104,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11295,7 +11310,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT54">
         <v>1.17</v>
@@ -11590,7 +11605,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11677,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -11871,7 +11886,7 @@
         <v>1.83</v>
       </c>
       <c r="AT57">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.25</v>
@@ -11972,7 +11987,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12059,10 +12074,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT58">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12163,7 +12178,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12253,7 +12268,7 @@
         <v>1.57</v>
       </c>
       <c r="AT59">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU59">
         <v>1.89</v>
@@ -12354,7 +12369,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12635,7 +12650,7 @@
         <v>1.83</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU61">
         <v>1.81</v>
@@ -12823,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13118,7 +13133,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13208,7 +13223,7 @@
         <v>0.67</v>
       </c>
       <c r="AT64">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU64">
         <v>1.86</v>
@@ -13396,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT65">
         <v>0.67</v>
@@ -13781,7 +13796,7 @@
         <v>0.83</v>
       </c>
       <c r="AT67">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU67">
         <v>2.01</v>
@@ -13972,7 +13987,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14073,7 +14088,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14351,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT70">
         <v>0.43</v>
@@ -15028,7 +15043,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15306,7 +15321,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT75">
         <v>1.17</v>
@@ -15691,7 +15706,7 @@
         <v>1.57</v>
       </c>
       <c r="AT77">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU77">
         <v>1.76</v>
@@ -15792,7 +15807,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16073,7 +16088,7 @@
         <v>1.83</v>
       </c>
       <c r="AT79">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU79">
         <v>1.18</v>
@@ -16174,7 +16189,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16365,7 +16380,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16556,7 +16571,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16646,7 +16661,7 @@
         <v>1.17</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU82">
         <v>2.25</v>
@@ -16747,7 +16762,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16834,7 +16849,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT83">
         <v>2.17</v>
@@ -16938,7 +16953,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17129,7 +17144,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17216,10 +17231,10 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17320,7 +17335,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17407,10 +17422,10 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT86">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.58</v>
@@ -17511,7 +17526,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17702,7 +17717,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17792,7 +17807,7 @@
         <v>1.83</v>
       </c>
       <c r="AT88">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU88">
         <v>1.15</v>
@@ -17893,7 +17908,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17980,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18084,7 +18099,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18275,7 +18290,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18362,10 +18377,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT91">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU91">
         <v>1.77</v>
@@ -18466,7 +18481,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18553,10 +18568,10 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU92">
         <v>1.55</v>
@@ -18657,7 +18672,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18747,7 +18762,7 @@
         <v>0.83</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -18935,10 +18950,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT94">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU94">
         <v>1.63</v>
@@ -19126,7 +19141,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT95">
         <v>1.33</v>
@@ -19421,7 +19436,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19511,7 +19526,7 @@
         <v>2.2</v>
       </c>
       <c r="AT97">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU97">
         <v>1.98</v>
@@ -19699,10 +19714,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT98">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>2.12</v>
@@ -19803,7 +19818,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -19890,7 +19905,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT99">
         <v>0.67</v>
@@ -19994,7 +20009,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20081,10 +20096,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT100">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU100">
         <v>1.87</v>
@@ -20185,7 +20200,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20272,7 +20287,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT101">
         <v>2.17</v>
@@ -20716,7 +20731,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>5557266</v>
+        <v>5557272</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
@@ -20731,175 +20746,175 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104" t="s">
+        <v>125</v>
+      </c>
+      <c r="P104" t="s">
         <v>85</v>
       </c>
-      <c r="P104" t="s">
-        <v>210</v>
-      </c>
       <c r="Q104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S104">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T104">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U104">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
         <v>5.5</v>
       </c>
       <c r="W104">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X104">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z104">
+        <v>1.3</v>
+      </c>
+      <c r="AA104">
+        <v>8</v>
+      </c>
+      <c r="AB104">
+        <v>1.06</v>
+      </c>
+      <c r="AC104">
+        <v>1.73</v>
+      </c>
+      <c r="AD104">
+        <v>3.1</v>
+      </c>
+      <c r="AE104">
+        <v>4.6</v>
+      </c>
+      <c r="AF104">
+        <v>1.11</v>
+      </c>
+      <c r="AG104">
+        <v>6</v>
+      </c>
+      <c r="AH104">
+        <v>1.44</v>
+      </c>
+      <c r="AI104">
+        <v>2.4</v>
+      </c>
+      <c r="AJ104">
+        <v>2.47</v>
+      </c>
+      <c r="AK104">
+        <v>1.48</v>
+      </c>
+      <c r="AL104">
+        <v>2.3</v>
+      </c>
+      <c r="AM104">
+        <v>1.57</v>
+      </c>
+      <c r="AN104">
+        <v>1.14</v>
+      </c>
+      <c r="AO104">
+        <v>1.33</v>
+      </c>
+      <c r="AP104">
+        <v>2</v>
+      </c>
+      <c r="AQ104">
+        <v>0.6</v>
+      </c>
+      <c r="AR104">
+        <v>0</v>
+      </c>
+      <c r="AS104">
         <v>1.29</v>
       </c>
-      <c r="AA104">
+      <c r="AT104">
+        <v>0.43</v>
+      </c>
+      <c r="AU104">
+        <v>1.7</v>
+      </c>
+      <c r="AV104">
+        <v>1.25</v>
+      </c>
+      <c r="AW104">
+        <v>2.95</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>0</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>3</v>
+      </c>
+      <c r="BG104">
+        <v>3</v>
+      </c>
+      <c r="BH104">
         <v>9</v>
       </c>
-      <c r="AB104">
-        <v>1.05</v>
-      </c>
-      <c r="AC104">
-        <v>2.1</v>
-      </c>
-      <c r="AD104">
-        <v>2.95</v>
-      </c>
-      <c r="AE104">
-        <v>3.45</v>
-      </c>
-      <c r="AF104">
-        <v>1.12</v>
-      </c>
-      <c r="AG104">
-        <v>5.5</v>
-      </c>
-      <c r="AH104">
-        <v>1.5</v>
-      </c>
-      <c r="AI104">
-        <v>2.45</v>
-      </c>
-      <c r="AJ104">
-        <v>2.56</v>
-      </c>
-      <c r="AK104">
-        <v>1.45</v>
-      </c>
-      <c r="AL104">
-        <v>2.5</v>
-      </c>
-      <c r="AM104">
-        <v>1.5</v>
-      </c>
-      <c r="AN104">
-        <v>1.12</v>
-      </c>
-      <c r="AO104">
-        <v>1.36</v>
-      </c>
-      <c r="AP104">
-        <v>2</v>
-      </c>
-      <c r="AQ104">
-        <v>2.2</v>
-      </c>
-      <c r="AR104">
-        <v>1</v>
-      </c>
-      <c r="AS104">
-        <v>1.83</v>
-      </c>
-      <c r="AT104">
-        <v>1.67</v>
-      </c>
-      <c r="AU104">
-        <v>1.18</v>
-      </c>
-      <c r="AV104">
-        <v>1.44</v>
-      </c>
-      <c r="AW104">
-        <v>2.62</v>
-      </c>
-      <c r="AX104">
-        <v>0</v>
-      </c>
-      <c r="AY104">
-        <v>0</v>
-      </c>
-      <c r="AZ104">
-        <v>0</v>
-      </c>
-      <c r="BA104">
-        <v>0</v>
-      </c>
-      <c r="BB104">
-        <v>0</v>
-      </c>
-      <c r="BC104">
-        <v>0</v>
-      </c>
-      <c r="BD104">
-        <v>0</v>
-      </c>
-      <c r="BE104">
-        <v>0</v>
-      </c>
-      <c r="BF104">
+      <c r="BI104">
+        <v>3</v>
+      </c>
+      <c r="BJ104">
+        <v>12</v>
+      </c>
+      <c r="BK104">
         <v>6</v>
-      </c>
-      <c r="BG104">
-        <v>6</v>
-      </c>
-      <c r="BH104">
-        <v>7</v>
-      </c>
-      <c r="BI104">
-        <v>5</v>
-      </c>
-      <c r="BJ104">
-        <v>13</v>
-      </c>
-      <c r="BK104">
-        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:63">
@@ -20907,7 +20922,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>5557272</v>
+        <v>5557266</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
@@ -20922,175 +20937,175 @@
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O105" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="Q105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T105">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V105">
         <v>5.5</v>
       </c>
       <c r="W105">
+        <v>1.53</v>
+      </c>
+      <c r="X105">
+        <v>2.38</v>
+      </c>
+      <c r="Y105">
+        <v>3.5</v>
+      </c>
+      <c r="Z105">
+        <v>1.29</v>
+      </c>
+      <c r="AA105">
+        <v>9</v>
+      </c>
+      <c r="AB105">
+        <v>1.05</v>
+      </c>
+      <c r="AC105">
+        <v>2.1</v>
+      </c>
+      <c r="AD105">
+        <v>2.95</v>
+      </c>
+      <c r="AE105">
+        <v>3.45</v>
+      </c>
+      <c r="AF105">
+        <v>1.12</v>
+      </c>
+      <c r="AG105">
+        <v>5.5</v>
+      </c>
+      <c r="AH105">
         <v>1.5</v>
       </c>
-      <c r="X105">
+      <c r="AI105">
+        <v>2.45</v>
+      </c>
+      <c r="AJ105">
+        <v>2.56</v>
+      </c>
+      <c r="AK105">
+        <v>1.45</v>
+      </c>
+      <c r="AL105">
         <v>2.5</v>
       </c>
-      <c r="Y105">
-        <v>3.4</v>
-      </c>
-      <c r="Z105">
-        <v>1.3</v>
-      </c>
-      <c r="AA105">
-        <v>8</v>
-      </c>
-      <c r="AB105">
-        <v>1.06</v>
-      </c>
-      <c r="AC105">
-        <v>1.73</v>
-      </c>
-      <c r="AD105">
-        <v>3.1</v>
-      </c>
-      <c r="AE105">
-        <v>4.6</v>
-      </c>
-      <c r="AF105">
-        <v>1.11</v>
-      </c>
-      <c r="AG105">
+      <c r="AM105">
+        <v>1.5</v>
+      </c>
+      <c r="AN105">
+        <v>1.12</v>
+      </c>
+      <c r="AO105">
+        <v>1.36</v>
+      </c>
+      <c r="AP105">
+        <v>2</v>
+      </c>
+      <c r="AQ105">
+        <v>2.2</v>
+      </c>
+      <c r="AR105">
+        <v>1</v>
+      </c>
+      <c r="AS105">
+        <v>1.83</v>
+      </c>
+      <c r="AT105">
+        <v>1.67</v>
+      </c>
+      <c r="AU105">
+        <v>1.18</v>
+      </c>
+      <c r="AV105">
+        <v>1.44</v>
+      </c>
+      <c r="AW105">
+        <v>2.62</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>0</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
         <v>6</v>
       </c>
-      <c r="AH105">
-        <v>1.44</v>
-      </c>
-      <c r="AI105">
-        <v>2.4</v>
-      </c>
-      <c r="AJ105">
-        <v>2.47</v>
-      </c>
-      <c r="AK105">
-        <v>1.48</v>
-      </c>
-      <c r="AL105">
-        <v>2.3</v>
-      </c>
-      <c r="AM105">
-        <v>1.57</v>
-      </c>
-      <c r="AN105">
-        <v>1.14</v>
-      </c>
-      <c r="AO105">
-        <v>1.33</v>
-      </c>
-      <c r="AP105">
-        <v>2</v>
-      </c>
-      <c r="AQ105">
-        <v>0.6</v>
-      </c>
-      <c r="AR105">
-        <v>0</v>
-      </c>
-      <c r="AS105">
-        <v>1.29</v>
-      </c>
-      <c r="AT105">
-        <v>0.43</v>
-      </c>
-      <c r="AU105">
-        <v>1.7</v>
-      </c>
-      <c r="AV105">
-        <v>1.25</v>
-      </c>
-      <c r="AW105">
-        <v>2.95</v>
-      </c>
-      <c r="AX105">
-        <v>0</v>
-      </c>
-      <c r="AY105">
-        <v>0</v>
-      </c>
-      <c r="AZ105">
-        <v>0</v>
-      </c>
-      <c r="BA105">
-        <v>0</v>
-      </c>
-      <c r="BB105">
-        <v>0</v>
-      </c>
-      <c r="BC105">
-        <v>0</v>
-      </c>
-      <c r="BD105">
-        <v>0</v>
-      </c>
-      <c r="BE105">
-        <v>0</v>
-      </c>
-      <c r="BF105">
-        <v>3</v>
-      </c>
       <c r="BG105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH105">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK105">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:63">
@@ -21994,7 +22009,7 @@
         <v>2.2</v>
       </c>
       <c r="AT110">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU110">
         <v>1.85</v>
@@ -22182,7 +22197,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT111">
         <v>0.71</v>
@@ -22244,7 +22259,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5557281</v>
+        <v>5557284</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
@@ -22259,10 +22274,10 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -22283,28 +22298,28 @@
         <v>3</v>
       </c>
       <c r="O112" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q112">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S112">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W112">
         <v>1.61</v>
@@ -22325,109 +22340,109 @@
         <v>1.05</v>
       </c>
       <c r="AC112">
-        <v>2.15</v>
+        <v>1.59</v>
       </c>
       <c r="AD112">
+        <v>2.8</v>
+      </c>
+      <c r="AE112">
+        <v>5.75</v>
+      </c>
+      <c r="AF112">
+        <v>1.12</v>
+      </c>
+      <c r="AG112">
+        <v>5.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.54</v>
+      </c>
+      <c r="AI112">
+        <v>2.32</v>
+      </c>
+      <c r="AJ112">
+        <v>2.41</v>
+      </c>
+      <c r="AK112">
+        <v>1.5</v>
+      </c>
+      <c r="AL112">
+        <v>2.5</v>
+      </c>
+      <c r="AM112">
+        <v>1.47</v>
+      </c>
+      <c r="AN112">
+        <v>1.11</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>1.95</v>
+      </c>
+      <c r="AQ112">
+        <v>2.2</v>
+      </c>
+      <c r="AR112">
+        <v>0.2</v>
+      </c>
+      <c r="AS112">
+        <v>1.83</v>
+      </c>
+      <c r="AT112">
+        <v>0.67</v>
+      </c>
+      <c r="AU112">
+        <v>1.71</v>
+      </c>
+      <c r="AV112">
+        <v>0.88</v>
+      </c>
+      <c r="AW112">
+        <v>2.59</v>
+      </c>
+      <c r="AX112">
+        <v>1.68</v>
+      </c>
+      <c r="AY112">
+        <v>8.4</v>
+      </c>
+      <c r="AZ112">
         <v>2.55</v>
       </c>
-      <c r="AE112">
-        <v>3.3</v>
-      </c>
-      <c r="AF112">
-        <v>1.14</v>
-      </c>
-      <c r="AG112">
-        <v>5</v>
-      </c>
-      <c r="AH112">
-        <v>1.53</v>
-      </c>
-      <c r="AI112">
-        <v>2.34</v>
-      </c>
-      <c r="AJ112">
-        <v>2.59</v>
-      </c>
-      <c r="AK112">
-        <v>1.44</v>
-      </c>
-      <c r="AL112">
-        <v>2.2</v>
-      </c>
-      <c r="AM112">
-        <v>1.6</v>
-      </c>
-      <c r="AN112">
-        <v>1.25</v>
-      </c>
-      <c r="AO112">
-        <v>1.33</v>
-      </c>
-      <c r="AP112">
-        <v>1.5</v>
-      </c>
-      <c r="AQ112">
-        <v>1.8</v>
-      </c>
-      <c r="AR112">
-        <v>1.4</v>
-      </c>
-      <c r="AS112">
-        <v>1.5</v>
-      </c>
-      <c r="AT112">
-        <v>1.67</v>
-      </c>
-      <c r="AU112">
-        <v>1.86</v>
-      </c>
-      <c r="AV112">
-        <v>1.43</v>
-      </c>
-      <c r="AW112">
-        <v>3.29</v>
-      </c>
-      <c r="AX112">
-        <v>1.73</v>
-      </c>
-      <c r="AY112">
-        <v>8.9</v>
-      </c>
-      <c r="AZ112">
-        <v>2.41</v>
-      </c>
       <c r="BA112">
         <v>0</v>
       </c>
       <c r="BB112">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="BC112">
-        <v>1.54</v>
+        <v>2.05</v>
       </c>
       <c r="BD112">
-        <v>1.87</v>
+        <v>2.28</v>
       </c>
       <c r="BE112">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="BF112">
         <v>9</v>
       </c>
       <c r="BG112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH112">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ112">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BK112">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:63">
@@ -22435,7 +22450,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>5557284</v>
+        <v>5557281</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -22450,10 +22465,10 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -22474,28 +22489,28 @@
         <v>3</v>
       </c>
       <c r="O113" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>12</v>
+      </c>
+      <c r="T113">
+        <v>3</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
         <v>4</v>
-      </c>
-      <c r="S113">
-        <v>11</v>
-      </c>
-      <c r="T113">
-        <v>2.3</v>
-      </c>
-      <c r="U113">
-        <v>1.91</v>
-      </c>
-      <c r="V113">
-        <v>6</v>
       </c>
       <c r="W113">
         <v>1.61</v>
@@ -22516,109 +22531,109 @@
         <v>1.05</v>
       </c>
       <c r="AC113">
-        <v>1.59</v>
+        <v>2.15</v>
       </c>
       <c r="AD113">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AE113">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="AF113">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AG113">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH113">
+        <v>1.53</v>
+      </c>
+      <c r="AI113">
+        <v>2.34</v>
+      </c>
+      <c r="AJ113">
+        <v>2.59</v>
+      </c>
+      <c r="AK113">
+        <v>1.44</v>
+      </c>
+      <c r="AL113">
+        <v>2.2</v>
+      </c>
+      <c r="AM113">
+        <v>1.6</v>
+      </c>
+      <c r="AN113">
+        <v>1.25</v>
+      </c>
+      <c r="AO113">
+        <v>1.33</v>
+      </c>
+      <c r="AP113">
+        <v>1.5</v>
+      </c>
+      <c r="AQ113">
+        <v>1.8</v>
+      </c>
+      <c r="AR113">
+        <v>1.4</v>
+      </c>
+      <c r="AS113">
+        <v>1.71</v>
+      </c>
+      <c r="AT113">
+        <v>1.67</v>
+      </c>
+      <c r="AU113">
+        <v>1.86</v>
+      </c>
+      <c r="AV113">
+        <v>1.43</v>
+      </c>
+      <c r="AW113">
+        <v>3.29</v>
+      </c>
+      <c r="AX113">
+        <v>1.73</v>
+      </c>
+      <c r="AY113">
+        <v>8.9</v>
+      </c>
+      <c r="AZ113">
+        <v>2.41</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>1.3</v>
+      </c>
+      <c r="BC113">
         <v>1.54</v>
       </c>
-      <c r="AI113">
-        <v>2.32</v>
-      </c>
-      <c r="AJ113">
-        <v>2.41</v>
-      </c>
-      <c r="AK113">
-        <v>1.5</v>
-      </c>
-      <c r="AL113">
-        <v>2.5</v>
-      </c>
-      <c r="AM113">
-        <v>1.47</v>
-      </c>
-      <c r="AN113">
-        <v>1.11</v>
-      </c>
-      <c r="AO113">
-        <v>1.25</v>
-      </c>
-      <c r="AP113">
-        <v>1.95</v>
-      </c>
-      <c r="AQ113">
-        <v>2.2</v>
-      </c>
-      <c r="AR113">
-        <v>0.2</v>
-      </c>
-      <c r="AS113">
-        <v>1.83</v>
-      </c>
-      <c r="AT113">
-        <v>0.67</v>
-      </c>
-      <c r="AU113">
-        <v>1.71</v>
-      </c>
-      <c r="AV113">
-        <v>0.88</v>
-      </c>
-      <c r="AW113">
-        <v>2.59</v>
-      </c>
-      <c r="AX113">
-        <v>1.68</v>
-      </c>
-      <c r="AY113">
-        <v>8.4</v>
-      </c>
-      <c r="AZ113">
-        <v>2.55</v>
-      </c>
-      <c r="BA113">
-        <v>0</v>
-      </c>
-      <c r="BB113">
-        <v>1.61</v>
-      </c>
-      <c r="BC113">
-        <v>2.05</v>
-      </c>
       <c r="BD113">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="BE113">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="BF113">
         <v>9</v>
       </c>
       <c r="BG113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI113">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ113">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BK113">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:63">
@@ -22668,7 +22683,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22817,7 +22832,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>5557278</v>
+        <v>5557279</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -22832,10 +22847,10 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H115" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -22847,160 +22862,160 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="P115" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="Q115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S115">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T115">
+        <v>2.97</v>
+      </c>
+      <c r="U115">
+        <v>1.85</v>
+      </c>
+      <c r="V115">
+        <v>4.15</v>
+      </c>
+      <c r="W115">
+        <v>1.57</v>
+      </c>
+      <c r="X115">
+        <v>2.26</v>
+      </c>
+      <c r="Y115">
+        <v>3.74</v>
+      </c>
+      <c r="Z115">
+        <v>1.23</v>
+      </c>
+      <c r="AA115">
+        <v>10.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.01</v>
+      </c>
+      <c r="AC115">
+        <v>1.95</v>
+      </c>
+      <c r="AD115">
+        <v>3.05</v>
+      </c>
+      <c r="AE115">
+        <v>3.55</v>
+      </c>
+      <c r="AF115">
+        <v>1.08</v>
+      </c>
+      <c r="AG115">
+        <v>6.05</v>
+      </c>
+      <c r="AH115">
+        <v>1.57</v>
+      </c>
+      <c r="AI115">
+        <v>2.3</v>
+      </c>
+      <c r="AJ115">
+        <v>2.66</v>
+      </c>
+      <c r="AK115">
+        <v>1.36</v>
+      </c>
+      <c r="AL115">
         <v>2.15</v>
       </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>6.5</v>
-      </c>
-      <c r="W115">
-        <v>1.54</v>
-      </c>
-      <c r="X115">
-        <v>2.36</v>
-      </c>
-      <c r="Y115">
-        <v>3.25</v>
-      </c>
-      <c r="Z115">
+      <c r="AM115">
+        <v>1.62</v>
+      </c>
+      <c r="AN115">
+        <v>1.25</v>
+      </c>
+      <c r="AO115">
         <v>1.33</v>
       </c>
-      <c r="AA115">
-        <v>8</v>
-      </c>
-      <c r="AB115">
-        <v>1.06</v>
-      </c>
-      <c r="AC115">
-        <v>1.53</v>
-      </c>
-      <c r="AD115">
-        <v>3.6</v>
-      </c>
-      <c r="AE115">
-        <v>5.2</v>
-      </c>
-      <c r="AF115">
-        <v>1.11</v>
-      </c>
-      <c r="AG115">
-        <v>6</v>
-      </c>
-      <c r="AH115">
-        <v>1.44</v>
-      </c>
-      <c r="AI115">
-        <v>2.4</v>
-      </c>
-      <c r="AJ115">
-        <v>2.4</v>
-      </c>
-      <c r="AK115">
-        <v>1.53</v>
-      </c>
-      <c r="AL115">
-        <v>2.4</v>
-      </c>
-      <c r="AM115">
+      <c r="AP115">
         <v>1.5</v>
       </c>
-      <c r="AN115">
-        <v>1.08</v>
-      </c>
-      <c r="AO115">
-        <v>1.22</v>
-      </c>
-      <c r="AP115">
-        <v>2.15</v>
-      </c>
       <c r="AQ115">
+        <v>0.8</v>
+      </c>
+      <c r="AR115">
+        <v>0.4</v>
+      </c>
+      <c r="AS115">
+        <v>0.67</v>
+      </c>
+      <c r="AT115">
+        <v>0.71</v>
+      </c>
+      <c r="AU115">
+        <v>1.86</v>
+      </c>
+      <c r="AV115">
+        <v>1.48</v>
+      </c>
+      <c r="AW115">
+        <v>3.34</v>
+      </c>
+      <c r="AX115">
+        <v>1.47</v>
+      </c>
+      <c r="AY115">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ115">
+        <v>3.16</v>
+      </c>
+      <c r="BA115">
+        <v>1.21</v>
+      </c>
+      <c r="BB115">
         <v>1.4</v>
       </c>
-      <c r="AR115">
-        <v>0</v>
-      </c>
-      <c r="AS115">
-        <v>1.17</v>
-      </c>
-      <c r="AT115">
-        <v>0.43</v>
-      </c>
-      <c r="AU115">
-        <v>2.27</v>
-      </c>
-      <c r="AV115">
-        <v>1.19</v>
-      </c>
-      <c r="AW115">
-        <v>3.46</v>
-      </c>
-      <c r="AX115">
-        <v>1.39</v>
-      </c>
-      <c r="AY115">
-        <v>9.9</v>
-      </c>
-      <c r="AZ115">
-        <v>3.51</v>
-      </c>
-      <c r="BA115">
-        <v>0</v>
-      </c>
-      <c r="BB115">
-        <v>0</v>
-      </c>
       <c r="BC115">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="BD115">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="BE115">
-        <v>2.42</v>
+        <v>2.95</v>
       </c>
       <c r="BF115">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG115">
+        <v>2</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>5</v>
+      </c>
+      <c r="BJ115">
+        <v>10</v>
+      </c>
+      <c r="BK115">
         <v>7</v>
-      </c>
-      <c r="BH115">
-        <v>13</v>
-      </c>
-      <c r="BI115">
-        <v>4</v>
-      </c>
-      <c r="BJ115">
-        <v>22</v>
-      </c>
-      <c r="BK115">
-        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:63">
@@ -23008,7 +23023,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>5557279</v>
+        <v>5557278</v>
       </c>
       <c r="C116" t="s">
         <v>63</v>
@@ -23023,10 +23038,10 @@
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H116" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -23038,160 +23053,160 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O116" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>9</v>
+      </c>
+      <c r="T116">
+        <v>2.15</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
+        <v>6.5</v>
+      </c>
+      <c r="W116">
+        <v>1.54</v>
+      </c>
+      <c r="X116">
+        <v>2.36</v>
+      </c>
+      <c r="Y116">
+        <v>3.25</v>
+      </c>
+      <c r="Z116">
+        <v>1.33</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.06</v>
+      </c>
+      <c r="AC116">
+        <v>1.53</v>
+      </c>
+      <c r="AD116">
+        <v>3.6</v>
+      </c>
+      <c r="AE116">
+        <v>5.2</v>
+      </c>
+      <c r="AF116">
+        <v>1.11</v>
+      </c>
+      <c r="AG116">
+        <v>6</v>
+      </c>
+      <c r="AH116">
+        <v>1.44</v>
+      </c>
+      <c r="AI116">
+        <v>2.4</v>
+      </c>
+      <c r="AJ116">
+        <v>2.4</v>
+      </c>
+      <c r="AK116">
+        <v>1.53</v>
+      </c>
+      <c r="AL116">
+        <v>2.4</v>
+      </c>
+      <c r="AM116">
+        <v>1.5</v>
+      </c>
+      <c r="AN116">
+        <v>1.08</v>
+      </c>
+      <c r="AO116">
+        <v>1.22</v>
+      </c>
+      <c r="AP116">
+        <v>2.15</v>
+      </c>
+      <c r="AQ116">
+        <v>1.4</v>
+      </c>
+      <c r="AR116">
+        <v>0</v>
+      </c>
+      <c r="AS116">
+        <v>1.17</v>
+      </c>
+      <c r="AT116">
+        <v>0.43</v>
+      </c>
+      <c r="AU116">
+        <v>2.27</v>
+      </c>
+      <c r="AV116">
+        <v>1.19</v>
+      </c>
+      <c r="AW116">
+        <v>3.46</v>
+      </c>
+      <c r="AX116">
+        <v>1.39</v>
+      </c>
+      <c r="AY116">
+        <v>9.9</v>
+      </c>
+      <c r="AZ116">
+        <v>3.51</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>1.53</v>
+      </c>
+      <c r="BD116">
+        <v>1.88</v>
+      </c>
+      <c r="BE116">
+        <v>2.42</v>
+      </c>
+      <c r="BF116">
+        <v>9</v>
+      </c>
+      <c r="BG116">
         <v>7</v>
       </c>
-      <c r="R116">
-        <v>1</v>
-      </c>
-      <c r="S116">
-        <v>8</v>
-      </c>
-      <c r="T116">
-        <v>2.97</v>
-      </c>
-      <c r="U116">
-        <v>1.85</v>
-      </c>
-      <c r="V116">
-        <v>4.15</v>
-      </c>
-      <c r="W116">
-        <v>1.57</v>
-      </c>
-      <c r="X116">
-        <v>2.26</v>
-      </c>
-      <c r="Y116">
-        <v>3.74</v>
-      </c>
-      <c r="Z116">
-        <v>1.23</v>
-      </c>
-      <c r="AA116">
-        <v>10.5</v>
-      </c>
-      <c r="AB116">
-        <v>1.01</v>
-      </c>
-      <c r="AC116">
-        <v>1.95</v>
-      </c>
-      <c r="AD116">
-        <v>3.05</v>
-      </c>
-      <c r="AE116">
-        <v>3.55</v>
-      </c>
-      <c r="AF116">
-        <v>1.08</v>
-      </c>
-      <c r="AG116">
-        <v>6.05</v>
-      </c>
-      <c r="AH116">
-        <v>1.57</v>
-      </c>
-      <c r="AI116">
-        <v>2.3</v>
-      </c>
-      <c r="AJ116">
-        <v>2.66</v>
-      </c>
-      <c r="AK116">
-        <v>1.36</v>
-      </c>
-      <c r="AL116">
-        <v>2.15</v>
-      </c>
-      <c r="AM116">
-        <v>1.62</v>
-      </c>
-      <c r="AN116">
-        <v>1.25</v>
-      </c>
-      <c r="AO116">
-        <v>1.33</v>
-      </c>
-      <c r="AP116">
-        <v>1.5</v>
-      </c>
-      <c r="AQ116">
-        <v>0.8</v>
-      </c>
-      <c r="AR116">
-        <v>0.4</v>
-      </c>
-      <c r="AS116">
-        <v>0.67</v>
-      </c>
-      <c r="AT116">
-        <v>0.83</v>
-      </c>
-      <c r="AU116">
-        <v>1.86</v>
-      </c>
-      <c r="AV116">
-        <v>1.48</v>
-      </c>
-      <c r="AW116">
-        <v>3.34</v>
-      </c>
-      <c r="AX116">
-        <v>1.47</v>
-      </c>
-      <c r="AY116">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ116">
-        <v>3.16</v>
-      </c>
-      <c r="BA116">
-        <v>1.21</v>
-      </c>
-      <c r="BB116">
-        <v>1.4</v>
-      </c>
-      <c r="BC116">
-        <v>1.71</v>
-      </c>
-      <c r="BD116">
-        <v>2.17</v>
-      </c>
-      <c r="BE116">
-        <v>2.95</v>
-      </c>
-      <c r="BF116">
-        <v>5</v>
-      </c>
-      <c r="BG116">
-        <v>2</v>
-      </c>
       <c r="BH116">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ116">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BK116">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:63">
@@ -23199,7 +23214,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>5557282</v>
+        <v>5557283</v>
       </c>
       <c r="C117" t="s">
         <v>63</v>
@@ -23214,10 +23229,10 @@
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H117" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -23229,160 +23244,160 @@
         <v>1</v>
       </c>
       <c r="L117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M117">
         <v>1</v>
       </c>
       <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>113</v>
+      </c>
+      <c r="P117" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>12</v>
+      </c>
+      <c r="T117">
         <v>3</v>
       </c>
-      <c r="O117" t="s">
-        <v>163</v>
-      </c>
-      <c r="P117" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q117">
-        <v>6</v>
-      </c>
-      <c r="R117">
-        <v>2</v>
-      </c>
-      <c r="S117">
-        <v>8</v>
-      </c>
-      <c r="T117">
-        <v>2.8</v>
-      </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>4.27</v>
+        <v>4</v>
       </c>
       <c r="W117">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="X117">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="Y117">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="Z117">
         <v>1.29</v>
       </c>
       <c r="AA117">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="AB117">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AC117">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="AD117">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="AE117">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="AF117">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AG117">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="AH117">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AI117">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AJ117">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="AK117">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AL117">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AM117">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AN117">
         <v>1.25</v>
       </c>
       <c r="AO117">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP117">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117">
+        <v>1.67</v>
+      </c>
+      <c r="AR117">
+        <v>1.2</v>
+      </c>
+      <c r="AS117">
         <v>1.57</v>
       </c>
-      <c r="AQ117">
-        <v>1</v>
-      </c>
-      <c r="AR117">
-        <v>1.33</v>
-      </c>
-      <c r="AS117">
-        <v>1.29</v>
-      </c>
       <c r="AT117">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AU117">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AV117">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AW117">
-        <v>2.79</v>
+        <v>2.53</v>
       </c>
       <c r="AX117">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AY117">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AZ117">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="BA117">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BB117">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BC117">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="BD117">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="BE117">
+        <v>2.64</v>
+      </c>
+      <c r="BF117">
+        <v>6</v>
+      </c>
+      <c r="BG117">
         <v>3</v>
       </c>
-      <c r="BF117">
-        <v>4</v>
-      </c>
-      <c r="BG117">
-        <v>2</v>
-      </c>
       <c r="BH117">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BI117">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BJ117">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BK117">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:63">
@@ -23390,7 +23405,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>5557283</v>
+        <v>5557282</v>
       </c>
       <c r="C118" t="s">
         <v>63</v>
@@ -23405,10 +23420,10 @@
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -23420,160 +23435,160 @@
         <v>1</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M118">
         <v>1</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O118" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>4</v>
+        <v>4.27</v>
       </c>
       <c r="W118">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="X118">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Y118">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="Z118">
         <v>1.29</v>
       </c>
       <c r="AA118">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB118">
+        <v>1.02</v>
+      </c>
+      <c r="AC118">
+        <v>2.47</v>
+      </c>
+      <c r="AD118">
+        <v>2.7</v>
+      </c>
+      <c r="AE118">
+        <v>2.9</v>
+      </c>
+      <c r="AF118">
         <v>1.05</v>
       </c>
-      <c r="AC118">
-        <v>2.25</v>
-      </c>
-      <c r="AD118">
-        <v>2.89</v>
-      </c>
-      <c r="AE118">
-        <v>3.05</v>
-      </c>
-      <c r="AF118">
-        <v>1.14</v>
-      </c>
       <c r="AG118">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="AH118">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AI118">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AJ118">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="AK118">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AL118">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AM118">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AN118">
         <v>1.25</v>
       </c>
       <c r="AO118">
+        <v>1.3</v>
+      </c>
+      <c r="AP118">
+        <v>1.57</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
         <v>1.33</v>
       </c>
-      <c r="AP118">
-        <v>1.5</v>
-      </c>
-      <c r="AQ118">
-        <v>1.67</v>
-      </c>
-      <c r="AR118">
-        <v>1.2</v>
-      </c>
       <c r="AS118">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AT118">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU118">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AV118">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AW118">
-        <v>2.53</v>
+        <v>2.79</v>
       </c>
       <c r="AX118">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AY118">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AZ118">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="BA118">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BB118">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BC118">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="BD118">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="BE118">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>2</v>
+      </c>
+      <c r="BH118">
         <v>6</v>
       </c>
-      <c r="BG118">
+      <c r="BI118">
         <v>3</v>
       </c>
-      <c r="BH118">
-        <v>15</v>
-      </c>
-      <c r="BI118">
-        <v>12</v>
-      </c>
       <c r="BJ118">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BK118">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:63">
@@ -23581,7 +23596,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>5557280</v>
+        <v>5557275</v>
       </c>
       <c r="C119" t="s">
         <v>63</v>
@@ -23596,52 +23611,52 @@
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H119" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O119" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q119">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S119">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="U119">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>4</v>
+        <v>4.92</v>
       </c>
       <c r="W119">
         <v>1.51</v>
@@ -23650,121 +23665,121 @@
         <v>2.4</v>
       </c>
       <c r="Y119">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Z119">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA119">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB119">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC119">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="AD119">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="AE119">
-        <v>3.27</v>
+        <v>3.89</v>
       </c>
       <c r="AF119">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AG119">
-        <v>7.65</v>
+        <v>7.9</v>
       </c>
       <c r="AH119">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AI119">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AJ119">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AK119">
         <v>1.5</v>
       </c>
       <c r="AL119">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AM119">
+        <v>1.66</v>
+      </c>
+      <c r="AN119">
+        <v>1.2</v>
+      </c>
+      <c r="AO119">
+        <v>1.25</v>
+      </c>
+      <c r="AP119">
+        <v>1.72</v>
+      </c>
+      <c r="AQ119">
         <v>1.67</v>
       </c>
-      <c r="AN119">
-        <v>1.25</v>
-      </c>
-      <c r="AO119">
-        <v>1.3</v>
-      </c>
-      <c r="AP119">
+      <c r="AR119">
+        <v>1</v>
+      </c>
+      <c r="AS119">
         <v>1.57</v>
       </c>
-      <c r="AQ119">
-        <v>1.6</v>
-      </c>
-      <c r="AR119">
-        <v>0.6</v>
-      </c>
-      <c r="AS119">
-        <v>1.33</v>
-      </c>
       <c r="AT119">
         <v>1</v>
       </c>
       <c r="AU119">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AV119">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AW119">
-        <v>2.93</v>
+        <v>3.12</v>
       </c>
       <c r="AX119">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AY119">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AZ119">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="BA119">
         <v>0</v>
       </c>
       <c r="BB119">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BC119">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="BD119">
-        <v>2.42</v>
+        <v>2.01</v>
       </c>
       <c r="BE119">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="BF119">
+        <v>8</v>
+      </c>
+      <c r="BG119">
+        <v>5</v>
+      </c>
+      <c r="BH119">
+        <v>3</v>
+      </c>
+      <c r="BI119">
         <v>7</v>
       </c>
-      <c r="BG119">
-        <v>6</v>
-      </c>
-      <c r="BH119">
-        <v>8</v>
-      </c>
-      <c r="BI119">
-        <v>9</v>
-      </c>
       <c r="BJ119">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BK119">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:63">
@@ -23772,7 +23787,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>5557275</v>
+        <v>5557280</v>
       </c>
       <c r="C120" t="s">
         <v>63</v>
@@ -23787,52 +23802,52 @@
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H120" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>85</v>
+      </c>
+      <c r="P120" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q120">
+        <v>9</v>
+      </c>
+      <c r="R120">
+        <v>7</v>
+      </c>
+      <c r="S120">
+        <v>16</v>
+      </c>
+      <c r="T120">
         <v>3</v>
       </c>
-      <c r="L120">
-        <v>3</v>
-      </c>
-      <c r="M120">
-        <v>3</v>
-      </c>
-      <c r="N120">
-        <v>6</v>
-      </c>
-      <c r="O120" t="s">
-        <v>164</v>
-      </c>
-      <c r="P120" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q120">
+      <c r="U120">
+        <v>1.91</v>
+      </c>
+      <c r="V120">
         <v>4</v>
-      </c>
-      <c r="R120">
-        <v>8</v>
-      </c>
-      <c r="S120">
-        <v>12</v>
-      </c>
-      <c r="T120">
-        <v>2.57</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>4.92</v>
       </c>
       <c r="W120">
         <v>1.51</v>
@@ -23841,121 +23856,121 @@
         <v>2.4</v>
       </c>
       <c r="Y120">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="Z120">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA120">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AB120">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AC120">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="AD120">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AE120">
-        <v>3.89</v>
+        <v>3.27</v>
       </c>
       <c r="AF120">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AG120">
-        <v>7.9</v>
+        <v>7.65</v>
       </c>
       <c r="AH120">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AI120">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AJ120">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AK120">
         <v>1.5</v>
       </c>
       <c r="AL120">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AM120">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AN120">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO120">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP120">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR120">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AS120">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
         <v>1</v>
       </c>
       <c r="AU120">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AV120">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AW120">
-        <v>3.12</v>
+        <v>2.93</v>
       </c>
       <c r="AX120">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AY120">
+        <v>8.4</v>
+      </c>
+      <c r="AZ120">
+        <v>2.27</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>1.5</v>
+      </c>
+      <c r="BC120">
+        <v>2</v>
+      </c>
+      <c r="BD120">
+        <v>2.42</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>7</v>
+      </c>
+      <c r="BG120">
+        <v>6</v>
+      </c>
+      <c r="BH120">
+        <v>8</v>
+      </c>
+      <c r="BI120">
         <v>9</v>
       </c>
-      <c r="AZ120">
-        <v>2.52</v>
-      </c>
-      <c r="BA120">
-        <v>0</v>
-      </c>
-      <c r="BB120">
-        <v>1.44</v>
-      </c>
-      <c r="BC120">
-        <v>1.61</v>
-      </c>
-      <c r="BD120">
-        <v>2.01</v>
-      </c>
-      <c r="BE120">
-        <v>2.64</v>
-      </c>
-      <c r="BF120">
-        <v>8</v>
-      </c>
-      <c r="BG120">
-        <v>5</v>
-      </c>
-      <c r="BH120">
-        <v>3</v>
-      </c>
-      <c r="BI120">
-        <v>7</v>
-      </c>
       <c r="BJ120">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK120">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:63">
@@ -24005,7 +24020,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24147,6 +24162,1343 @@
       </c>
       <c r="BK121">
         <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5557293</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>67</v>
+      </c>
+      <c r="H122" t="s">
+        <v>74</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>85</v>
+      </c>
+      <c r="P122" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>8</v>
+      </c>
+      <c r="S122">
+        <v>12</v>
+      </c>
+      <c r="T122">
+        <v>3.12</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>3.61</v>
+      </c>
+      <c r="W122">
+        <v>1.5</v>
+      </c>
+      <c r="X122">
+        <v>2.5</v>
+      </c>
+      <c r="Y122">
+        <v>3.25</v>
+      </c>
+      <c r="Z122">
+        <v>1.29</v>
+      </c>
+      <c r="AA122">
+        <v>9.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.04</v>
+      </c>
+      <c r="AC122">
+        <v>2.4</v>
+      </c>
+      <c r="AD122">
+        <v>2.88</v>
+      </c>
+      <c r="AE122">
+        <v>2.88</v>
+      </c>
+      <c r="AF122">
+        <v>1.06</v>
+      </c>
+      <c r="AG122">
+        <v>6.6</v>
+      </c>
+      <c r="AH122">
+        <v>1.45</v>
+      </c>
+      <c r="AI122">
+        <v>2.48</v>
+      </c>
+      <c r="AJ122">
+        <v>2.33</v>
+      </c>
+      <c r="AK122">
+        <v>1.56</v>
+      </c>
+      <c r="AL122">
+        <v>1.95</v>
+      </c>
+      <c r="AM122">
+        <v>1.81</v>
+      </c>
+      <c r="AN122">
+        <v>1.33</v>
+      </c>
+      <c r="AO122">
+        <v>1.33</v>
+      </c>
+      <c r="AP122">
+        <v>1.44</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>1.33</v>
+      </c>
+      <c r="AS122">
+        <v>1.83</v>
+      </c>
+      <c r="AT122">
+        <v>1.29</v>
+      </c>
+      <c r="AU122">
+        <v>1.56</v>
+      </c>
+      <c r="AV122">
+        <v>1.69</v>
+      </c>
+      <c r="AW122">
+        <v>3.25</v>
+      </c>
+      <c r="AX122">
+        <v>1.95</v>
+      </c>
+      <c r="AY122">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ122">
+        <v>2.04</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>1.39</v>
+      </c>
+      <c r="BC122">
+        <v>1.75</v>
+      </c>
+      <c r="BD122">
+        <v>2.17</v>
+      </c>
+      <c r="BE122">
+        <v>2.7</v>
+      </c>
+      <c r="BF122">
+        <v>2</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>8</v>
+      </c>
+      <c r="BI122">
+        <v>9</v>
+      </c>
+      <c r="BJ122">
+        <v>10</v>
+      </c>
+      <c r="BK122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5557294</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>166</v>
+      </c>
+      <c r="P123" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q123">
+        <v>5</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>8</v>
+      </c>
+      <c r="T123">
+        <v>2.32</v>
+      </c>
+      <c r="U123">
+        <v>2.07</v>
+      </c>
+      <c r="V123">
+        <v>5.75</v>
+      </c>
+      <c r="W123">
+        <v>1.5</v>
+      </c>
+      <c r="X123">
+        <v>2.5</v>
+      </c>
+      <c r="Y123">
+        <v>3.25</v>
+      </c>
+      <c r="Z123">
+        <v>1.29</v>
+      </c>
+      <c r="AA123">
+        <v>9.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.04</v>
+      </c>
+      <c r="AC123">
+        <v>1.6</v>
+      </c>
+      <c r="AD123">
+        <v>3.4</v>
+      </c>
+      <c r="AE123">
+        <v>5</v>
+      </c>
+      <c r="AF123">
+        <v>1.06</v>
+      </c>
+      <c r="AG123">
+        <v>6.8</v>
+      </c>
+      <c r="AH123">
+        <v>1.44</v>
+      </c>
+      <c r="AI123">
+        <v>2.51</v>
+      </c>
+      <c r="AJ123">
+        <v>2.47</v>
+      </c>
+      <c r="AK123">
+        <v>1.48</v>
+      </c>
+      <c r="AL123">
+        <v>2.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.61</v>
+      </c>
+      <c r="AN123">
+        <v>1.1</v>
+      </c>
+      <c r="AO123">
+        <v>1.25</v>
+      </c>
+      <c r="AP123">
+        <v>2.1</v>
+      </c>
+      <c r="AQ123">
+        <v>1.67</v>
+      </c>
+      <c r="AR123">
+        <v>1.33</v>
+      </c>
+      <c r="AS123">
+        <v>1.86</v>
+      </c>
+      <c r="AT123">
+        <v>1.14</v>
+      </c>
+      <c r="AU123">
+        <v>1.69</v>
+      </c>
+      <c r="AV123">
+        <v>1.34</v>
+      </c>
+      <c r="AW123">
+        <v>3.03</v>
+      </c>
+      <c r="AX123">
+        <v>1.42</v>
+      </c>
+      <c r="AY123">
+        <v>9.5</v>
+      </c>
+      <c r="AZ123">
+        <v>3.24</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>1.56</v>
+      </c>
+      <c r="BD123">
+        <v>1.9</v>
+      </c>
+      <c r="BE123">
+        <v>2.36</v>
+      </c>
+      <c r="BF123">
+        <v>11</v>
+      </c>
+      <c r="BG123">
+        <v>5</v>
+      </c>
+      <c r="BH123">
+        <v>4</v>
+      </c>
+      <c r="BI123">
+        <v>6</v>
+      </c>
+      <c r="BJ123">
+        <v>15</v>
+      </c>
+      <c r="BK123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5557288</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45122.6875</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>83</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>167</v>
+      </c>
+      <c r="P124" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q124">
+        <v>7</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>2.48</v>
+      </c>
+      <c r="U124">
+        <v>2.02</v>
+      </c>
+      <c r="V124">
+        <v>5.24</v>
+      </c>
+      <c r="W124">
+        <v>1.5</v>
+      </c>
+      <c r="X124">
+        <v>2.5</v>
+      </c>
+      <c r="Y124">
+        <v>3.25</v>
+      </c>
+      <c r="Z124">
+        <v>1.29</v>
+      </c>
+      <c r="AA124">
+        <v>9.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.04</v>
+      </c>
+      <c r="AC124">
+        <v>1.75</v>
+      </c>
+      <c r="AD124">
+        <v>3.1</v>
+      </c>
+      <c r="AE124">
+        <v>4.6</v>
+      </c>
+      <c r="AF124">
+        <v>1.06</v>
+      </c>
+      <c r="AG124">
+        <v>6.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.5</v>
+      </c>
+      <c r="AI124">
+        <v>2.45</v>
+      </c>
+      <c r="AJ124">
+        <v>2.5</v>
+      </c>
+      <c r="AK124">
+        <v>1.47</v>
+      </c>
+      <c r="AL124">
+        <v>2.1</v>
+      </c>
+      <c r="AM124">
+        <v>1.7</v>
+      </c>
+      <c r="AN124">
+        <v>1.14</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.91</v>
+      </c>
+      <c r="AQ124">
+        <v>2.17</v>
+      </c>
+      <c r="AR124">
+        <v>1</v>
+      </c>
+      <c r="AS124">
+        <v>2.29</v>
+      </c>
+      <c r="AT124">
+        <v>0.83</v>
+      </c>
+      <c r="AU124">
+        <v>1.86</v>
+      </c>
+      <c r="AV124">
+        <v>1.12</v>
+      </c>
+      <c r="AW124">
+        <v>2.98</v>
+      </c>
+      <c r="AX124">
+        <v>1.4</v>
+      </c>
+      <c r="AY124">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ124">
+        <v>3.32</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>1.63</v>
+      </c>
+      <c r="BD124">
+        <v>1.83</v>
+      </c>
+      <c r="BE124">
+        <v>2.45</v>
+      </c>
+      <c r="BF124">
+        <v>4</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>7</v>
+      </c>
+      <c r="BI124">
+        <v>1</v>
+      </c>
+      <c r="BJ124">
+        <v>11</v>
+      </c>
+      <c r="BK124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5557291</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45122.79166666666</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>72</v>
+      </c>
+      <c r="H125" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>168</v>
+      </c>
+      <c r="P125" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>2.22</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>6.16</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>3.25</v>
+      </c>
+      <c r="Z125">
+        <v>1.29</v>
+      </c>
+      <c r="AA125">
+        <v>9.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.04</v>
+      </c>
+      <c r="AC125">
+        <v>1.6</v>
+      </c>
+      <c r="AD125">
+        <v>3.4</v>
+      </c>
+      <c r="AE125">
+        <v>5.5</v>
+      </c>
+      <c r="AF125">
+        <v>1.1</v>
+      </c>
+      <c r="AG125">
+        <v>6.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.49</v>
+      </c>
+      <c r="AI125">
+        <v>2.48</v>
+      </c>
+      <c r="AJ125">
+        <v>2.56</v>
+      </c>
+      <c r="AK125">
+        <v>1.45</v>
+      </c>
+      <c r="AL125">
+        <v>2.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.61</v>
+      </c>
+      <c r="AN125">
+        <v>1.1</v>
+      </c>
+      <c r="AO125">
+        <v>1.25</v>
+      </c>
+      <c r="AP125">
+        <v>2.2</v>
+      </c>
+      <c r="AQ125">
+        <v>1.5</v>
+      </c>
+      <c r="AR125">
+        <v>0.8</v>
+      </c>
+      <c r="AS125">
+        <v>1.71</v>
+      </c>
+      <c r="AT125">
+        <v>0.67</v>
+      </c>
+      <c r="AU125">
+        <v>1.94</v>
+      </c>
+      <c r="AV125">
+        <v>1.08</v>
+      </c>
+      <c r="AW125">
+        <v>3.02</v>
+      </c>
+      <c r="AX125">
+        <v>1.4</v>
+      </c>
+      <c r="AY125">
+        <v>9.4</v>
+      </c>
+      <c r="AZ125">
+        <v>3.51</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>1.42</v>
+      </c>
+      <c r="BC125">
+        <v>1.98</v>
+      </c>
+      <c r="BD125">
+        <v>2.09</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>4</v>
+      </c>
+      <c r="BH125">
+        <v>6</v>
+      </c>
+      <c r="BI125">
+        <v>6</v>
+      </c>
+      <c r="BJ125">
+        <v>11</v>
+      </c>
+      <c r="BK125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5557290</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s">
+        <v>65</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>169</v>
+      </c>
+      <c r="P126" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q126">
+        <v>7</v>
+      </c>
+      <c r="R126">
+        <v>7</v>
+      </c>
+      <c r="S126">
+        <v>14</v>
+      </c>
+      <c r="T126">
+        <v>2.77</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>4.6</v>
+      </c>
+      <c r="W126">
+        <v>1.53</v>
+      </c>
+      <c r="X126">
+        <v>2.34</v>
+      </c>
+      <c r="Y126">
+        <v>3.48</v>
+      </c>
+      <c r="Z126">
+        <v>1.26</v>
+      </c>
+      <c r="AA126">
+        <v>9.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.02</v>
+      </c>
+      <c r="AC126">
+        <v>2.05</v>
+      </c>
+      <c r="AD126">
+        <v>3</v>
+      </c>
+      <c r="AE126">
+        <v>3.6</v>
+      </c>
+      <c r="AF126">
+        <v>1.06</v>
+      </c>
+      <c r="AG126">
+        <v>6.55</v>
+      </c>
+      <c r="AH126">
+        <v>1.46</v>
+      </c>
+      <c r="AI126">
+        <v>2.45</v>
+      </c>
+      <c r="AJ126">
+        <v>2.5</v>
+      </c>
+      <c r="AK126">
+        <v>1.49</v>
+      </c>
+      <c r="AL126">
+        <v>2.07</v>
+      </c>
+      <c r="AM126">
+        <v>1.72</v>
+      </c>
+      <c r="AN126">
+        <v>1.25</v>
+      </c>
+      <c r="AO126">
+        <v>1.32</v>
+      </c>
+      <c r="AP126">
+        <v>1.66</v>
+      </c>
+      <c r="AQ126">
+        <v>1.33</v>
+      </c>
+      <c r="AR126">
+        <v>1.14</v>
+      </c>
+      <c r="AS126">
+        <v>1.57</v>
+      </c>
+      <c r="AT126">
+        <v>1</v>
+      </c>
+      <c r="AU126">
+        <v>1.91</v>
+      </c>
+      <c r="AV126">
+        <v>1.1</v>
+      </c>
+      <c r="AW126">
+        <v>3.01</v>
+      </c>
+      <c r="AX126">
+        <v>1.48</v>
+      </c>
+      <c r="AY126">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ126">
+        <v>2.99</v>
+      </c>
+      <c r="BA126">
+        <v>1.21</v>
+      </c>
+      <c r="BB126">
+        <v>1.38</v>
+      </c>
+      <c r="BC126">
+        <v>1.72</v>
+      </c>
+      <c r="BD126">
+        <v>2.13</v>
+      </c>
+      <c r="BE126">
+        <v>2.95</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>6</v>
+      </c>
+      <c r="BI126">
+        <v>7</v>
+      </c>
+      <c r="BJ126">
+        <v>12</v>
+      </c>
+      <c r="BK126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5557292</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>170</v>
+      </c>
+      <c r="P127" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q127">
+        <v>10</v>
+      </c>
+      <c r="R127">
+        <v>3</v>
+      </c>
+      <c r="S127">
+        <v>13</v>
+      </c>
+      <c r="T127">
+        <v>3.18</v>
+      </c>
+      <c r="U127">
+        <v>1.89</v>
+      </c>
+      <c r="V127">
+        <v>3.83</v>
+      </c>
+      <c r="W127">
+        <v>1.53</v>
+      </c>
+      <c r="X127">
+        <v>2.34</v>
+      </c>
+      <c r="Y127">
+        <v>3.48</v>
+      </c>
+      <c r="Z127">
+        <v>1.26</v>
+      </c>
+      <c r="AA127">
+        <v>9.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.02</v>
+      </c>
+      <c r="AC127">
+        <v>2.4</v>
+      </c>
+      <c r="AD127">
+        <v>2.88</v>
+      </c>
+      <c r="AE127">
+        <v>2.9</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>6.5</v>
+      </c>
+      <c r="AH127">
+        <v>1.46</v>
+      </c>
+      <c r="AI127">
+        <v>2.45</v>
+      </c>
+      <c r="AJ127">
+        <v>2.55</v>
+      </c>
+      <c r="AK127">
+        <v>1.48</v>
+      </c>
+      <c r="AL127">
+        <v>2.03</v>
+      </c>
+      <c r="AM127">
+        <v>1.75</v>
+      </c>
+      <c r="AN127">
+        <v>1.36</v>
+      </c>
+      <c r="AO127">
+        <v>1.33</v>
+      </c>
+      <c r="AP127">
+        <v>1.47</v>
+      </c>
+      <c r="AQ127">
+        <v>1.2</v>
+      </c>
+      <c r="AR127">
+        <v>0.83</v>
+      </c>
+      <c r="AS127">
+        <v>1.17</v>
+      </c>
+      <c r="AT127">
+        <v>0.86</v>
+      </c>
+      <c r="AU127">
+        <v>1.77</v>
+      </c>
+      <c r="AV127">
+        <v>1.58</v>
+      </c>
+      <c r="AW127">
+        <v>3.35</v>
+      </c>
+      <c r="AX127">
+        <v>2.09</v>
+      </c>
+      <c r="AY127">
+        <v>8.4</v>
+      </c>
+      <c r="AZ127">
+        <v>1.92</v>
+      </c>
+      <c r="BA127">
+        <v>1.25</v>
+      </c>
+      <c r="BB127">
+        <v>1.51</v>
+      </c>
+      <c r="BC127">
+        <v>1.83</v>
+      </c>
+      <c r="BD127">
+        <v>2.28</v>
+      </c>
+      <c r="BE127">
+        <v>3.25</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>6</v>
+      </c>
+      <c r="BI127">
+        <v>7</v>
+      </c>
+      <c r="BJ127">
+        <v>12</v>
+      </c>
+      <c r="BK127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5557287</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45123.6875</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>80</v>
+      </c>
+      <c r="H128" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>171</v>
+      </c>
+      <c r="P128" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q128">
+        <v>5</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>2.1</v>
+      </c>
+      <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
+        <v>8</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>1.5</v>
+      </c>
+      <c r="AD128">
+        <v>3.6</v>
+      </c>
+      <c r="AE128">
+        <v>6</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>1.48</v>
+      </c>
+      <c r="AI128">
+        <v>2.5</v>
+      </c>
+      <c r="AJ128">
+        <v>2.21</v>
+      </c>
+      <c r="AK128">
+        <v>1.52</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>2.33</v>
+      </c>
+      <c r="AR128">
+        <v>0.83</v>
+      </c>
+      <c r="AS128">
+        <v>2.43</v>
+      </c>
+      <c r="AT128">
+        <v>0.71</v>
+      </c>
+      <c r="AU128">
+        <v>2.06</v>
+      </c>
+      <c r="AV128">
+        <v>1.42</v>
+      </c>
+      <c r="AW128">
+        <v>3.48</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>5</v>
+      </c>
+      <c r="BG128">
+        <v>4</v>
+      </c>
+      <c r="BH128">
+        <v>5</v>
+      </c>
+      <c r="BI128">
+        <v>4</v>
+      </c>
+      <c r="BJ128">
+        <v>10</v>
+      </c>
+      <c r="BK128">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,15 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['27', '49', '63', '85']</t>
+  </si>
+  <si>
+    <t>['18', '44', '45+2', '62', '68']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -1047,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1482,7 +1491,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1569,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1673,7 +1682,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1864,7 +1873,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2145,7 +2154,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2333,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0.67</v>
@@ -2628,7 +2637,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -3010,7 +3019,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3100,7 +3109,7 @@
         <v>1.83</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3583,7 +3592,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4052,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
         <v>1.17</v>
@@ -4347,7 +4356,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4538,7 +4547,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4920,7 +4929,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5198,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT22">
         <v>0.67</v>
@@ -5493,7 +5502,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5875,7 +5884,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6257,7 +6266,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6347,7 +6356,7 @@
         <v>0.83</v>
       </c>
       <c r="AT28">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6448,7 +6457,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6639,7 +6648,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6830,7 +6839,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7021,7 +7030,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7212,7 +7221,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7403,7 +7412,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7594,7 +7603,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7684,7 +7693,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU35">
         <v>1.34</v>
@@ -7976,7 +7985,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8254,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>0.43</v>
@@ -8445,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT39">
         <v>0.86</v>
@@ -8549,7 +8558,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8830,7 +8839,7 @@
         <v>2.2</v>
       </c>
       <c r="AT41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9018,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
         <v>0.43</v>
@@ -9695,7 +9704,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9976,7 +9985,7 @@
         <v>2.43</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU47">
         <v>1.87</v>
@@ -10164,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT48">
         <v>0.67</v>
@@ -10358,7 +10367,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10459,7 +10468,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11605,7 +11614,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11695,7 +11704,7 @@
         <v>1.86</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11883,7 +11892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -11987,7 +11996,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12178,7 +12187,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12265,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT59">
         <v>0.67</v>
@@ -12369,7 +12378,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12459,7 +12468,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU60">
         <v>1.61</v>
@@ -14088,7 +14097,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14748,7 +14757,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT72">
         <v>1.5</v>
@@ -15043,7 +15052,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15133,7 +15142,7 @@
         <v>1.29</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15703,7 +15712,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -15807,7 +15816,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16085,7 +16094,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT79">
         <v>1.29</v>
@@ -16189,7 +16198,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16279,7 +16288,7 @@
         <v>1.57</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU80">
         <v>1.45</v>
@@ -16380,7 +16389,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16571,7 +16580,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16762,7 +16771,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16852,7 +16861,7 @@
         <v>1.17</v>
       </c>
       <c r="AT83">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -16953,7 +16962,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17043,7 +17052,7 @@
         <v>0.67</v>
       </c>
       <c r="AT84">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU84">
         <v>1.81</v>
@@ -17144,7 +17153,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17335,7 +17344,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17526,7 +17535,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17613,7 +17622,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT87">
         <v>1.33</v>
@@ -17717,7 +17726,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17804,7 +17813,7 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>0.71</v>
@@ -17908,7 +17917,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18099,7 +18108,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18290,7 +18299,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18481,7 +18490,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18672,7 +18681,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19144,7 +19153,7 @@
         <v>1.17</v>
       </c>
       <c r="AT95">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU95">
         <v>1.84</v>
@@ -19332,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT96">
         <v>0.8</v>
@@ -19436,7 +19445,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19818,7 +19827,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20009,7 +20018,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20200,7 +20209,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20290,7 +20299,7 @@
         <v>2.29</v>
       </c>
       <c r="AT101">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -20964,7 +20973,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21051,7 +21060,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>1.67</v>
@@ -21245,7 +21254,7 @@
         <v>1.83</v>
       </c>
       <c r="AT106">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU106">
         <v>1.66</v>
@@ -21624,7 +21633,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT108">
         <v>1.17</v>
@@ -21818,7 +21827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU109">
         <v>1.89</v>
@@ -22301,7 +22310,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22492,7 +22501,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22683,7 +22692,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23065,7 +23074,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23256,7 +23265,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23447,7 +23456,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23638,7 +23647,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23725,7 +23734,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -23829,7 +23838,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24020,7 +24029,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24790,10 +24799,10 @@
         <v>5</v>
       </c>
       <c r="R125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T125">
         <v>2.22</v>
@@ -25499,6 +25508,579 @@
       </c>
       <c r="BK128">
         <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5557285</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45123.79166666666</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>172</v>
+      </c>
+      <c r="P129" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>7</v>
+      </c>
+      <c r="T129">
+        <v>2.17</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>6.42</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>2.5</v>
+      </c>
+      <c r="Y129">
+        <v>3.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.29</v>
+      </c>
+      <c r="AA129">
+        <v>9.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.04</v>
+      </c>
+      <c r="AC129">
+        <v>1.67</v>
+      </c>
+      <c r="AD129">
+        <v>3.25</v>
+      </c>
+      <c r="AE129">
+        <v>5</v>
+      </c>
+      <c r="AF129">
+        <v>1.1</v>
+      </c>
+      <c r="AG129">
+        <v>6.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.44</v>
+      </c>
+      <c r="AI129">
+        <v>2.63</v>
+      </c>
+      <c r="AJ129">
+        <v>2.48</v>
+      </c>
+      <c r="AK129">
+        <v>1.49</v>
+      </c>
+      <c r="AL129">
+        <v>2.25</v>
+      </c>
+      <c r="AM129">
+        <v>1.61</v>
+      </c>
+      <c r="AN129">
+        <v>1.08</v>
+      </c>
+      <c r="AO129">
+        <v>1.25</v>
+      </c>
+      <c r="AP129">
+        <v>2.3</v>
+      </c>
+      <c r="AQ129">
+        <v>1.57</v>
+      </c>
+      <c r="AR129">
+        <v>1.33</v>
+      </c>
+      <c r="AS129">
+        <v>1.75</v>
+      </c>
+      <c r="AT129">
+        <v>1.14</v>
+      </c>
+      <c r="AU129">
+        <v>1.67</v>
+      </c>
+      <c r="AV129">
+        <v>1.44</v>
+      </c>
+      <c r="AW129">
+        <v>3.11</v>
+      </c>
+      <c r="AX129">
+        <v>1.5</v>
+      </c>
+      <c r="AY129">
+        <v>9.4</v>
+      </c>
+      <c r="AZ129">
+        <v>2.9</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>1.32</v>
+      </c>
+      <c r="BC129">
+        <v>1.63</v>
+      </c>
+      <c r="BD129">
+        <v>1.98</v>
+      </c>
+      <c r="BE129">
+        <v>2.5</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>4</v>
+      </c>
+      <c r="BH129">
+        <v>7</v>
+      </c>
+      <c r="BI129">
+        <v>9</v>
+      </c>
+      <c r="BJ129">
+        <v>13</v>
+      </c>
+      <c r="BK129">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5557289</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45124.66666666666</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H130" t="s">
+        <v>75</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>5</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130" t="s">
+        <v>173</v>
+      </c>
+      <c r="P130" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q130">
+        <v>-1</v>
+      </c>
+      <c r="R130">
+        <v>-1</v>
+      </c>
+      <c r="S130">
+        <v>-1</v>
+      </c>
+      <c r="T130">
+        <v>2.86</v>
+      </c>
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
+        <v>4.38</v>
+      </c>
+      <c r="W130">
+        <v>1.53</v>
+      </c>
+      <c r="X130">
+        <v>2.34</v>
+      </c>
+      <c r="Y130">
+        <v>3.48</v>
+      </c>
+      <c r="Z130">
+        <v>1.26</v>
+      </c>
+      <c r="AA130">
+        <v>9.5</v>
+      </c>
+      <c r="AB130">
+        <v>1.02</v>
+      </c>
+      <c r="AC130">
+        <v>1.98</v>
+      </c>
+      <c r="AD130">
+        <v>3.22</v>
+      </c>
+      <c r="AE130">
+        <v>3.7</v>
+      </c>
+      <c r="AF130">
+        <v>1.06</v>
+      </c>
+      <c r="AG130">
+        <v>6.55</v>
+      </c>
+      <c r="AH130">
+        <v>1.46</v>
+      </c>
+      <c r="AI130">
+        <v>2.45</v>
+      </c>
+      <c r="AJ130">
+        <v>2.37</v>
+      </c>
+      <c r="AK130">
+        <v>1.44</v>
+      </c>
+      <c r="AL130">
+        <v>2.05</v>
+      </c>
+      <c r="AM130">
+        <v>1.73</v>
+      </c>
+      <c r="AN130">
+        <v>1.28</v>
+      </c>
+      <c r="AO130">
+        <v>1.32</v>
+      </c>
+      <c r="AP130">
+        <v>1.61</v>
+      </c>
+      <c r="AQ130">
+        <v>2.17</v>
+      </c>
+      <c r="AR130">
+        <v>2.17</v>
+      </c>
+      <c r="AS130">
+        <v>2.29</v>
+      </c>
+      <c r="AT130">
+        <v>1.86</v>
+      </c>
+      <c r="AU130">
+        <v>1.68</v>
+      </c>
+      <c r="AV130">
+        <v>1.34</v>
+      </c>
+      <c r="AW130">
+        <v>3.02</v>
+      </c>
+      <c r="AX130">
+        <v>1.42</v>
+      </c>
+      <c r="AY130">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ130">
+        <v>3.28</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>1.53</v>
+      </c>
+      <c r="BC130">
+        <v>1.95</v>
+      </c>
+      <c r="BD130">
+        <v>2.33</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>-1</v>
+      </c>
+      <c r="BG130">
+        <v>-1</v>
+      </c>
+      <c r="BH130">
+        <v>-1</v>
+      </c>
+      <c r="BI130">
+        <v>-1</v>
+      </c>
+      <c r="BJ130">
+        <v>-1</v>
+      </c>
+      <c r="BK130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5557286</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45124.83333333334</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>174</v>
+      </c>
+      <c r="P131" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>8</v>
+      </c>
+      <c r="S131">
+        <v>10</v>
+      </c>
+      <c r="T131">
+        <v>3.01</v>
+      </c>
+      <c r="U131">
+        <v>1.89</v>
+      </c>
+      <c r="V131">
+        <v>4.1</v>
+      </c>
+      <c r="W131">
+        <v>1.53</v>
+      </c>
+      <c r="X131">
+        <v>2.34</v>
+      </c>
+      <c r="Y131">
+        <v>3.48</v>
+      </c>
+      <c r="Z131">
+        <v>1.26</v>
+      </c>
+      <c r="AA131">
+        <v>9.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.02</v>
+      </c>
+      <c r="AC131">
+        <v>2.54</v>
+      </c>
+      <c r="AD131">
+        <v>2.98</v>
+      </c>
+      <c r="AE131">
+        <v>2.8</v>
+      </c>
+      <c r="AF131">
+        <v>1.06</v>
+      </c>
+      <c r="AG131">
+        <v>6.5</v>
+      </c>
+      <c r="AH131">
+        <v>1.48</v>
+      </c>
+      <c r="AI131">
+        <v>2.45</v>
+      </c>
+      <c r="AJ131">
+        <v>2.37</v>
+      </c>
+      <c r="AK131">
+        <v>1.44</v>
+      </c>
+      <c r="AL131">
+        <v>2.04</v>
+      </c>
+      <c r="AM131">
+        <v>1.74</v>
+      </c>
+      <c r="AN131">
+        <v>1.32</v>
+      </c>
+      <c r="AO131">
+        <v>1.33</v>
+      </c>
+      <c r="AP131">
+        <v>1.54</v>
+      </c>
+      <c r="AQ131">
+        <v>1.83</v>
+      </c>
+      <c r="AR131">
+        <v>1.33</v>
+      </c>
+      <c r="AS131">
+        <v>2</v>
+      </c>
+      <c r="AT131">
+        <v>1.14</v>
+      </c>
+      <c r="AU131">
+        <v>1.26</v>
+      </c>
+      <c r="AV131">
+        <v>1.24</v>
+      </c>
+      <c r="AW131">
+        <v>2.5</v>
+      </c>
+      <c r="AX131">
+        <v>1.62</v>
+      </c>
+      <c r="AY131">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ131">
+        <v>2.58</v>
+      </c>
+      <c r="BA131">
+        <v>1.2</v>
+      </c>
+      <c r="BB131">
+        <v>1.39</v>
+      </c>
+      <c r="BC131">
+        <v>1.74</v>
+      </c>
+      <c r="BD131">
+        <v>2.14</v>
+      </c>
+      <c r="BE131">
+        <v>2.85</v>
+      </c>
+      <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>3</v>
+      </c>
+      <c r="BH131">
+        <v>3</v>
+      </c>
+      <c r="BI131">
+        <v>12</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -25751,13 +25751,13 @@
         <v>150</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S130">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T130">
         <v>2.86</v>
@@ -25874,22 +25874,22 @@
         <v>0</v>
       </c>
       <c r="BF130">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BG130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH130">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI130">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ130">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK130">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,12 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -695,6 +701,12 @@
   </si>
   <si>
     <t>['38', '90+7']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['84', '88']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1491,7 +1503,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1682,7 +1694,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1769,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1873,7 +1885,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1963,7 +1975,7 @@
         <v>1.17</v>
       </c>
       <c r="AT5">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2342,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2637,7 +2649,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2727,7 +2739,7 @@
         <v>1.71</v>
       </c>
       <c r="AT9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2915,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>0.83</v>
@@ -3019,7 +3031,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3106,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3297,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3592,7 +3604,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3870,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4064,7 +4076,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4356,7 +4368,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4547,7 +4559,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4637,7 +4649,7 @@
         <v>0.83</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4929,7 +4941,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5016,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT21">
         <v>0.71</v>
@@ -5398,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT23">
         <v>0.83</v>
@@ -5502,7 +5514,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5589,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT24">
         <v>1.29</v>
@@ -5884,7 +5896,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5974,7 +5986,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU26">
         <v>2.95</v>
@@ -6162,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT27">
         <v>0.71</v>
@@ -6266,7 +6278,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6457,7 +6469,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6547,7 +6559,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6648,7 +6660,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6839,7 +6851,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7030,7 +7042,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7117,10 +7129,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU32">
         <v>1.81</v>
@@ -7221,7 +7233,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7308,7 +7320,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT33">
         <v>1.14</v>
@@ -7412,7 +7424,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7502,7 +7514,7 @@
         <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.46</v>
@@ -7603,7 +7615,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7884,7 +7896,7 @@
         <v>1.57</v>
       </c>
       <c r="AT36">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU36">
         <v>2.77</v>
@@ -7985,7 +7997,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8072,10 +8084,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8263,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT38">
         <v>0.43</v>
@@ -8457,7 +8469,7 @@
         <v>2.29</v>
       </c>
       <c r="AT39">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8558,7 +8570,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8645,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT40">
         <v>0.71</v>
@@ -8839,7 +8851,7 @@
         <v>2.2</v>
       </c>
       <c r="AT41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9409,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT44">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU44">
         <v>1.5</v>
@@ -9704,7 +9716,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9794,7 +9806,7 @@
         <v>1.57</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU46">
         <v>1.28</v>
@@ -10468,7 +10480,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10940,7 +10952,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU52">
         <v>2.39</v>
@@ -11128,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11319,10 +11331,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11510,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11614,7 +11626,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11704,7 +11716,7 @@
         <v>1.86</v>
       </c>
       <c r="AT56">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11892,7 +11904,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -11996,7 +12008,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12187,7 +12199,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12277,7 +12289,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>1.89</v>
@@ -12378,7 +12390,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12465,7 +12477,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT60">
         <v>1.86</v>
@@ -12656,7 +12668,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT61">
         <v>0.83</v>
@@ -12847,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13038,10 +13050,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13229,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT64">
         <v>1.14</v>
@@ -13805,7 +13817,7 @@
         <v>0.83</v>
       </c>
       <c r="AT67">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU67">
         <v>2.01</v>
@@ -14097,7 +14109,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14187,7 +14199,7 @@
         <v>1.29</v>
       </c>
       <c r="AT69">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14569,7 +14581,7 @@
         <v>1.57</v>
       </c>
       <c r="AT71">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14760,7 +14772,7 @@
         <v>2.29</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU72">
         <v>1.45</v>
@@ -14948,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT73">
         <v>0.43</v>
@@ -15052,7 +15064,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15142,7 +15154,7 @@
         <v>1.29</v>
       </c>
       <c r="AT74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15333,7 +15345,7 @@
         <v>2.43</v>
       </c>
       <c r="AT75">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>2.22</v>
@@ -15816,7 +15828,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15906,7 +15918,7 @@
         <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU78">
         <v>2.18</v>
@@ -16094,7 +16106,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT79">
         <v>1.29</v>
@@ -16198,7 +16210,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16389,7 +16401,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16476,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16580,7 +16592,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16771,7 +16783,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16858,7 +16870,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT83">
         <v>1.86</v>
@@ -16962,7 +16974,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17049,10 +17061,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT84">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU84">
         <v>1.81</v>
@@ -17153,7 +17165,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17344,7 +17356,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17431,7 +17443,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17535,7 +17547,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17625,7 +17637,7 @@
         <v>1.75</v>
       </c>
       <c r="AT87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17726,7 +17738,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17813,7 +17825,7 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT88">
         <v>0.71</v>
@@ -17917,7 +17929,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18108,7 +18120,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18195,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18299,7 +18311,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18389,7 +18401,7 @@
         <v>1.57</v>
       </c>
       <c r="AT91">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>1.77</v>
@@ -18490,7 +18502,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18577,7 +18589,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT92">
         <v>1.14</v>
@@ -18681,7 +18693,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19150,7 +19162,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT95">
         <v>1.14</v>
@@ -19344,7 +19356,7 @@
         <v>2.29</v>
       </c>
       <c r="AT96">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19445,7 +19457,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19726,7 +19738,7 @@
         <v>2.43</v>
       </c>
       <c r="AT98">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>2.12</v>
@@ -19827,7 +19839,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20018,7 +20030,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20108,7 +20120,7 @@
         <v>1.57</v>
       </c>
       <c r="AT100">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU100">
         <v>1.87</v>
@@ -20209,7 +20221,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20296,7 +20308,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT101">
         <v>1.86</v>
@@ -20487,10 +20499,10 @@
         <v>1.6</v>
       </c>
       <c r="AS102">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU102">
         <v>1.93</v>
@@ -20678,10 +20690,10 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT103">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU103">
         <v>1.62</v>
@@ -20973,7 +20985,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21060,10 +21072,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT105">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU105">
         <v>1.18</v>
@@ -21251,7 +21263,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT106">
         <v>1.14</v>
@@ -21445,7 +21457,7 @@
         <v>1.57</v>
       </c>
       <c r="AT107">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU107">
         <v>1.35</v>
@@ -21636,7 +21648,7 @@
         <v>2.29</v>
       </c>
       <c r="AT108">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.55</v>
@@ -21827,7 +21839,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU109">
         <v>1.89</v>
@@ -22018,7 +22030,7 @@
         <v>2.2</v>
       </c>
       <c r="AT110">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU110">
         <v>1.85</v>
@@ -22206,7 +22218,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT111">
         <v>0.71</v>
@@ -22310,7 +22322,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22397,7 +22409,7 @@
         <v>0.2</v>
       </c>
       <c r="AS112">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT112">
         <v>0.67</v>
@@ -22501,7 +22513,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22591,7 +22603,7 @@
         <v>1.71</v>
       </c>
       <c r="AT113">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU113">
         <v>1.86</v>
@@ -22692,7 +22704,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22779,7 +22791,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT114">
         <v>0.71</v>
@@ -22970,7 +22982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS115">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT115">
         <v>0.71</v>
@@ -23074,7 +23086,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23265,7 +23277,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23355,7 +23367,7 @@
         <v>1.57</v>
       </c>
       <c r="AT117">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>1.27</v>
@@ -23456,7 +23468,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23647,7 +23659,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23838,7 +23850,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -23925,7 +23937,7 @@
         <v>0.6</v>
       </c>
       <c r="AS120">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24029,7 +24041,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24119,7 +24131,7 @@
         <v>0.83</v>
       </c>
       <c r="AT121">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU121">
         <v>1.93</v>
@@ -24307,7 +24319,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT122">
         <v>1.29</v>
@@ -24689,7 +24701,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT124">
         <v>0.83</v>
@@ -24883,7 +24895,7 @@
         <v>1.71</v>
       </c>
       <c r="AT125">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.94</v>
@@ -25262,10 +25274,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT127">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU127">
         <v>1.77</v>
@@ -26026,10 +26038,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT131">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU131">
         <v>1.26</v>
@@ -26081,6 +26093,1534 @@
       </c>
       <c r="BK131">
         <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5557300</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>84</v>
+      </c>
+      <c r="H132" t="s">
+        <v>80</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>175</v>
+      </c>
+      <c r="P132" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <v>4</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
+        <v>1.91</v>
+      </c>
+      <c r="V132">
+        <v>3.6</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>2.4</v>
+      </c>
+      <c r="AD132">
+        <v>2.97</v>
+      </c>
+      <c r="AE132">
+        <v>2.73</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>1.5</v>
+      </c>
+      <c r="AI132">
+        <v>2.5</v>
+      </c>
+      <c r="AJ132">
+        <v>2.33</v>
+      </c>
+      <c r="AK132">
+        <v>1.49</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>1.33</v>
+      </c>
+      <c r="AR132">
+        <v>1.33</v>
+      </c>
+      <c r="AS132">
+        <v>1.57</v>
+      </c>
+      <c r="AT132">
+        <v>1.14</v>
+      </c>
+      <c r="AU132">
+        <v>1.6</v>
+      </c>
+      <c r="AV132">
+        <v>1.27</v>
+      </c>
+      <c r="AW132">
+        <v>2.87</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>8</v>
+      </c>
+      <c r="BG132">
+        <v>7</v>
+      </c>
+      <c r="BH132">
+        <v>10</v>
+      </c>
+      <c r="BI132">
+        <v>7</v>
+      </c>
+      <c r="BJ132">
+        <v>18</v>
+      </c>
+      <c r="BK132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5557299</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>85</v>
+      </c>
+      <c r="P133" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q133">
+        <v>13</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>16</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
+        <v>4.25</v>
+      </c>
+      <c r="W133">
+        <v>1.6</v>
+      </c>
+      <c r="X133">
+        <v>2.2</v>
+      </c>
+      <c r="Y133">
+        <v>3.7</v>
+      </c>
+      <c r="Z133">
+        <v>1.24</v>
+      </c>
+      <c r="AA133">
+        <v>8.75</v>
+      </c>
+      <c r="AB133">
+        <v>1.04</v>
+      </c>
+      <c r="AC133">
+        <v>2.1</v>
+      </c>
+      <c r="AD133">
+        <v>2.96</v>
+      </c>
+      <c r="AE133">
+        <v>3.3</v>
+      </c>
+      <c r="AF133">
+        <v>1.1</v>
+      </c>
+      <c r="AG133">
+        <v>7</v>
+      </c>
+      <c r="AH133">
+        <v>1.54</v>
+      </c>
+      <c r="AI133">
+        <v>2.38</v>
+      </c>
+      <c r="AJ133">
+        <v>2.58</v>
+      </c>
+      <c r="AK133">
+        <v>1.4</v>
+      </c>
+      <c r="AL133">
+        <v>2.2</v>
+      </c>
+      <c r="AM133">
+        <v>1.6</v>
+      </c>
+      <c r="AN133">
+        <v>1.28</v>
+      </c>
+      <c r="AO133">
+        <v>1.32</v>
+      </c>
+      <c r="AP133">
+        <v>1.62</v>
+      </c>
+      <c r="AQ133">
+        <v>0.67</v>
+      </c>
+      <c r="AR133">
+        <v>0.67</v>
+      </c>
+      <c r="AS133">
+        <v>0.57</v>
+      </c>
+      <c r="AT133">
+        <v>1</v>
+      </c>
+      <c r="AU133">
+        <v>1.83</v>
+      </c>
+      <c r="AV133">
+        <v>1.11</v>
+      </c>
+      <c r="AW133">
+        <v>2.94</v>
+      </c>
+      <c r="AX133">
+        <v>1.4</v>
+      </c>
+      <c r="AY133">
+        <v>9.6</v>
+      </c>
+      <c r="AZ133">
+        <v>3.49</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>1.43</v>
+      </c>
+      <c r="BC133">
+        <v>1.9</v>
+      </c>
+      <c r="BD133">
+        <v>2.09</v>
+      </c>
+      <c r="BE133">
+        <v>2.6</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>2</v>
+      </c>
+      <c r="BH133">
+        <v>18</v>
+      </c>
+      <c r="BI133">
+        <v>3</v>
+      </c>
+      <c r="BJ133">
+        <v>18</v>
+      </c>
+      <c r="BK133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5557304</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>85</v>
+      </c>
+      <c r="P134" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q134">
+        <v>5</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>2.65</v>
+      </c>
+      <c r="U134">
+        <v>1.95</v>
+      </c>
+      <c r="V134">
+        <v>4.4</v>
+      </c>
+      <c r="W134">
+        <v>1.5</v>
+      </c>
+      <c r="X134">
+        <v>2.4</v>
+      </c>
+      <c r="Y134">
+        <v>3.25</v>
+      </c>
+      <c r="Z134">
+        <v>1.3</v>
+      </c>
+      <c r="AA134">
+        <v>7.75</v>
+      </c>
+      <c r="AB134">
+        <v>1.05</v>
+      </c>
+      <c r="AC134">
+        <v>1.9</v>
+      </c>
+      <c r="AD134">
+        <v>3.25</v>
+      </c>
+      <c r="AE134">
+        <v>3.5</v>
+      </c>
+      <c r="AF134">
+        <v>1.07</v>
+      </c>
+      <c r="AG134">
+        <v>8.85</v>
+      </c>
+      <c r="AH134">
+        <v>1.4</v>
+      </c>
+      <c r="AI134">
+        <v>2.73</v>
+      </c>
+      <c r="AJ134">
+        <v>2.17</v>
+      </c>
+      <c r="AK134">
+        <v>1.56</v>
+      </c>
+      <c r="AL134">
+        <v>2</v>
+      </c>
+      <c r="AM134">
+        <v>1.7</v>
+      </c>
+      <c r="AN134">
+        <v>1.25</v>
+      </c>
+      <c r="AO134">
+        <v>1.27</v>
+      </c>
+      <c r="AP134">
+        <v>1.78</v>
+      </c>
+      <c r="AQ134">
+        <v>1.83</v>
+      </c>
+      <c r="AR134">
+        <v>0.8</v>
+      </c>
+      <c r="AS134">
+        <v>1.71</v>
+      </c>
+      <c r="AT134">
+        <v>0.83</v>
+      </c>
+      <c r="AU134">
+        <v>1.81</v>
+      </c>
+      <c r="AV134">
+        <v>1.38</v>
+      </c>
+      <c r="AW134">
+        <v>3.19</v>
+      </c>
+      <c r="AX134">
+        <v>1.68</v>
+      </c>
+      <c r="AY134">
+        <v>8.6</v>
+      </c>
+      <c r="AZ134">
+        <v>2.46</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>1.51</v>
+      </c>
+      <c r="BC134">
+        <v>1.85</v>
+      </c>
+      <c r="BD134">
+        <v>2.28</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>2</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>6</v>
+      </c>
+      <c r="BI134">
+        <v>2</v>
+      </c>
+      <c r="BJ134">
+        <v>8</v>
+      </c>
+      <c r="BK134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5557297</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45129.79166666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>68</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>85</v>
+      </c>
+      <c r="P135" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>6</v>
+      </c>
+      <c r="S135">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>2.65</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>4.8</v>
+      </c>
+      <c r="W135">
+        <v>1.55</v>
+      </c>
+      <c r="X135">
+        <v>2.25</v>
+      </c>
+      <c r="Y135">
+        <v>3.5</v>
+      </c>
+      <c r="Z135">
+        <v>1.25</v>
+      </c>
+      <c r="AA135">
+        <v>8.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.04</v>
+      </c>
+      <c r="AC135">
+        <v>1.88</v>
+      </c>
+      <c r="AD135">
+        <v>3.05</v>
+      </c>
+      <c r="AE135">
+        <v>3.85</v>
+      </c>
+      <c r="AF135">
+        <v>1.09</v>
+      </c>
+      <c r="AG135">
+        <v>7.35</v>
+      </c>
+      <c r="AH135">
+        <v>1.5</v>
+      </c>
+      <c r="AI135">
+        <v>2.4</v>
+      </c>
+      <c r="AJ135">
+        <v>2.44</v>
+      </c>
+      <c r="AK135">
+        <v>1.45</v>
+      </c>
+      <c r="AL135">
+        <v>2.2</v>
+      </c>
+      <c r="AM135">
+        <v>1.6</v>
+      </c>
+      <c r="AN135">
+        <v>1.22</v>
+      </c>
+      <c r="AO135">
+        <v>1.3</v>
+      </c>
+      <c r="AP135">
+        <v>1.8</v>
+      </c>
+      <c r="AQ135">
+        <v>1.83</v>
+      </c>
+      <c r="AR135">
+        <v>0.86</v>
+      </c>
+      <c r="AS135">
+        <v>1.71</v>
+      </c>
+      <c r="AT135">
+        <v>0.88</v>
+      </c>
+      <c r="AU135">
+        <v>1.96</v>
+      </c>
+      <c r="AV135">
+        <v>1.58</v>
+      </c>
+      <c r="AW135">
+        <v>3.54</v>
+      </c>
+      <c r="AX135">
+        <v>1.42</v>
+      </c>
+      <c r="AY135">
+        <v>9.5</v>
+      </c>
+      <c r="AZ135">
+        <v>3.24</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>1.43</v>
+      </c>
+      <c r="BC135">
+        <v>1.8</v>
+      </c>
+      <c r="BD135">
+        <v>2.04</v>
+      </c>
+      <c r="BE135">
+        <v>2.6</v>
+      </c>
+      <c r="BF135">
+        <v>6</v>
+      </c>
+      <c r="BG135">
+        <v>2</v>
+      </c>
+      <c r="BH135">
+        <v>9</v>
+      </c>
+      <c r="BI135">
+        <v>8</v>
+      </c>
+      <c r="BJ135">
+        <v>15</v>
+      </c>
+      <c r="BK135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5557302</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>72</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>85</v>
+      </c>
+      <c r="P136" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q136">
+        <v>9</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136">
+        <v>12</v>
+      </c>
+      <c r="T136">
+        <v>3.7</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>3.3</v>
+      </c>
+      <c r="W136">
+        <v>1.58</v>
+      </c>
+      <c r="X136">
+        <v>2.2</v>
+      </c>
+      <c r="Y136">
+        <v>3.7</v>
+      </c>
+      <c r="Z136">
+        <v>1.24</v>
+      </c>
+      <c r="AA136">
+        <v>8.75</v>
+      </c>
+      <c r="AB136">
+        <v>1.04</v>
+      </c>
+      <c r="AC136">
+        <v>2.87</v>
+      </c>
+      <c r="AD136">
+        <v>2.8</v>
+      </c>
+      <c r="AE136">
+        <v>2.45</v>
+      </c>
+      <c r="AF136">
+        <v>1.1</v>
+      </c>
+      <c r="AG136">
+        <v>7.1</v>
+      </c>
+      <c r="AH136">
+        <v>1.5</v>
+      </c>
+      <c r="AI136">
+        <v>2.35</v>
+      </c>
+      <c r="AJ136">
+        <v>2.4</v>
+      </c>
+      <c r="AK136">
+        <v>1.53</v>
+      </c>
+      <c r="AL136">
+        <v>2.15</v>
+      </c>
+      <c r="AM136">
+        <v>1.62</v>
+      </c>
+      <c r="AN136">
+        <v>1.48</v>
+      </c>
+      <c r="AO136">
+        <v>1.32</v>
+      </c>
+      <c r="AP136">
+        <v>1.38</v>
+      </c>
+      <c r="AQ136">
+        <v>1.17</v>
+      </c>
+      <c r="AR136">
+        <v>1.5</v>
+      </c>
+      <c r="AS136">
+        <v>1</v>
+      </c>
+      <c r="AT136">
+        <v>1.71</v>
+      </c>
+      <c r="AU136">
+        <v>1.77</v>
+      </c>
+      <c r="AV136">
+        <v>1.52</v>
+      </c>
+      <c r="AW136">
+        <v>3.29</v>
+      </c>
+      <c r="AX136">
+        <v>1.9</v>
+      </c>
+      <c r="AY136">
+        <v>8.5</v>
+      </c>
+      <c r="AZ136">
+        <v>2.11</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>1.51</v>
+      </c>
+      <c r="BC136">
+        <v>1.84</v>
+      </c>
+      <c r="BD136">
+        <v>2.3</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>2</v>
+      </c>
+      <c r="BG136">
+        <v>5</v>
+      </c>
+      <c r="BH136">
+        <v>6</v>
+      </c>
+      <c r="BI136">
+        <v>9</v>
+      </c>
+      <c r="BJ136">
+        <v>8</v>
+      </c>
+      <c r="BK136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5557303</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>67</v>
+      </c>
+      <c r="H137" t="s">
+        <v>69</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>85</v>
+      </c>
+      <c r="P137" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q137">
+        <v>6</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>3.8</v>
+      </c>
+      <c r="U137">
+        <v>1.82</v>
+      </c>
+      <c r="V137">
+        <v>3.3</v>
+      </c>
+      <c r="W137">
+        <v>1.6</v>
+      </c>
+      <c r="X137">
+        <v>2.2</v>
+      </c>
+      <c r="Y137">
+        <v>3.75</v>
+      </c>
+      <c r="Z137">
+        <v>1.23</v>
+      </c>
+      <c r="AA137">
+        <v>8.75</v>
+      </c>
+      <c r="AB137">
+        <v>1.04</v>
+      </c>
+      <c r="AC137">
+        <v>3</v>
+      </c>
+      <c r="AD137">
+        <v>2.75</v>
+      </c>
+      <c r="AE137">
+        <v>2.37</v>
+      </c>
+      <c r="AF137">
+        <v>1.11</v>
+      </c>
+      <c r="AG137">
+        <v>6.75</v>
+      </c>
+      <c r="AH137">
+        <v>1.5</v>
+      </c>
+      <c r="AI137">
+        <v>2.3</v>
+      </c>
+      <c r="AJ137">
+        <v>2.52</v>
+      </c>
+      <c r="AK137">
+        <v>1.46</v>
+      </c>
+      <c r="AL137">
+        <v>2.2</v>
+      </c>
+      <c r="AM137">
+        <v>1.62</v>
+      </c>
+      <c r="AN137">
+        <v>1.5</v>
+      </c>
+      <c r="AO137">
+        <v>1.32</v>
+      </c>
+      <c r="AP137">
+        <v>1.35</v>
+      </c>
+      <c r="AQ137">
+        <v>1.83</v>
+      </c>
+      <c r="AR137">
+        <v>1.67</v>
+      </c>
+      <c r="AS137">
+        <v>1.57</v>
+      </c>
+      <c r="AT137">
+        <v>1.86</v>
+      </c>
+      <c r="AU137">
+        <v>1.53</v>
+      </c>
+      <c r="AV137">
+        <v>1.44</v>
+      </c>
+      <c r="AW137">
+        <v>2.97</v>
+      </c>
+      <c r="AX137">
+        <v>1.74</v>
+      </c>
+      <c r="AY137">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ137">
+        <v>2.3</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>1.5</v>
+      </c>
+      <c r="BD137">
+        <v>1.81</v>
+      </c>
+      <c r="BE137">
+        <v>2.23</v>
+      </c>
+      <c r="BF137">
+        <v>7</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>11</v>
+      </c>
+      <c r="BI137">
+        <v>7</v>
+      </c>
+      <c r="BJ137">
+        <v>18</v>
+      </c>
+      <c r="BK137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5557298</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45130.79166666666</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>85</v>
+      </c>
+      <c r="P138" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q138">
+        <v>8</v>
+      </c>
+      <c r="R138">
+        <v>3</v>
+      </c>
+      <c r="S138">
+        <v>11</v>
+      </c>
+      <c r="T138">
+        <v>2.4</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>5.25</v>
+      </c>
+      <c r="W138">
+        <v>1.48</v>
+      </c>
+      <c r="X138">
+        <v>2.5</v>
+      </c>
+      <c r="Y138">
+        <v>3.15</v>
+      </c>
+      <c r="Z138">
+        <v>1.3</v>
+      </c>
+      <c r="AA138">
+        <v>7.5</v>
+      </c>
+      <c r="AB138">
+        <v>1.06</v>
+      </c>
+      <c r="AC138">
+        <v>1.73</v>
+      </c>
+      <c r="AD138">
+        <v>3.2</v>
+      </c>
+      <c r="AE138">
+        <v>4.6</v>
+      </c>
+      <c r="AF138">
+        <v>1.07</v>
+      </c>
+      <c r="AG138">
+        <v>9</v>
+      </c>
+      <c r="AH138">
+        <v>1.5</v>
+      </c>
+      <c r="AI138">
+        <v>2.55</v>
+      </c>
+      <c r="AJ138">
+        <v>2.2</v>
+      </c>
+      <c r="AK138">
+        <v>1.53</v>
+      </c>
+      <c r="AL138">
+        <v>2.05</v>
+      </c>
+      <c r="AM138">
+        <v>1.68</v>
+      </c>
+      <c r="AN138">
+        <v>1.18</v>
+      </c>
+      <c r="AO138">
+        <v>1.25</v>
+      </c>
+      <c r="AP138">
+        <v>2</v>
+      </c>
+      <c r="AQ138">
+        <v>2.29</v>
+      </c>
+      <c r="AR138">
+        <v>1.14</v>
+      </c>
+      <c r="AS138">
+        <v>2.13</v>
+      </c>
+      <c r="AT138">
+        <v>1.13</v>
+      </c>
+      <c r="AU138">
+        <v>1.8</v>
+      </c>
+      <c r="AV138">
+        <v>1.3</v>
+      </c>
+      <c r="AW138">
+        <v>3.1</v>
+      </c>
+      <c r="AX138">
+        <v>1.49</v>
+      </c>
+      <c r="AY138">
+        <v>9.4</v>
+      </c>
+      <c r="AZ138">
+        <v>2.94</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>1.4</v>
+      </c>
+      <c r="BC138">
+        <v>1.66</v>
+      </c>
+      <c r="BD138">
+        <v>2.04</v>
+      </c>
+      <c r="BE138">
+        <v>2.64</v>
+      </c>
+      <c r="BF138">
+        <v>4</v>
+      </c>
+      <c r="BG138">
+        <v>5</v>
+      </c>
+      <c r="BH138">
+        <v>6</v>
+      </c>
+      <c r="BI138">
+        <v>6</v>
+      </c>
+      <c r="BJ138">
+        <v>10</v>
+      </c>
+      <c r="BK138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5557296</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45130.79166666666</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>176</v>
+      </c>
+      <c r="P139" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q139">
+        <v>7</v>
+      </c>
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <v>13</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
+        <v>1.88</v>
+      </c>
+      <c r="V139">
+        <v>4.75</v>
+      </c>
+      <c r="W139">
+        <v>1.58</v>
+      </c>
+      <c r="X139">
+        <v>2.25</v>
+      </c>
+      <c r="Y139">
+        <v>3.6</v>
+      </c>
+      <c r="Z139">
+        <v>1.25</v>
+      </c>
+      <c r="AA139">
+        <v>8.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.04</v>
+      </c>
+      <c r="AC139">
+        <v>1.87</v>
+      </c>
+      <c r="AD139">
+        <v>2.9</v>
+      </c>
+      <c r="AE139">
+        <v>4</v>
+      </c>
+      <c r="AF139">
+        <v>1.09</v>
+      </c>
+      <c r="AG139">
+        <v>7.3</v>
+      </c>
+      <c r="AH139">
+        <v>1.44</v>
+      </c>
+      <c r="AI139">
+        <v>2.4</v>
+      </c>
+      <c r="AJ139">
+        <v>2.52</v>
+      </c>
+      <c r="AK139">
+        <v>1.46</v>
+      </c>
+      <c r="AL139">
+        <v>2.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.58</v>
+      </c>
+      <c r="AN139">
+        <v>1.23</v>
+      </c>
+      <c r="AO139">
+        <v>1.3</v>
+      </c>
+      <c r="AP139">
+        <v>1.78</v>
+      </c>
+      <c r="AQ139">
+        <v>2</v>
+      </c>
+      <c r="AR139">
+        <v>1.17</v>
+      </c>
+      <c r="AS139">
+        <v>2.13</v>
+      </c>
+      <c r="AT139">
+        <v>1</v>
+      </c>
+      <c r="AU139">
+        <v>1.25</v>
+      </c>
+      <c r="AV139">
+        <v>1.33</v>
+      </c>
+      <c r="AW139">
+        <v>2.58</v>
+      </c>
+      <c r="AX139">
+        <v>1.61</v>
+      </c>
+      <c r="AY139">
+        <v>8.9</v>
+      </c>
+      <c r="AZ139">
+        <v>2.6</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>1.39</v>
+      </c>
+      <c r="BC139">
+        <v>1.71</v>
+      </c>
+      <c r="BD139">
+        <v>2.11</v>
+      </c>
+      <c r="BE139">
+        <v>2.63</v>
+      </c>
+      <c r="BF139">
+        <v>2</v>
+      </c>
+      <c r="BG139">
+        <v>2</v>
+      </c>
+      <c r="BH139">
+        <v>5</v>
+      </c>
+      <c r="BI139">
+        <v>6</v>
+      </c>
+      <c r="BJ139">
+        <v>7</v>
+      </c>
+      <c r="BK139">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,12 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['11', '64']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -707,6 +713,12 @@
   </si>
   <si>
     <t>['84', '88']</t>
+  </si>
+  <si>
+    <t>['54', '70']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.71</v>
@@ -1503,7 +1515,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1694,7 +1706,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1885,7 +1897,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2649,7 +2661,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2930,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3031,7 +3043,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3500,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3604,7 +3616,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4368,7 +4380,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4559,7 +4571,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4941,7 +4953,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5413,7 +5425,7 @@
         <v>1.57</v>
       </c>
       <c r="AT23">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU23">
         <v>2.03</v>
@@ -5514,7 +5526,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5896,7 +5908,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6278,7 +6290,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6469,7 +6481,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6556,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6660,7 +6672,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6851,7 +6863,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7042,7 +7054,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7233,7 +7245,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7424,7 +7436,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7615,7 +7627,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7997,7 +8009,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8570,7 +8582,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8848,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <v>1.13</v>
@@ -9716,7 +9728,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10376,7 +10388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT49">
         <v>1.86</v>
@@ -10480,7 +10492,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11626,7 +11638,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -12008,7 +12020,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12199,7 +12211,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12390,7 +12402,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12671,7 +12683,7 @@
         <v>1.71</v>
       </c>
       <c r="AT61">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU61">
         <v>1.81</v>
@@ -13623,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>0.71</v>
@@ -14005,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT68">
         <v>1.29</v>
@@ -14109,7 +14121,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15064,7 +15076,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15533,7 +15545,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT76">
         <v>0.71</v>
@@ -15828,7 +15840,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16210,7 +16222,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16401,7 +16413,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16592,7 +16604,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16783,7 +16795,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16974,7 +16986,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17165,7 +17177,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17255,7 +17267,7 @@
         <v>1.86</v>
       </c>
       <c r="AT85">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17356,7 +17368,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17547,7 +17559,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17738,7 +17750,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17929,7 +17941,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18120,7 +18132,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18311,7 +18323,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18502,7 +18514,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18693,7 +18705,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18783,7 +18795,7 @@
         <v>0.83</v>
       </c>
       <c r="AT93">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19457,7 +19469,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19544,7 +19556,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>1.29</v>
@@ -19839,7 +19851,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20030,7 +20042,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20221,7 +20233,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20985,7 +20997,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21836,7 +21848,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT109">
         <v>1.13</v>
@@ -22027,7 +22039,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>0.88</v>
@@ -22322,7 +22334,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22513,7 +22525,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22704,7 +22716,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23086,7 +23098,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23277,7 +23289,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23468,7 +23480,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23659,7 +23671,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23850,7 +23862,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24041,7 +24053,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24704,7 +24716,7 @@
         <v>2.13</v>
       </c>
       <c r="AT124">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU124">
         <v>1.86</v>
@@ -26333,7 +26345,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26906,7 +26918,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27097,7 +27109,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27620,6 +27632,388 @@
         <v>7</v>
       </c>
       <c r="BK139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5557295</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45131.83333333334</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" t="s">
+        <v>66</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>177</v>
+      </c>
+      <c r="P140" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q140">
+        <v>7</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140">
+        <v>12</v>
+      </c>
+      <c r="T140">
+        <v>2.8</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>4</v>
+      </c>
+      <c r="W140">
+        <v>1.48</v>
+      </c>
+      <c r="X140">
+        <v>2.45</v>
+      </c>
+      <c r="Y140">
+        <v>3.2</v>
+      </c>
+      <c r="Z140">
+        <v>1.3</v>
+      </c>
+      <c r="AA140">
+        <v>7.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.06</v>
+      </c>
+      <c r="AC140">
+        <v>2.15</v>
+      </c>
+      <c r="AD140">
+        <v>3.05</v>
+      </c>
+      <c r="AE140">
+        <v>3.25</v>
+      </c>
+      <c r="AF140">
+        <v>1.07</v>
+      </c>
+      <c r="AG140">
+        <v>9</v>
+      </c>
+      <c r="AH140">
+        <v>1.38</v>
+      </c>
+      <c r="AI140">
+        <v>2.81</v>
+      </c>
+      <c r="AJ140">
+        <v>2.17</v>
+      </c>
+      <c r="AK140">
+        <v>1.56</v>
+      </c>
+      <c r="AL140">
+        <v>1.95</v>
+      </c>
+      <c r="AM140">
+        <v>1.78</v>
+      </c>
+      <c r="AN140">
+        <v>1.3</v>
+      </c>
+      <c r="AO140">
+        <v>1.28</v>
+      </c>
+      <c r="AP140">
+        <v>1.65</v>
+      </c>
+      <c r="AQ140">
+        <v>2.2</v>
+      </c>
+      <c r="AR140">
+        <v>1</v>
+      </c>
+      <c r="AS140">
+        <v>2</v>
+      </c>
+      <c r="AT140">
+        <v>1</v>
+      </c>
+      <c r="AU140">
+        <v>1.88</v>
+      </c>
+      <c r="AV140">
+        <v>1.44</v>
+      </c>
+      <c r="AW140">
+        <v>3.32</v>
+      </c>
+      <c r="AX140">
+        <v>1.68</v>
+      </c>
+      <c r="AY140">
+        <v>8.9</v>
+      </c>
+      <c r="AZ140">
+        <v>2.44</v>
+      </c>
+      <c r="BA140">
+        <v>1.22</v>
+      </c>
+      <c r="BB140">
+        <v>1.41</v>
+      </c>
+      <c r="BC140">
+        <v>1.75</v>
+      </c>
+      <c r="BD140">
+        <v>2.17</v>
+      </c>
+      <c r="BE140">
+        <v>3</v>
+      </c>
+      <c r="BF140">
+        <v>7</v>
+      </c>
+      <c r="BG140">
+        <v>6</v>
+      </c>
+      <c r="BH140">
+        <v>11</v>
+      </c>
+      <c r="BI140">
+        <v>6</v>
+      </c>
+      <c r="BJ140">
+        <v>18</v>
+      </c>
+      <c r="BK140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5557301</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45131.83333333334</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>83</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>178</v>
+      </c>
+      <c r="P141" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q141">
+        <v>9</v>
+      </c>
+      <c r="R141">
+        <v>3</v>
+      </c>
+      <c r="S141">
+        <v>12</v>
+      </c>
+      <c r="T141">
+        <v>3.4</v>
+      </c>
+      <c r="U141">
+        <v>1.85</v>
+      </c>
+      <c r="V141">
+        <v>3.75</v>
+      </c>
+      <c r="W141">
+        <v>1.6</v>
+      </c>
+      <c r="X141">
+        <v>2.2</v>
+      </c>
+      <c r="Y141">
+        <v>3.7</v>
+      </c>
+      <c r="Z141">
+        <v>1.23</v>
+      </c>
+      <c r="AA141">
+        <v>8.75</v>
+      </c>
+      <c r="AB141">
+        <v>1.04</v>
+      </c>
+      <c r="AC141">
+        <v>2.5</v>
+      </c>
+      <c r="AD141">
+        <v>2.81</v>
+      </c>
+      <c r="AE141">
+        <v>2.91</v>
+      </c>
+      <c r="AF141">
+        <v>1.1</v>
+      </c>
+      <c r="AG141">
+        <v>6.85</v>
+      </c>
+      <c r="AH141">
+        <v>1.51</v>
+      </c>
+      <c r="AI141">
+        <v>2.38</v>
+      </c>
+      <c r="AJ141">
+        <v>2.63</v>
+      </c>
+      <c r="AK141">
+        <v>1.39</v>
+      </c>
+      <c r="AL141">
+        <v>2.2</v>
+      </c>
+      <c r="AM141">
+        <v>1.62</v>
+      </c>
+      <c r="AN141">
+        <v>1.38</v>
+      </c>
+      <c r="AO141">
+        <v>1.32</v>
+      </c>
+      <c r="AP141">
+        <v>1.48</v>
+      </c>
+      <c r="AQ141">
+        <v>1.5</v>
+      </c>
+      <c r="AR141">
+        <v>0.83</v>
+      </c>
+      <c r="AS141">
+        <v>1.43</v>
+      </c>
+      <c r="AT141">
+        <v>0.86</v>
+      </c>
+      <c r="AU141">
+        <v>1.84</v>
+      </c>
+      <c r="AV141">
+        <v>1.11</v>
+      </c>
+      <c r="AW141">
+        <v>2.95</v>
+      </c>
+      <c r="AX141">
+        <v>1.61</v>
+      </c>
+      <c r="AY141">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ141">
+        <v>2.61</v>
+      </c>
+      <c r="BA141">
+        <v>1.23</v>
+      </c>
+      <c r="BB141">
+        <v>1.4</v>
+      </c>
+      <c r="BC141">
+        <v>1.8</v>
+      </c>
+      <c r="BD141">
+        <v>2.2</v>
+      </c>
+      <c r="BE141">
+        <v>3.1</v>
+      </c>
+      <c r="BF141">
+        <v>4</v>
+      </c>
+      <c r="BG141">
+        <v>4</v>
+      </c>
+      <c r="BH141">
+        <v>16</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>20</v>
+      </c>
+      <c r="BK141">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,24 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['32', '47']</t>
+  </si>
+  <si>
+    <t>['32', '85']</t>
+  </si>
+  <si>
+    <t>['19', '48']</t>
+  </si>
+  <si>
+    <t>['74', '90+10']</t>
+  </si>
+  <si>
+    <t>['60', '90+6']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -719,6 +737,15 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT2">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1515,7 +1542,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1602,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT3">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1706,7 +1733,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1897,7 +1924,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1984,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2175,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2557,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2661,7 +2688,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2748,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT9">
         <v>1.14</v>
@@ -3043,7 +3070,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3616,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4276,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT17">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4380,7 +4407,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4467,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT18">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4571,7 +4598,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4658,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT19">
         <v>1.71</v>
@@ -4849,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT20">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4953,7 +4980,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5043,7 +5070,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5234,7 +5261,7 @@
         <v>1.75</v>
       </c>
       <c r="AT22">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU22">
         <v>1.79</v>
@@ -5526,7 +5553,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5616,7 +5643,7 @@
         <v>0.57</v>
       </c>
       <c r="AT24">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU24">
         <v>2.19</v>
@@ -5804,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5908,7 +5935,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5995,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT26">
         <v>1.71</v>
@@ -6189,7 +6216,7 @@
         <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU27">
         <v>1.58</v>
@@ -6290,7 +6317,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6377,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT28">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6481,7 +6508,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6672,7 +6699,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6759,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6863,7 +6890,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6950,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -7054,7 +7081,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7144,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU32">
         <v>1.81</v>
@@ -7245,7 +7272,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7335,7 +7362,7 @@
         <v>1.71</v>
       </c>
       <c r="AT33">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>2.06</v>
@@ -7436,7 +7463,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7523,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7627,7 +7654,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7714,10 +7741,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.34</v>
@@ -7905,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
         <v>1.86</v>
@@ -8009,7 +8036,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8290,7 +8317,7 @@
         <v>2.13</v>
       </c>
       <c r="AT38">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU38">
         <v>1.14</v>
@@ -8478,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT39">
         <v>0.88</v>
@@ -8582,7 +8609,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8672,7 +8699,7 @@
         <v>2.13</v>
       </c>
       <c r="AT40">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -8860,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT41">
         <v>1.13</v>
@@ -9054,7 +9081,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9242,7 +9269,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9624,10 +9651,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9728,7 +9755,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9815,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT46">
         <v>1.71</v>
@@ -10006,10 +10033,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT47">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.87</v>
@@ -10197,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU48">
         <v>1.56</v>
@@ -10391,7 +10418,7 @@
         <v>1.43</v>
       </c>
       <c r="AT49">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10492,7 +10519,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10579,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU50">
         <v>1.97</v>
@@ -10770,10 +10797,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT51">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU51">
         <v>2.07</v>
@@ -10961,7 +10988,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT52">
         <v>1.14</v>
@@ -11638,7 +11665,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11725,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT56">
         <v>1.13</v>
@@ -12020,7 +12047,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12107,10 +12134,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT58">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12211,7 +12238,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12402,7 +12429,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12492,7 +12519,7 @@
         <v>1.57</v>
       </c>
       <c r="AT60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>1.61</v>
@@ -13256,7 +13283,7 @@
         <v>0.57</v>
       </c>
       <c r="AT64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.86</v>
@@ -13444,10 +13471,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU65">
         <v>1.95</v>
@@ -13635,10 +13662,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13826,7 +13853,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
         <v>0.88</v>
@@ -14020,7 +14047,7 @@
         <v>1.43</v>
       </c>
       <c r="AT68">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14121,7 +14148,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14208,7 +14235,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT69">
         <v>1.86</v>
@@ -14399,10 +14426,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT70">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU70">
         <v>1.71</v>
@@ -14590,10 +14617,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14781,7 +14808,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT72">
         <v>1.71</v>
@@ -14975,7 +15002,7 @@
         <v>1.71</v>
       </c>
       <c r="AT73">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -15076,7 +15103,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15163,7 +15190,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT74">
         <v>1.13</v>
@@ -15354,7 +15381,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15548,7 +15575,7 @@
         <v>1.43</v>
       </c>
       <c r="AT76">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU76">
         <v>1.71</v>
@@ -15840,7 +15867,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15927,7 +15954,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT78">
         <v>1.86</v>
@@ -16121,7 +16148,7 @@
         <v>2.13</v>
       </c>
       <c r="AT79">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU79">
         <v>1.18</v>
@@ -16222,7 +16249,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16309,10 +16336,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT80">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.45</v>
@@ -16413,7 +16440,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16604,7 +16631,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16691,10 +16718,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT82">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>2.25</v>
@@ -16795,7 +16822,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16885,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -16986,7 +17013,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17177,7 +17204,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17264,7 +17291,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
         <v>0.86</v>
@@ -17368,7 +17395,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17559,7 +17586,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17750,7 +17777,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17840,7 +17867,7 @@
         <v>2.13</v>
       </c>
       <c r="AT88">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU88">
         <v>1.15</v>
@@ -17941,7 +17968,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18028,7 +18055,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18132,7 +18159,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18323,7 +18350,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18410,7 +18437,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -18514,7 +18541,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18604,7 +18631,7 @@
         <v>1.57</v>
       </c>
       <c r="AT92">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU92">
         <v>1.55</v>
@@ -18705,7 +18732,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18792,7 +18819,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT93">
         <v>0.86</v>
@@ -18983,10 +19010,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT94">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU94">
         <v>1.63</v>
@@ -19177,7 +19204,7 @@
         <v>1</v>
       </c>
       <c r="AT95">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU95">
         <v>1.84</v>
@@ -19365,10 +19392,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT96">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19469,7 +19496,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19556,10 +19583,10 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT97">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU97">
         <v>1.98</v>
@@ -19747,7 +19774,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19851,7 +19878,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -19938,10 +19965,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU99">
         <v>1.64</v>
@@ -20042,7 +20069,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20129,7 +20156,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT100">
         <v>0.88</v>
@@ -20233,7 +20260,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20323,7 +20350,7 @@
         <v>2.13</v>
       </c>
       <c r="AT101">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -20705,7 +20732,7 @@
         <v>1.57</v>
       </c>
       <c r="AT103">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU103">
         <v>1.62</v>
@@ -20893,10 +20920,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT104">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU104">
         <v>1.7</v>
@@ -20997,7 +21024,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21278,7 +21305,7 @@
         <v>1.71</v>
       </c>
       <c r="AT106">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>1.66</v>
@@ -21466,7 +21493,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT107">
         <v>1.14</v>
@@ -21657,7 +21684,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22039,7 +22066,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT110">
         <v>0.88</v>
@@ -22233,7 +22260,7 @@
         <v>2.13</v>
       </c>
       <c r="AT111">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU111">
         <v>1.75</v>
@@ -22334,7 +22361,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22424,7 +22451,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22525,7 +22552,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22612,7 +22639,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT113">
         <v>1.86</v>
@@ -22716,7 +22743,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22806,7 +22833,7 @@
         <v>1.71</v>
       </c>
       <c r="AT114">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU114">
         <v>2.08</v>
@@ -22997,7 +23024,7 @@
         <v>0.57</v>
       </c>
       <c r="AT115">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU115">
         <v>1.86</v>
@@ -23098,7 +23125,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23185,10 +23212,10 @@
         <v>0</v>
       </c>
       <c r="AS116">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT116">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU116">
         <v>2.27</v>
@@ -23289,7 +23316,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23376,7 +23403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23480,7 +23507,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23567,7 +23594,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23671,7 +23698,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23862,7 +23889,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24053,7 +24080,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24140,7 +24167,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT121">
         <v>1.14</v>
@@ -24334,7 +24361,7 @@
         <v>1.57</v>
       </c>
       <c r="AT122">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU122">
         <v>1.56</v>
@@ -24522,10 +24549,10 @@
         <v>1.33</v>
       </c>
       <c r="AS123">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT123">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -24904,7 +24931,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25095,7 +25122,7 @@
         <v>1.14</v>
       </c>
       <c r="AS126">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25477,10 +25504,10 @@
         <v>0.83</v>
       </c>
       <c r="AS128">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT128">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU128">
         <v>2.06</v>
@@ -25671,7 +25698,7 @@
         <v>1.75</v>
       </c>
       <c r="AT129">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU129">
         <v>1.67</v>
@@ -25859,10 +25886,10 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT130">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU130">
         <v>1.68</v>
@@ -26345,7 +26372,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26626,7 +26653,7 @@
         <v>1.71</v>
       </c>
       <c r="AT134">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU134">
         <v>1.81</v>
@@ -26918,7 +26945,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27109,7 +27136,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27682,7 +27709,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27769,7 +27796,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT140">
         <v>1</v>
@@ -27873,7 +27900,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28015,6 +28042,1916 @@
       </c>
       <c r="BK141">
         <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5557307</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45136.66666666666</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>80</v>
+      </c>
+      <c r="H142" t="s">
+        <v>77</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>179</v>
+      </c>
+      <c r="P142" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q142">
+        <v>6</v>
+      </c>
+      <c r="R142">
+        <v>3</v>
+      </c>
+      <c r="S142">
+        <v>9</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
+        <v>5.5</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>1.87</v>
+      </c>
+      <c r="AD142">
+        <v>3.05</v>
+      </c>
+      <c r="AE142">
+        <v>4.2</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <v>1.44</v>
+      </c>
+      <c r="AI142">
+        <v>2.4</v>
+      </c>
+      <c r="AJ142">
+        <v>2.4</v>
+      </c>
+      <c r="AK142">
+        <v>1.44</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>0</v>
+      </c>
+      <c r="AQ142">
+        <v>2.43</v>
+      </c>
+      <c r="AR142">
+        <v>1</v>
+      </c>
+      <c r="AS142">
+        <v>2.25</v>
+      </c>
+      <c r="AT142">
+        <v>1</v>
+      </c>
+      <c r="AU142">
+        <v>1.98</v>
+      </c>
+      <c r="AV142">
+        <v>1.48</v>
+      </c>
+      <c r="AW142">
+        <v>3.46</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>6</v>
+      </c>
+      <c r="BG142">
+        <v>7</v>
+      </c>
+      <c r="BH142">
+        <v>7</v>
+      </c>
+      <c r="BI142">
+        <v>2</v>
+      </c>
+      <c r="BJ142">
+        <v>13</v>
+      </c>
+      <c r="BK142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5557305</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45136.66666666666</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>65</v>
+      </c>
+      <c r="H143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>180</v>
+      </c>
+      <c r="P143" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>2.7</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>3.9</v>
+      </c>
+      <c r="W143">
+        <v>1.44</v>
+      </c>
+      <c r="X143">
+        <v>2.62</v>
+      </c>
+      <c r="Y143">
+        <v>3</v>
+      </c>
+      <c r="Z143">
+        <v>1.36</v>
+      </c>
+      <c r="AA143">
+        <v>7.5</v>
+      </c>
+      <c r="AB143">
+        <v>1.07</v>
+      </c>
+      <c r="AC143">
+        <v>1.85</v>
+      </c>
+      <c r="AD143">
+        <v>3.35</v>
+      </c>
+      <c r="AE143">
+        <v>3.85</v>
+      </c>
+      <c r="AF143">
+        <v>1.08</v>
+      </c>
+      <c r="AG143">
+        <v>7</v>
+      </c>
+      <c r="AH143">
+        <v>1.36</v>
+      </c>
+      <c r="AI143">
+        <v>3</v>
+      </c>
+      <c r="AJ143">
+        <v>2.05</v>
+      </c>
+      <c r="AK143">
+        <v>1.6</v>
+      </c>
+      <c r="AL143">
+        <v>1.91</v>
+      </c>
+      <c r="AM143">
+        <v>1.8</v>
+      </c>
+      <c r="AN143">
+        <v>1.25</v>
+      </c>
+      <c r="AO143">
+        <v>1.33</v>
+      </c>
+      <c r="AP143">
+        <v>1.7</v>
+      </c>
+      <c r="AQ143">
+        <v>2</v>
+      </c>
+      <c r="AR143">
+        <v>1.14</v>
+      </c>
+      <c r="AS143">
+        <v>2.14</v>
+      </c>
+      <c r="AT143">
+        <v>1</v>
+      </c>
+      <c r="AU143">
+        <v>1.94</v>
+      </c>
+      <c r="AV143">
+        <v>1.34</v>
+      </c>
+      <c r="AW143">
+        <v>3.28</v>
+      </c>
+      <c r="AX143">
+        <v>1.53</v>
+      </c>
+      <c r="AY143">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ143">
+        <v>2.8</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>1.36</v>
+      </c>
+      <c r="BC143">
+        <v>1.69</v>
+      </c>
+      <c r="BD143">
+        <v>2.08</v>
+      </c>
+      <c r="BE143">
+        <v>2.71</v>
+      </c>
+      <c r="BF143">
+        <v>5</v>
+      </c>
+      <c r="BG143">
+        <v>6</v>
+      </c>
+      <c r="BH143">
+        <v>4</v>
+      </c>
+      <c r="BI143">
+        <v>6</v>
+      </c>
+      <c r="BJ143">
+        <v>9</v>
+      </c>
+      <c r="BK143">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5557306</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45136.79166666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>82</v>
+      </c>
+      <c r="H144" t="s">
+        <v>79</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>181</v>
+      </c>
+      <c r="P144" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>5</v>
+      </c>
+      <c r="S144">
+        <v>7</v>
+      </c>
+      <c r="T144">
+        <v>2.9</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>3.93</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>2.4</v>
+      </c>
+      <c r="Y144">
+        <v>3.25</v>
+      </c>
+      <c r="Z144">
+        <v>1.3</v>
+      </c>
+      <c r="AA144">
+        <v>7.75</v>
+      </c>
+      <c r="AB144">
+        <v>1.05</v>
+      </c>
+      <c r="AC144">
+        <v>1.97</v>
+      </c>
+      <c r="AD144">
+        <v>3.2</v>
+      </c>
+      <c r="AE144">
+        <v>3.75</v>
+      </c>
+      <c r="AF144">
+        <v>1.08</v>
+      </c>
+      <c r="AG144">
+        <v>8.15</v>
+      </c>
+      <c r="AH144">
+        <v>1.4</v>
+      </c>
+      <c r="AI144">
+        <v>2.73</v>
+      </c>
+      <c r="AJ144">
+        <v>2.25</v>
+      </c>
+      <c r="AK144">
+        <v>1.53</v>
+      </c>
+      <c r="AL144">
+        <v>1.95</v>
+      </c>
+      <c r="AM144">
+        <v>1.75</v>
+      </c>
+      <c r="AN144">
+        <v>1.25</v>
+      </c>
+      <c r="AO144">
+        <v>1.28</v>
+      </c>
+      <c r="AP144">
+        <v>1.57</v>
+      </c>
+      <c r="AQ144">
+        <v>0.83</v>
+      </c>
+      <c r="AR144">
+        <v>0.83</v>
+      </c>
+      <c r="AS144">
+        <v>1.14</v>
+      </c>
+      <c r="AT144">
+        <v>0.71</v>
+      </c>
+      <c r="AU144">
+        <v>1.84</v>
+      </c>
+      <c r="AV144">
+        <v>1.34</v>
+      </c>
+      <c r="AW144">
+        <v>3.18</v>
+      </c>
+      <c r="AX144">
+        <v>1.61</v>
+      </c>
+      <c r="AY144">
+        <v>8.9</v>
+      </c>
+      <c r="AZ144">
+        <v>2.6</v>
+      </c>
+      <c r="BA144">
+        <v>1.2</v>
+      </c>
+      <c r="BB144">
+        <v>1.37</v>
+      </c>
+      <c r="BC144">
+        <v>1.7</v>
+      </c>
+      <c r="BD144">
+        <v>2.1</v>
+      </c>
+      <c r="BE144">
+        <v>2.71</v>
+      </c>
+      <c r="BF144">
+        <v>7</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
+        <v>6</v>
+      </c>
+      <c r="BI144">
+        <v>4</v>
+      </c>
+      <c r="BJ144">
+        <v>13</v>
+      </c>
+      <c r="BK144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5557309</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45136.79166666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>66</v>
+      </c>
+      <c r="H145" t="s">
+        <v>73</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>182</v>
+      </c>
+      <c r="P145" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q145">
+        <v>9</v>
+      </c>
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145">
+        <v>14</v>
+      </c>
+      <c r="T145">
+        <v>2.3</v>
+      </c>
+      <c r="U145">
+        <v>2.05</v>
+      </c>
+      <c r="V145">
+        <v>5</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>2.62</v>
+      </c>
+      <c r="Y145">
+        <v>3</v>
+      </c>
+      <c r="Z145">
+        <v>1.36</v>
+      </c>
+      <c r="AA145">
+        <v>7.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.07</v>
+      </c>
+      <c r="AC145">
+        <v>1.63</v>
+      </c>
+      <c r="AD145">
+        <v>3.4</v>
+      </c>
+      <c r="AE145">
+        <v>6</v>
+      </c>
+      <c r="AF145">
+        <v>1.1</v>
+      </c>
+      <c r="AG145">
+        <v>6.5</v>
+      </c>
+      <c r="AH145">
+        <v>1.4</v>
+      </c>
+      <c r="AI145">
+        <v>2.75</v>
+      </c>
+      <c r="AJ145">
+        <v>2.25</v>
+      </c>
+      <c r="AK145">
+        <v>1.53</v>
+      </c>
+      <c r="AL145">
+        <v>2.2</v>
+      </c>
+      <c r="AM145">
+        <v>1.62</v>
+      </c>
+      <c r="AN145">
+        <v>1.12</v>
+      </c>
+      <c r="AO145">
+        <v>1.3</v>
+      </c>
+      <c r="AP145">
+        <v>2.15</v>
+      </c>
+      <c r="AQ145">
+        <v>2.29</v>
+      </c>
+      <c r="AR145">
+        <v>0.71</v>
+      </c>
+      <c r="AS145">
+        <v>2.38</v>
+      </c>
+      <c r="AT145">
+        <v>0.63</v>
+      </c>
+      <c r="AU145">
+        <v>1.78</v>
+      </c>
+      <c r="AV145">
+        <v>1.4</v>
+      </c>
+      <c r="AW145">
+        <v>3.18</v>
+      </c>
+      <c r="AX145">
+        <v>1.39</v>
+      </c>
+      <c r="AY145">
+        <v>9.1</v>
+      </c>
+      <c r="AZ145">
+        <v>3.46</v>
+      </c>
+      <c r="BA145">
+        <v>1.36</v>
+      </c>
+      <c r="BB145">
+        <v>1.51</v>
+      </c>
+      <c r="BC145">
+        <v>1.81</v>
+      </c>
+      <c r="BD145">
+        <v>2.23</v>
+      </c>
+      <c r="BE145">
+        <v>3.2</v>
+      </c>
+      <c r="BF145">
+        <v>12</v>
+      </c>
+      <c r="BG145">
+        <v>3</v>
+      </c>
+      <c r="BH145">
+        <v>7</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>19</v>
+      </c>
+      <c r="BK145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5557308</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45137.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>120</v>
+      </c>
+      <c r="P146" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>2</v>
+      </c>
+      <c r="T146">
+        <v>2.55</v>
+      </c>
+      <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
+        <v>4.8</v>
+      </c>
+      <c r="W146">
+        <v>1.52</v>
+      </c>
+      <c r="X146">
+        <v>2.4</v>
+      </c>
+      <c r="Y146">
+        <v>3.3</v>
+      </c>
+      <c r="Z146">
+        <v>1.28</v>
+      </c>
+      <c r="AA146">
+        <v>7.75</v>
+      </c>
+      <c r="AB146">
+        <v>1.05</v>
+      </c>
+      <c r="AC146">
+        <v>1.85</v>
+      </c>
+      <c r="AD146">
+        <v>3.05</v>
+      </c>
+      <c r="AE146">
+        <v>4.2</v>
+      </c>
+      <c r="AF146">
+        <v>1.09</v>
+      </c>
+      <c r="AG146">
+        <v>7.65</v>
+      </c>
+      <c r="AH146">
+        <v>1.42</v>
+      </c>
+      <c r="AI146">
+        <v>2.65</v>
+      </c>
+      <c r="AJ146">
+        <v>2.32</v>
+      </c>
+      <c r="AK146">
+        <v>1.56</v>
+      </c>
+      <c r="AL146">
+        <v>2.05</v>
+      </c>
+      <c r="AM146">
+        <v>1.68</v>
+      </c>
+      <c r="AN146">
+        <v>1.2</v>
+      </c>
+      <c r="AO146">
+        <v>1.3</v>
+      </c>
+      <c r="AP146">
+        <v>1.8</v>
+      </c>
+      <c r="AQ146">
+        <v>1.17</v>
+      </c>
+      <c r="AR146">
+        <v>0.67</v>
+      </c>
+      <c r="AS146">
+        <v>1.14</v>
+      </c>
+      <c r="AT146">
+        <v>0.71</v>
+      </c>
+      <c r="AU146">
+        <v>2.32</v>
+      </c>
+      <c r="AV146">
+        <v>0.91</v>
+      </c>
+      <c r="AW146">
+        <v>3.23</v>
+      </c>
+      <c r="AX146">
+        <v>1.48</v>
+      </c>
+      <c r="AY146">
+        <v>9.6</v>
+      </c>
+      <c r="AZ146">
+        <v>2.96</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>1.32</v>
+      </c>
+      <c r="BC146">
+        <v>1.61</v>
+      </c>
+      <c r="BD146">
+        <v>1.97</v>
+      </c>
+      <c r="BE146">
+        <v>2.47</v>
+      </c>
+      <c r="BF146">
+        <v>2</v>
+      </c>
+      <c r="BG146">
+        <v>3</v>
+      </c>
+      <c r="BH146">
+        <v>2</v>
+      </c>
+      <c r="BI146">
+        <v>5</v>
+      </c>
+      <c r="BJ146">
+        <v>4</v>
+      </c>
+      <c r="BK146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5557310</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45137.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147" t="s">
+        <v>78</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>183</v>
+      </c>
+      <c r="P147" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q147">
+        <v>10</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <v>2.45</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>5.75</v>
+      </c>
+      <c r="W147">
+        <v>1.54</v>
+      </c>
+      <c r="X147">
+        <v>2.32</v>
+      </c>
+      <c r="Y147">
+        <v>3.5</v>
+      </c>
+      <c r="Z147">
+        <v>1.25</v>
+      </c>
+      <c r="AA147">
+        <v>10</v>
+      </c>
+      <c r="AB147">
+        <v>1.02</v>
+      </c>
+      <c r="AC147">
+        <v>1.7</v>
+      </c>
+      <c r="AD147">
+        <v>3.1</v>
+      </c>
+      <c r="AE147">
+        <v>5.05</v>
+      </c>
+      <c r="AF147">
+        <v>1.11</v>
+      </c>
+      <c r="AG147">
+        <v>6.45</v>
+      </c>
+      <c r="AH147">
+        <v>1.52</v>
+      </c>
+      <c r="AI147">
+        <v>2.4</v>
+      </c>
+      <c r="AJ147">
+        <v>2.53</v>
+      </c>
+      <c r="AK147">
+        <v>1.4</v>
+      </c>
+      <c r="AL147">
+        <v>2.4</v>
+      </c>
+      <c r="AM147">
+        <v>1.52</v>
+      </c>
+      <c r="AN147">
+        <v>1.15</v>
+      </c>
+      <c r="AO147">
+        <v>1.3</v>
+      </c>
+      <c r="AP147">
+        <v>1.8</v>
+      </c>
+      <c r="AQ147">
+        <v>1.57</v>
+      </c>
+      <c r="AR147">
+        <v>1.14</v>
+      </c>
+      <c r="AS147">
+        <v>1.75</v>
+      </c>
+      <c r="AT147">
+        <v>1</v>
+      </c>
+      <c r="AU147">
+        <v>1.85</v>
+      </c>
+      <c r="AV147">
+        <v>1.45</v>
+      </c>
+      <c r="AW147">
+        <v>3.3</v>
+      </c>
+      <c r="AX147">
+        <v>1.71</v>
+      </c>
+      <c r="AY147">
+        <v>8.9</v>
+      </c>
+      <c r="AZ147">
+        <v>2.38</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>1.3</v>
+      </c>
+      <c r="BC147">
+        <v>1.6</v>
+      </c>
+      <c r="BD147">
+        <v>1.94</v>
+      </c>
+      <c r="BE147">
+        <v>2.43</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>2</v>
+      </c>
+      <c r="BH147">
+        <v>11</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>17</v>
+      </c>
+      <c r="BK147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5557311</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45137.79166666666</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" t="s">
+        <v>67</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>184</v>
+      </c>
+      <c r="P148" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q148">
+        <v>8</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>14</v>
+      </c>
+      <c r="T148">
+        <v>2.42</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>5.01</v>
+      </c>
+      <c r="W148">
+        <v>1.5</v>
+      </c>
+      <c r="X148">
+        <v>2.45</v>
+      </c>
+      <c r="Y148">
+        <v>3.25</v>
+      </c>
+      <c r="Z148">
+        <v>1.3</v>
+      </c>
+      <c r="AA148">
+        <v>7.75</v>
+      </c>
+      <c r="AB148">
+        <v>1.05</v>
+      </c>
+      <c r="AC148">
+        <v>1.62</v>
+      </c>
+      <c r="AD148">
+        <v>3.5</v>
+      </c>
+      <c r="AE148">
+        <v>5</v>
+      </c>
+      <c r="AF148">
+        <v>1.08</v>
+      </c>
+      <c r="AG148">
+        <v>8.25</v>
+      </c>
+      <c r="AH148">
+        <v>1.41</v>
+      </c>
+      <c r="AI148">
+        <v>2.71</v>
+      </c>
+      <c r="AJ148">
+        <v>2.3</v>
+      </c>
+      <c r="AK148">
+        <v>1.57</v>
+      </c>
+      <c r="AL148">
+        <v>2.1</v>
+      </c>
+      <c r="AM148">
+        <v>1.65</v>
+      </c>
+      <c r="AN148">
+        <v>1.18</v>
+      </c>
+      <c r="AO148">
+        <v>1.27</v>
+      </c>
+      <c r="AP148">
+        <v>1.95</v>
+      </c>
+      <c r="AQ148">
+        <v>1.71</v>
+      </c>
+      <c r="AR148">
+        <v>0.43</v>
+      </c>
+      <c r="AS148">
+        <v>1.88</v>
+      </c>
+      <c r="AT148">
+        <v>0.38</v>
+      </c>
+      <c r="AU148">
+        <v>1.89</v>
+      </c>
+      <c r="AV148">
+        <v>1.25</v>
+      </c>
+      <c r="AW148">
+        <v>3.14</v>
+      </c>
+      <c r="AX148">
+        <v>1.52</v>
+      </c>
+      <c r="AY148">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ148">
+        <v>2.84</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>1.59</v>
+      </c>
+      <c r="BD148">
+        <v>1.94</v>
+      </c>
+      <c r="BE148">
+        <v>2.42</v>
+      </c>
+      <c r="BF148">
+        <v>7</v>
+      </c>
+      <c r="BG148">
+        <v>5</v>
+      </c>
+      <c r="BH148">
+        <v>6</v>
+      </c>
+      <c r="BI148">
+        <v>8</v>
+      </c>
+      <c r="BJ148">
+        <v>13</v>
+      </c>
+      <c r="BK148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5557313</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45137.79166666666</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>85</v>
+      </c>
+      <c r="P149" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q149">
+        <v>5</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>3.2</v>
+      </c>
+      <c r="U149">
+        <v>1.91</v>
+      </c>
+      <c r="V149">
+        <v>3.5</v>
+      </c>
+      <c r="W149">
+        <v>1.55</v>
+      </c>
+      <c r="X149">
+        <v>2.25</v>
+      </c>
+      <c r="Y149">
+        <v>3.5</v>
+      </c>
+      <c r="Z149">
+        <v>1.26</v>
+      </c>
+      <c r="AA149">
+        <v>10</v>
+      </c>
+      <c r="AB149">
+        <v>1.04</v>
+      </c>
+      <c r="AC149">
+        <v>2.23</v>
+      </c>
+      <c r="AD149">
+        <v>3.1</v>
+      </c>
+      <c r="AE149">
+        <v>3</v>
+      </c>
+      <c r="AF149">
+        <v>1.1</v>
+      </c>
+      <c r="AG149">
+        <v>6.25</v>
+      </c>
+      <c r="AH149">
+        <v>1.5</v>
+      </c>
+      <c r="AI149">
+        <v>2.5</v>
+      </c>
+      <c r="AJ149">
+        <v>2.5</v>
+      </c>
+      <c r="AK149">
+        <v>1.5</v>
+      </c>
+      <c r="AL149">
+        <v>2.05</v>
+      </c>
+      <c r="AM149">
+        <v>1.73</v>
+      </c>
+      <c r="AN149">
+        <v>1.36</v>
+      </c>
+      <c r="AO149">
+        <v>1.4</v>
+      </c>
+      <c r="AP149">
+        <v>1.44</v>
+      </c>
+      <c r="AQ149">
+        <v>1.57</v>
+      </c>
+      <c r="AR149">
+        <v>1.86</v>
+      </c>
+      <c r="AS149">
+        <v>1.38</v>
+      </c>
+      <c r="AT149">
+        <v>2</v>
+      </c>
+      <c r="AU149">
+        <v>1.45</v>
+      </c>
+      <c r="AV149">
+        <v>1.35</v>
+      </c>
+      <c r="AW149">
+        <v>2.8</v>
+      </c>
+      <c r="AX149">
+        <v>1.61</v>
+      </c>
+      <c r="AY149">
+        <v>8.9</v>
+      </c>
+      <c r="AZ149">
+        <v>2.6</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>1.38</v>
+      </c>
+      <c r="BC149">
+        <v>1.73</v>
+      </c>
+      <c r="BD149">
+        <v>2.14</v>
+      </c>
+      <c r="BE149">
+        <v>2.63</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>3</v>
+      </c>
+      <c r="BH149">
+        <v>8</v>
+      </c>
+      <c r="BI149">
+        <v>3</v>
+      </c>
+      <c r="BJ149">
+        <v>8</v>
+      </c>
+      <c r="BK149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5557312</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45138.83333333334</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>81</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>85</v>
+      </c>
+      <c r="P150" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>4</v>
+      </c>
+      <c r="S150">
+        <v>10</v>
+      </c>
+      <c r="T150">
+        <v>2.8</v>
+      </c>
+      <c r="U150">
+        <v>1.9</v>
+      </c>
+      <c r="V150">
+        <v>4.52</v>
+      </c>
+      <c r="W150">
+        <v>1.52</v>
+      </c>
+      <c r="X150">
+        <v>2.35</v>
+      </c>
+      <c r="Y150">
+        <v>3.4</v>
+      </c>
+      <c r="Z150">
+        <v>1.27</v>
+      </c>
+      <c r="AA150">
+        <v>8</v>
+      </c>
+      <c r="AB150">
+        <v>1.05</v>
+      </c>
+      <c r="AC150">
+        <v>2.08</v>
+      </c>
+      <c r="AD150">
+        <v>3.05</v>
+      </c>
+      <c r="AE150">
+        <v>3.2</v>
+      </c>
+      <c r="AF150">
+        <v>1.08</v>
+      </c>
+      <c r="AG150">
+        <v>7.75</v>
+      </c>
+      <c r="AH150">
+        <v>1.47</v>
+      </c>
+      <c r="AI150">
+        <v>2.5</v>
+      </c>
+      <c r="AJ150">
+        <v>2.55</v>
+      </c>
+      <c r="AK150">
+        <v>1.46</v>
+      </c>
+      <c r="AL150">
+        <v>2.1</v>
+      </c>
+      <c r="AM150">
+        <v>1.68</v>
+      </c>
+      <c r="AN150">
+        <v>1.25</v>
+      </c>
+      <c r="AO150">
+        <v>1.3</v>
+      </c>
+      <c r="AP150">
+        <v>1.72</v>
+      </c>
+      <c r="AQ150">
+        <v>1.29</v>
+      </c>
+      <c r="AR150">
+        <v>0.71</v>
+      </c>
+      <c r="AS150">
+        <v>1.25</v>
+      </c>
+      <c r="AT150">
+        <v>0.75</v>
+      </c>
+      <c r="AU150">
+        <v>1.6</v>
+      </c>
+      <c r="AV150">
+        <v>1.39</v>
+      </c>
+      <c r="AW150">
+        <v>2.99</v>
+      </c>
+      <c r="AX150">
+        <v>1.69</v>
+      </c>
+      <c r="AY150">
+        <v>8.5</v>
+      </c>
+      <c r="AZ150">
+        <v>2.45</v>
+      </c>
+      <c r="BA150">
+        <v>1.26</v>
+      </c>
+      <c r="BB150">
+        <v>1.53</v>
+      </c>
+      <c r="BC150">
+        <v>1.85</v>
+      </c>
+      <c r="BD150">
+        <v>2.25</v>
+      </c>
+      <c r="BE150">
+        <v>3.3</v>
+      </c>
+      <c r="BF150">
+        <v>2</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>7</v>
+      </c>
+      <c r="BI150">
+        <v>7</v>
+      </c>
+      <c r="BJ150">
+        <v>9</v>
+      </c>
+      <c r="BK150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5557314</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45138.83333333334</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>85</v>
+      </c>
+      <c r="P151" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q151">
+        <v>6</v>
+      </c>
+      <c r="R151">
+        <v>7</v>
+      </c>
+      <c r="S151">
+        <v>13</v>
+      </c>
+      <c r="T151">
+        <v>2.55</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>5.25</v>
+      </c>
+      <c r="W151">
+        <v>1.55</v>
+      </c>
+      <c r="X151">
+        <v>2.3</v>
+      </c>
+      <c r="Y151">
+        <v>3.6</v>
+      </c>
+      <c r="Z151">
+        <v>1.25</v>
+      </c>
+      <c r="AA151">
+        <v>8.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.04</v>
+      </c>
+      <c r="AC151">
+        <v>2.04</v>
+      </c>
+      <c r="AD151">
+        <v>3.05</v>
+      </c>
+      <c r="AE151">
+        <v>3.3</v>
+      </c>
+      <c r="AF151">
+        <v>1.1</v>
+      </c>
+      <c r="AG151">
+        <v>7.1</v>
+      </c>
+      <c r="AH151">
+        <v>1.53</v>
+      </c>
+      <c r="AI151">
+        <v>2.35</v>
+      </c>
+      <c r="AJ151">
+        <v>2.55</v>
+      </c>
+      <c r="AK151">
+        <v>1.46</v>
+      </c>
+      <c r="AL151">
+        <v>2.12</v>
+      </c>
+      <c r="AM151">
+        <v>1.69</v>
+      </c>
+      <c r="AN151">
+        <v>1.14</v>
+      </c>
+      <c r="AO151">
+        <v>1.27</v>
+      </c>
+      <c r="AP151">
+        <v>1.99</v>
+      </c>
+      <c r="AQ151">
+        <v>1.86</v>
+      </c>
+      <c r="AR151">
+        <v>1.29</v>
+      </c>
+      <c r="AS151">
+        <v>1.75</v>
+      </c>
+      <c r="AT151">
+        <v>1.25</v>
+      </c>
+      <c r="AU151">
+        <v>1.72</v>
+      </c>
+      <c r="AV151">
+        <v>1.69</v>
+      </c>
+      <c r="AW151">
+        <v>3.41</v>
+      </c>
+      <c r="AX151">
+        <v>1.8</v>
+      </c>
+      <c r="AY151">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ151">
+        <v>2.23</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>1.33</v>
+      </c>
+      <c r="BC151">
+        <v>1.63</v>
+      </c>
+      <c r="BD151">
+        <v>2</v>
+      </c>
+      <c r="BE151">
+        <v>2.57</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>10</v>
+      </c>
+      <c r="BI151">
+        <v>7</v>
+      </c>
+      <c r="BJ151">
+        <v>13</v>
+      </c>
+      <c r="BK151">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -28858,13 +28858,13 @@
         <v>242</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T146">
         <v>2.55</v>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,24 @@
     <t>['60', '90+6']</t>
   </si>
   <si>
+    <t>['44', '80']</t>
+  </si>
+  <si>
+    <t>['11', '68']</t>
+  </si>
+  <si>
+    <t>['79', '90+6', '90+8']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['4', '18', '90+5']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -746,6 +764,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1462,7 @@
         <v>2.14</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1542,7 +1563,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1733,7 +1754,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1924,7 +1945,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2688,7 +2709,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2775,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT9">
         <v>1.14</v>
@@ -3070,7 +3091,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3348,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT12">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3542,7 +3563,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3643,7 +3664,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3730,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3921,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4112,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4303,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT17">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4407,7 +4428,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4497,7 +4518,7 @@
         <v>1.25</v>
       </c>
       <c r="AT18">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4598,7 +4619,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4685,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT19">
         <v>1.71</v>
@@ -4876,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4980,7 +5001,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5067,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
         <v>0.63</v>
@@ -5258,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT22">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU22">
         <v>1.79</v>
@@ -5449,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
         <v>0.86</v>
@@ -5553,7 +5574,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5640,10 +5661,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU24">
         <v>2.19</v>
@@ -5935,7 +5956,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6317,7 +6338,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6404,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT28">
         <v>2</v>
@@ -6508,7 +6529,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6699,7 +6720,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6789,7 +6810,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU30">
         <v>1.52</v>
@@ -6890,7 +6911,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6977,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -7081,7 +7102,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7272,7 +7293,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7463,7 +7484,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7550,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7654,7 +7675,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7741,7 +7762,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -7935,7 +7956,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU36">
         <v>2.77</v>
@@ -8036,7 +8057,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8123,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
         <v>1.14</v>
@@ -8317,7 +8338,7 @@
         <v>2.13</v>
       </c>
       <c r="AT38">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU38">
         <v>1.14</v>
@@ -8508,7 +8529,7 @@
         <v>2.38</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8609,7 +8630,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8696,10 +8717,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -9078,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT42">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9460,10 +9481,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU44">
         <v>1.5</v>
@@ -9654,7 +9675,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9755,7 +9776,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9842,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT46">
         <v>1.71</v>
@@ -10033,7 +10054,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10227,7 +10248,7 @@
         <v>2.38</v>
       </c>
       <c r="AT48">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU48">
         <v>1.56</v>
@@ -10519,7 +10540,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10797,7 +10818,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -11182,7 +11203,7 @@
         <v>1.57</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU53">
         <v>1.42</v>
@@ -11561,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11665,7 +11686,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -12047,7 +12068,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12134,10 +12155,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT58">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12238,7 +12259,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12325,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12429,7 +12450,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12516,7 +12537,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -12898,10 +12919,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13089,7 +13110,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
         <v>1.71</v>
@@ -13280,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13471,10 +13492,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT65">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU65">
         <v>1.95</v>
@@ -13853,10 +13874,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU67">
         <v>2.01</v>
@@ -14047,7 +14068,7 @@
         <v>1.43</v>
       </c>
       <c r="AT68">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14148,7 +14169,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14238,7 +14259,7 @@
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14429,7 +14450,7 @@
         <v>1.75</v>
       </c>
       <c r="AT70">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU70">
         <v>1.71</v>
@@ -14617,7 +14638,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT71">
         <v>0.71</v>
@@ -14999,10 +15020,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT73">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -15103,7 +15124,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15381,7 +15402,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15763,7 +15784,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -15867,7 +15888,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15957,7 +15978,7 @@
         <v>1.14</v>
       </c>
       <c r="AT78">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU78">
         <v>2.18</v>
@@ -16148,7 +16169,7 @@
         <v>2.13</v>
       </c>
       <c r="AT79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU79">
         <v>1.18</v>
@@ -16249,7 +16270,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16336,7 +16357,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16440,7 +16461,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16527,7 +16548,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16631,7 +16652,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16822,7 +16843,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17013,7 +17034,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17100,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT84">
         <v>1.13</v>
@@ -17204,7 +17225,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17395,7 +17416,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17586,7 +17607,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17673,7 +17694,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT87">
         <v>1.14</v>
@@ -17777,7 +17798,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17867,7 +17888,7 @@
         <v>2.13</v>
       </c>
       <c r="AT88">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU88">
         <v>1.15</v>
@@ -17968,7 +17989,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18055,7 +18076,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18159,7 +18180,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18249,7 +18270,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU90">
         <v>1.76</v>
@@ -18350,7 +18371,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18541,7 +18562,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18732,7 +18753,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18819,7 +18840,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT93">
         <v>0.86</v>
@@ -19013,7 +19034,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU94">
         <v>1.63</v>
@@ -19496,7 +19517,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19586,7 +19607,7 @@
         <v>2.14</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU97">
         <v>1.98</v>
@@ -19774,7 +19795,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19878,7 +19899,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -19965,10 +19986,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT99">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU99">
         <v>1.64</v>
@@ -20069,7 +20090,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20159,7 +20180,7 @@
         <v>1.75</v>
       </c>
       <c r="AT100">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU100">
         <v>1.87</v>
@@ -20260,7 +20281,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20347,7 +20368,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>2</v>
@@ -20729,7 +20750,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT103">
         <v>0.71</v>
@@ -20923,7 +20944,7 @@
         <v>1.25</v>
       </c>
       <c r="AT104">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU104">
         <v>1.7</v>
@@ -21024,7 +21045,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21114,7 +21135,7 @@
         <v>2.13</v>
       </c>
       <c r="AT105">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU105">
         <v>1.18</v>
@@ -21302,7 +21323,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -21493,7 +21514,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT107">
         <v>1.14</v>
@@ -22069,7 +22090,7 @@
         <v>2.14</v>
       </c>
       <c r="AT110">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU110">
         <v>1.85</v>
@@ -22257,7 +22278,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>0.63</v>
@@ -22361,7 +22382,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22448,10 +22469,10 @@
         <v>0.2</v>
       </c>
       <c r="AS112">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT112">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22552,7 +22573,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22639,10 +22660,10 @@
         <v>1.4</v>
       </c>
       <c r="AS113">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT113">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU113">
         <v>1.86</v>
@@ -22743,7 +22764,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23021,10 +23042,10 @@
         <v>0.4</v>
       </c>
       <c r="AS115">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT115">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU115">
         <v>1.86</v>
@@ -23125,7 +23146,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23215,7 +23236,7 @@
         <v>1.14</v>
       </c>
       <c r="AT116">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU116">
         <v>2.27</v>
@@ -23316,7 +23337,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23403,7 +23424,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23507,7 +23528,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23698,7 +23719,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23785,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -23889,7 +23910,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -23976,10 +23997,10 @@
         <v>0.6</v>
       </c>
       <c r="AS120">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU120">
         <v>1.54</v>
@@ -24080,7 +24101,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24167,7 +24188,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
         <v>1.14</v>
@@ -24361,7 +24382,7 @@
         <v>1.57</v>
       </c>
       <c r="AT122">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU122">
         <v>1.56</v>
@@ -24740,7 +24761,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>0.86</v>
@@ -24931,7 +24952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25316,7 +25337,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU127">
         <v>1.77</v>
@@ -25504,10 +25525,10 @@
         <v>0.83</v>
       </c>
       <c r="AS128">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT128">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>2.06</v>
@@ -25695,7 +25716,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26268,7 +26289,7 @@
         <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT132">
         <v>1.14</v>
@@ -26372,7 +26393,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26459,7 +26480,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26650,7 +26671,7 @@
         <v>0.8</v>
       </c>
       <c r="AS134">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT134">
         <v>0.71</v>
@@ -26844,7 +26865,7 @@
         <v>1.71</v>
       </c>
       <c r="AT135">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU135">
         <v>1.96</v>
@@ -26945,7 +26966,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27136,7 +27157,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27226,7 +27247,7 @@
         <v>1.57</v>
       </c>
       <c r="AT137">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU137">
         <v>1.53</v>
@@ -27414,7 +27435,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT138">
         <v>1.13</v>
@@ -27709,7 +27730,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27799,7 +27820,7 @@
         <v>2.14</v>
       </c>
       <c r="AT140">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU140">
         <v>1.88</v>
@@ -27900,7 +27921,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28091,7 +28112,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28178,7 +28199,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT142">
         <v>1</v>
@@ -28473,7 +28494,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28560,7 +28581,7 @@
         <v>0.83</v>
       </c>
       <c r="AS144">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT144">
         <v>0.71</v>
@@ -28855,7 +28876,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -28945,7 +28966,7 @@
         <v>1.14</v>
       </c>
       <c r="AT146">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU146">
         <v>2.32</v>
@@ -29046,7 +29067,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29324,10 +29345,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT148">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU148">
         <v>1.89</v>
@@ -29515,7 +29536,7 @@
         <v>1.86</v>
       </c>
       <c r="AS149">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT149">
         <v>2</v>
@@ -29709,7 +29730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT150">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU150">
         <v>1.6</v>
@@ -29900,7 +29921,7 @@
         <v>1.75</v>
       </c>
       <c r="AT151">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU151">
         <v>1.72</v>
@@ -29951,6 +29972,1916 @@
         <v>13</v>
       </c>
       <c r="BK151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5557324</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45143.66666666666</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>75</v>
+      </c>
+      <c r="H152" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>85</v>
+      </c>
+      <c r="P152" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q152">
+        <v>6</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>8</v>
+      </c>
+      <c r="T152">
+        <v>2.4</v>
+      </c>
+      <c r="U152">
+        <v>1.95</v>
+      </c>
+      <c r="V152">
+        <v>5.5</v>
+      </c>
+      <c r="W152">
+        <v>1.52</v>
+      </c>
+      <c r="X152">
+        <v>2.4</v>
+      </c>
+      <c r="Y152">
+        <v>3.4</v>
+      </c>
+      <c r="Z152">
+        <v>1.28</v>
+      </c>
+      <c r="AA152">
+        <v>8</v>
+      </c>
+      <c r="AB152">
+        <v>1.05</v>
+      </c>
+      <c r="AC152">
+        <v>1.7</v>
+      </c>
+      <c r="AD152">
+        <v>3.25</v>
+      </c>
+      <c r="AE152">
+        <v>4.5</v>
+      </c>
+      <c r="AF152">
+        <v>1.08</v>
+      </c>
+      <c r="AG152">
+        <v>7.95</v>
+      </c>
+      <c r="AH152">
+        <v>1.44</v>
+      </c>
+      <c r="AI152">
+        <v>2.6</v>
+      </c>
+      <c r="AJ152">
+        <v>2.33</v>
+      </c>
+      <c r="AK152">
+        <v>1.53</v>
+      </c>
+      <c r="AL152">
+        <v>2.2</v>
+      </c>
+      <c r="AM152">
+        <v>1.6</v>
+      </c>
+      <c r="AN152">
+        <v>1.16</v>
+      </c>
+      <c r="AO152">
+        <v>1.27</v>
+      </c>
+      <c r="AP152">
+        <v>1.82</v>
+      </c>
+      <c r="AQ152">
+        <v>1.71</v>
+      </c>
+      <c r="AR152">
+        <v>1</v>
+      </c>
+      <c r="AS152">
+        <v>1.63</v>
+      </c>
+      <c r="AT152">
+        <v>1</v>
+      </c>
+      <c r="AU152">
+        <v>1.73</v>
+      </c>
+      <c r="AV152">
+        <v>1.03</v>
+      </c>
+      <c r="AW152">
+        <v>2.76</v>
+      </c>
+      <c r="AX152">
+        <v>1.45</v>
+      </c>
+      <c r="AY152">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ152">
+        <v>3.26</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>1.43</v>
+      </c>
+      <c r="BC152">
+        <v>1.75</v>
+      </c>
+      <c r="BD152">
+        <v>2.23</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>2</v>
+      </c>
+      <c r="BG152">
+        <v>2</v>
+      </c>
+      <c r="BH152">
+        <v>6</v>
+      </c>
+      <c r="BI152">
+        <v>3</v>
+      </c>
+      <c r="BJ152">
+        <v>8</v>
+      </c>
+      <c r="BK152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5557319</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45143.66666666666</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s">
+        <v>67</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>85</v>
+      </c>
+      <c r="P153" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153">
+        <v>6</v>
+      </c>
+      <c r="S153">
+        <v>8</v>
+      </c>
+      <c r="T153">
+        <v>2.85</v>
+      </c>
+      <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
+        <v>4.25</v>
+      </c>
+      <c r="W153">
+        <v>1.52</v>
+      </c>
+      <c r="X153">
+        <v>2.4</v>
+      </c>
+      <c r="Y153">
+        <v>3.4</v>
+      </c>
+      <c r="Z153">
+        <v>1.28</v>
+      </c>
+      <c r="AA153">
+        <v>8</v>
+      </c>
+      <c r="AB153">
+        <v>1.05</v>
+      </c>
+      <c r="AC153">
+        <v>2.15</v>
+      </c>
+      <c r="AD153">
+        <v>3</v>
+      </c>
+      <c r="AE153">
+        <v>3.1</v>
+      </c>
+      <c r="AF153">
+        <v>1.09</v>
+      </c>
+      <c r="AG153">
+        <v>7.95</v>
+      </c>
+      <c r="AH153">
+        <v>1.47</v>
+      </c>
+      <c r="AI153">
+        <v>2.5</v>
+      </c>
+      <c r="AJ153">
+        <v>2.35</v>
+      </c>
+      <c r="AK153">
+        <v>1.53</v>
+      </c>
+      <c r="AL153">
+        <v>2</v>
+      </c>
+      <c r="AM153">
+        <v>1.72</v>
+      </c>
+      <c r="AN153">
+        <v>1.25</v>
+      </c>
+      <c r="AO153">
+        <v>1.32</v>
+      </c>
+      <c r="AP153">
+        <v>1.55</v>
+      </c>
+      <c r="AQ153">
+        <v>0.57</v>
+      </c>
+      <c r="AR153">
+        <v>0.38</v>
+      </c>
+      <c r="AS153">
+        <v>0.5</v>
+      </c>
+      <c r="AT153">
+        <v>0.67</v>
+      </c>
+      <c r="AU153">
+        <v>1.8</v>
+      </c>
+      <c r="AV153">
+        <v>1.28</v>
+      </c>
+      <c r="AW153">
+        <v>3.08</v>
+      </c>
+      <c r="AX153">
+        <v>1.51</v>
+      </c>
+      <c r="AY153">
+        <v>9.4</v>
+      </c>
+      <c r="AZ153">
+        <v>2.97</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>1.49</v>
+      </c>
+      <c r="BD153">
+        <v>1.83</v>
+      </c>
+      <c r="BE153">
+        <v>2.34</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>7</v>
+      </c>
+      <c r="BI153">
+        <v>11</v>
+      </c>
+      <c r="BJ153">
+        <v>12</v>
+      </c>
+      <c r="BK153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5557315</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45143.79166666666</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>79</v>
+      </c>
+      <c r="H154" t="s">
+        <v>69</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>185</v>
+      </c>
+      <c r="P154" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q154">
+        <v>6</v>
+      </c>
+      <c r="R154">
+        <v>7</v>
+      </c>
+      <c r="S154">
+        <v>13</v>
+      </c>
+      <c r="T154">
+        <v>2.8</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>3.9</v>
+      </c>
+      <c r="W154">
+        <v>1.48</v>
+      </c>
+      <c r="X154">
+        <v>2.5</v>
+      </c>
+      <c r="Y154">
+        <v>3.1</v>
+      </c>
+      <c r="Z154">
+        <v>1.32</v>
+      </c>
+      <c r="AA154">
+        <v>7.25</v>
+      </c>
+      <c r="AB154">
+        <v>1.07</v>
+      </c>
+      <c r="AC154">
+        <v>2.25</v>
+      </c>
+      <c r="AD154">
+        <v>2.75</v>
+      </c>
+      <c r="AE154">
+        <v>3.35</v>
+      </c>
+      <c r="AF154">
+        <v>1.07</v>
+      </c>
+      <c r="AG154">
+        <v>9.25</v>
+      </c>
+      <c r="AH154">
+        <v>1.47</v>
+      </c>
+      <c r="AI154">
+        <v>2.5</v>
+      </c>
+      <c r="AJ154">
+        <v>2.5</v>
+      </c>
+      <c r="AK154">
+        <v>1.48</v>
+      </c>
+      <c r="AL154">
+        <v>1.88</v>
+      </c>
+      <c r="AM154">
+        <v>1.82</v>
+      </c>
+      <c r="AN154">
+        <v>1.25</v>
+      </c>
+      <c r="AO154">
+        <v>1.32</v>
+      </c>
+      <c r="AP154">
+        <v>1.55</v>
+      </c>
+      <c r="AQ154">
+        <v>1.75</v>
+      </c>
+      <c r="AR154">
+        <v>1.86</v>
+      </c>
+      <c r="AS154">
+        <v>1.89</v>
+      </c>
+      <c r="AT154">
+        <v>1.63</v>
+      </c>
+      <c r="AU154">
+        <v>1.66</v>
+      </c>
+      <c r="AV154">
+        <v>1.42</v>
+      </c>
+      <c r="AW154">
+        <v>3.08</v>
+      </c>
+      <c r="AX154">
+        <v>1.59</v>
+      </c>
+      <c r="AY154">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ154">
+        <v>2.63</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>1.58</v>
+      </c>
+      <c r="BD154">
+        <v>1.94</v>
+      </c>
+      <c r="BE154">
+        <v>2.41</v>
+      </c>
+      <c r="BF154">
+        <v>9</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>7</v>
+      </c>
+      <c r="BI154">
+        <v>8</v>
+      </c>
+      <c r="BJ154">
+        <v>16</v>
+      </c>
+      <c r="BK154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5557316</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45143.79166666666</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>82</v>
+      </c>
+      <c r="H155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>186</v>
+      </c>
+      <c r="P155" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>3</v>
+      </c>
+      <c r="S155">
+        <v>8</v>
+      </c>
+      <c r="T155">
+        <v>2.8</v>
+      </c>
+      <c r="U155">
+        <v>2</v>
+      </c>
+      <c r="V155">
+        <v>3.9</v>
+      </c>
+      <c r="W155">
+        <v>1.48</v>
+      </c>
+      <c r="X155">
+        <v>2.5</v>
+      </c>
+      <c r="Y155">
+        <v>3.1</v>
+      </c>
+      <c r="Z155">
+        <v>1.32</v>
+      </c>
+      <c r="AA155">
+        <v>7.25</v>
+      </c>
+      <c r="AB155">
+        <v>1.07</v>
+      </c>
+      <c r="AC155">
+        <v>1.97</v>
+      </c>
+      <c r="AD155">
+        <v>3</v>
+      </c>
+      <c r="AE155">
+        <v>3.85</v>
+      </c>
+      <c r="AF155">
+        <v>1.07</v>
+      </c>
+      <c r="AG155">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH155">
+        <v>1.34</v>
+      </c>
+      <c r="AI155">
+        <v>2.98</v>
+      </c>
+      <c r="AJ155">
+        <v>2.4</v>
+      </c>
+      <c r="AK155">
+        <v>1.52</v>
+      </c>
+      <c r="AL155">
+        <v>1.88</v>
+      </c>
+      <c r="AM155">
+        <v>1.82</v>
+      </c>
+      <c r="AN155">
+        <v>1.25</v>
+      </c>
+      <c r="AO155">
+        <v>1.32</v>
+      </c>
+      <c r="AP155">
+        <v>1.55</v>
+      </c>
+      <c r="AQ155">
+        <v>1.14</v>
+      </c>
+      <c r="AR155">
+        <v>1</v>
+      </c>
+      <c r="AS155">
+        <v>1.38</v>
+      </c>
+      <c r="AT155">
+        <v>0.88</v>
+      </c>
+      <c r="AU155">
+        <v>1.82</v>
+      </c>
+      <c r="AV155">
+        <v>1.46</v>
+      </c>
+      <c r="AW155">
+        <v>3.28</v>
+      </c>
+      <c r="AX155">
+        <v>1.57</v>
+      </c>
+      <c r="AY155">
+        <v>8.9</v>
+      </c>
+      <c r="AZ155">
+        <v>2.71</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>1.44</v>
+      </c>
+      <c r="BC155">
+        <v>1.74</v>
+      </c>
+      <c r="BD155">
+        <v>2.14</v>
+      </c>
+      <c r="BE155">
+        <v>2.63</v>
+      </c>
+      <c r="BF155">
+        <v>13</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>3</v>
+      </c>
+      <c r="BJ155">
+        <v>17</v>
+      </c>
+      <c r="BK155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5557323</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45144.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>83</v>
+      </c>
+      <c r="H156" t="s">
+        <v>68</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>187</v>
+      </c>
+      <c r="P156" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q156">
+        <v>11</v>
+      </c>
+      <c r="R156">
+        <v>4</v>
+      </c>
+      <c r="S156">
+        <v>15</v>
+      </c>
+      <c r="T156">
+        <v>2.9</v>
+      </c>
+      <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
+        <v>4.5</v>
+      </c>
+      <c r="W156">
+        <v>1.62</v>
+      </c>
+      <c r="X156">
+        <v>2.15</v>
+      </c>
+      <c r="Y156">
+        <v>3.75</v>
+      </c>
+      <c r="Z156">
+        <v>1.23</v>
+      </c>
+      <c r="AA156">
+        <v>8.75</v>
+      </c>
+      <c r="AB156">
+        <v>1.03</v>
+      </c>
+      <c r="AC156">
+        <v>2.15</v>
+      </c>
+      <c r="AD156">
+        <v>2.9</v>
+      </c>
+      <c r="AE156">
+        <v>3.3</v>
+      </c>
+      <c r="AF156">
+        <v>1.11</v>
+      </c>
+      <c r="AG156">
+        <v>6.7</v>
+      </c>
+      <c r="AH156">
+        <v>1.48</v>
+      </c>
+      <c r="AI156">
+        <v>2.55</v>
+      </c>
+      <c r="AJ156">
+        <v>2.58</v>
+      </c>
+      <c r="AK156">
+        <v>1.4</v>
+      </c>
+      <c r="AL156">
+        <v>2.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.58</v>
+      </c>
+      <c r="AN156">
+        <v>1.24</v>
+      </c>
+      <c r="AO156">
+        <v>1.32</v>
+      </c>
+      <c r="AP156">
+        <v>1.65</v>
+      </c>
+      <c r="AQ156">
+        <v>1.38</v>
+      </c>
+      <c r="AR156">
+        <v>0.88</v>
+      </c>
+      <c r="AS156">
+        <v>1.56</v>
+      </c>
+      <c r="AT156">
+        <v>0.78</v>
+      </c>
+      <c r="AU156">
+        <v>1.41</v>
+      </c>
+      <c r="AV156">
+        <v>1.53</v>
+      </c>
+      <c r="AW156">
+        <v>2.94</v>
+      </c>
+      <c r="AX156">
+        <v>1.69</v>
+      </c>
+      <c r="AY156">
+        <v>9</v>
+      </c>
+      <c r="AZ156">
+        <v>2.41</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>1.3</v>
+      </c>
+      <c r="BC156">
+        <v>1.6</v>
+      </c>
+      <c r="BD156">
+        <v>1.95</v>
+      </c>
+      <c r="BE156">
+        <v>2.45</v>
+      </c>
+      <c r="BF156">
+        <v>7</v>
+      </c>
+      <c r="BG156">
+        <v>5</v>
+      </c>
+      <c r="BH156">
+        <v>6</v>
+      </c>
+      <c r="BI156">
+        <v>3</v>
+      </c>
+      <c r="BJ156">
+        <v>13</v>
+      </c>
+      <c r="BK156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5557322</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45144.66666666666</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>70</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>188</v>
+      </c>
+      <c r="P157" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q157">
+        <v>6</v>
+      </c>
+      <c r="R157">
+        <v>6</v>
+      </c>
+      <c r="S157">
+        <v>12</v>
+      </c>
+      <c r="T157">
+        <v>3.75</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>3.3</v>
+      </c>
+      <c r="W157">
+        <v>1.6</v>
+      </c>
+      <c r="X157">
+        <v>2.2</v>
+      </c>
+      <c r="Y157">
+        <v>3.7</v>
+      </c>
+      <c r="Z157">
+        <v>1.24</v>
+      </c>
+      <c r="AA157">
+        <v>8.75</v>
+      </c>
+      <c r="AB157">
+        <v>1.04</v>
+      </c>
+      <c r="AC157">
+        <v>3.02</v>
+      </c>
+      <c r="AD157">
+        <v>2.8</v>
+      </c>
+      <c r="AE157">
+        <v>2.4</v>
+      </c>
+      <c r="AF157">
+        <v>1.1</v>
+      </c>
+      <c r="AG157">
+        <v>6.85</v>
+      </c>
+      <c r="AH157">
+        <v>1.5</v>
+      </c>
+      <c r="AI157">
+        <v>2.25</v>
+      </c>
+      <c r="AJ157">
+        <v>2.41</v>
+      </c>
+      <c r="AK157">
+        <v>1.5</v>
+      </c>
+      <c r="AL157">
+        <v>2.15</v>
+      </c>
+      <c r="AM157">
+        <v>1.65</v>
+      </c>
+      <c r="AN157">
+        <v>1.48</v>
+      </c>
+      <c r="AO157">
+        <v>1.35</v>
+      </c>
+      <c r="AP157">
+        <v>1.38</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>0.71</v>
+      </c>
+      <c r="AS157">
+        <v>1</v>
+      </c>
+      <c r="AT157">
+        <v>0.75</v>
+      </c>
+      <c r="AU157">
+        <v>1.67</v>
+      </c>
+      <c r="AV157">
+        <v>0.91</v>
+      </c>
+      <c r="AW157">
+        <v>2.58</v>
+      </c>
+      <c r="AX157">
+        <v>1.98</v>
+      </c>
+      <c r="AY157">
+        <v>8.5</v>
+      </c>
+      <c r="AZ157">
+        <v>2.02</v>
+      </c>
+      <c r="BA157">
+        <v>1.26</v>
+      </c>
+      <c r="BB157">
+        <v>1.52</v>
+      </c>
+      <c r="BC157">
+        <v>1.87</v>
+      </c>
+      <c r="BD157">
+        <v>2.31</v>
+      </c>
+      <c r="BE157">
+        <v>3.35</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>4</v>
+      </c>
+      <c r="BH157">
+        <v>5</v>
+      </c>
+      <c r="BI157">
+        <v>6</v>
+      </c>
+      <c r="BJ157">
+        <v>8</v>
+      </c>
+      <c r="BK157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5557317</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45144.66666666666</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
+        <v>74</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>189</v>
+      </c>
+      <c r="P158" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>7</v>
+      </c>
+      <c r="S158">
+        <v>11</v>
+      </c>
+      <c r="T158">
+        <v>2.6</v>
+      </c>
+      <c r="U158">
+        <v>1.83</v>
+      </c>
+      <c r="V158">
+        <v>6</v>
+      </c>
+      <c r="W158">
+        <v>1.62</v>
+      </c>
+      <c r="X158">
+        <v>2.2</v>
+      </c>
+      <c r="Y158">
+        <v>4</v>
+      </c>
+      <c r="Z158">
+        <v>1.22</v>
+      </c>
+      <c r="AA158">
+        <v>9</v>
+      </c>
+      <c r="AB158">
+        <v>1.04</v>
+      </c>
+      <c r="AC158">
+        <v>1.82</v>
+      </c>
+      <c r="AD158">
+        <v>2.9</v>
+      </c>
+      <c r="AE158">
+        <v>4.75</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>1.54</v>
+      </c>
+      <c r="AI158">
+        <v>2.32</v>
+      </c>
+      <c r="AJ158">
+        <v>2.69</v>
+      </c>
+      <c r="AK158">
+        <v>1.41</v>
+      </c>
+      <c r="AL158">
+        <v>2.38</v>
+      </c>
+      <c r="AM158">
+        <v>1.53</v>
+      </c>
+      <c r="AN158">
+        <v>0</v>
+      </c>
+      <c r="AO158">
+        <v>0</v>
+      </c>
+      <c r="AP158">
+        <v>0</v>
+      </c>
+      <c r="AQ158">
+        <v>2.25</v>
+      </c>
+      <c r="AR158">
+        <v>1.25</v>
+      </c>
+      <c r="AS158">
+        <v>2.33</v>
+      </c>
+      <c r="AT158">
+        <v>1.11</v>
+      </c>
+      <c r="AU158">
+        <v>1.95</v>
+      </c>
+      <c r="AV158">
+        <v>1.64</v>
+      </c>
+      <c r="AW158">
+        <v>3.59</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>5</v>
+      </c>
+      <c r="BG158">
+        <v>4</v>
+      </c>
+      <c r="BH158">
+        <v>5</v>
+      </c>
+      <c r="BI158">
+        <v>9</v>
+      </c>
+      <c r="BJ158">
+        <v>10</v>
+      </c>
+      <c r="BK158">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5557318</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45144.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>71</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>85</v>
+      </c>
+      <c r="P159" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q159">
+        <v>15</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>17</v>
+      </c>
+      <c r="T159">
+        <v>2.6</v>
+      </c>
+      <c r="U159">
+        <v>1.9</v>
+      </c>
+      <c r="V159">
+        <v>5</v>
+      </c>
+      <c r="W159">
+        <v>1.55</v>
+      </c>
+      <c r="X159">
+        <v>2.3</v>
+      </c>
+      <c r="Y159">
+        <v>3.5</v>
+      </c>
+      <c r="Z159">
+        <v>1.25</v>
+      </c>
+      <c r="AA159">
+        <v>8.25</v>
+      </c>
+      <c r="AB159">
+        <v>1.04</v>
+      </c>
+      <c r="AC159">
+        <v>1.87</v>
+      </c>
+      <c r="AD159">
+        <v>3</v>
+      </c>
+      <c r="AE159">
+        <v>4.22</v>
+      </c>
+      <c r="AF159">
+        <v>1.1</v>
+      </c>
+      <c r="AG159">
+        <v>7.15</v>
+      </c>
+      <c r="AH159">
+        <v>1.56</v>
+      </c>
+      <c r="AI159">
+        <v>2.3</v>
+      </c>
+      <c r="AJ159">
+        <v>2.69</v>
+      </c>
+      <c r="AK159">
+        <v>1.41</v>
+      </c>
+      <c r="AL159">
+        <v>2.2</v>
+      </c>
+      <c r="AM159">
+        <v>1.6</v>
+      </c>
+      <c r="AN159">
+        <v>1.2</v>
+      </c>
+      <c r="AO159">
+        <v>1.3</v>
+      </c>
+      <c r="AP159">
+        <v>1.82</v>
+      </c>
+      <c r="AQ159">
+        <v>2.13</v>
+      </c>
+      <c r="AR159">
+        <v>1</v>
+      </c>
+      <c r="AS159">
+        <v>2</v>
+      </c>
+      <c r="AT159">
+        <v>1</v>
+      </c>
+      <c r="AU159">
+        <v>1.75</v>
+      </c>
+      <c r="AV159">
+        <v>1.29</v>
+      </c>
+      <c r="AW159">
+        <v>3.04</v>
+      </c>
+      <c r="AX159">
+        <v>1.42</v>
+      </c>
+      <c r="AY159">
+        <v>9.6</v>
+      </c>
+      <c r="AZ159">
+        <v>3.36</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>1.33</v>
+      </c>
+      <c r="BC159">
+        <v>1.65</v>
+      </c>
+      <c r="BD159">
+        <v>2.02</v>
+      </c>
+      <c r="BE159">
+        <v>2.57</v>
+      </c>
+      <c r="BF159">
+        <v>7</v>
+      </c>
+      <c r="BG159">
+        <v>4</v>
+      </c>
+      <c r="BH159">
+        <v>13</v>
+      </c>
+      <c r="BI159">
+        <v>8</v>
+      </c>
+      <c r="BJ159">
+        <v>20</v>
+      </c>
+      <c r="BK159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5557320</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45145.83333333334</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>84</v>
+      </c>
+      <c r="H160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>190</v>
+      </c>
+      <c r="P160" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q160">
+        <v>2</v>
+      </c>
+      <c r="R160">
+        <v>5</v>
+      </c>
+      <c r="S160">
+        <v>7</v>
+      </c>
+      <c r="T160">
+        <v>2.8</v>
+      </c>
+      <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
+        <v>4.7</v>
+      </c>
+      <c r="W160">
+        <v>1.6</v>
+      </c>
+      <c r="X160">
+        <v>2.2</v>
+      </c>
+      <c r="Y160">
+        <v>3.7</v>
+      </c>
+      <c r="Z160">
+        <v>1.23</v>
+      </c>
+      <c r="AA160">
+        <v>8.75</v>
+      </c>
+      <c r="AB160">
+        <v>1.04</v>
+      </c>
+      <c r="AC160">
+        <v>2.07</v>
+      </c>
+      <c r="AD160">
+        <v>3.2</v>
+      </c>
+      <c r="AE160">
+        <v>3.4</v>
+      </c>
+      <c r="AF160">
+        <v>1.11</v>
+      </c>
+      <c r="AG160">
+        <v>6.5</v>
+      </c>
+      <c r="AH160">
+        <v>1.54</v>
+      </c>
+      <c r="AI160">
+        <v>2.33</v>
+      </c>
+      <c r="AJ160">
+        <v>2.4</v>
+      </c>
+      <c r="AK160">
+        <v>1.5</v>
+      </c>
+      <c r="AL160">
+        <v>2.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.58</v>
+      </c>
+      <c r="AN160">
+        <v>1.23</v>
+      </c>
+      <c r="AO160">
+        <v>1.32</v>
+      </c>
+      <c r="AP160">
+        <v>1.68</v>
+      </c>
+      <c r="AQ160">
+        <v>1.57</v>
+      </c>
+      <c r="AR160">
+        <v>0.75</v>
+      </c>
+      <c r="AS160">
+        <v>1.75</v>
+      </c>
+      <c r="AT160">
+        <v>0.67</v>
+      </c>
+      <c r="AU160">
+        <v>1.65</v>
+      </c>
+      <c r="AV160">
+        <v>1.31</v>
+      </c>
+      <c r="AW160">
+        <v>2.96</v>
+      </c>
+      <c r="AX160">
+        <v>1.59</v>
+      </c>
+      <c r="AY160">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ160">
+        <v>2.81</v>
+      </c>
+      <c r="BA160">
+        <v>1.25</v>
+      </c>
+      <c r="BB160">
+        <v>1.51</v>
+      </c>
+      <c r="BC160">
+        <v>2</v>
+      </c>
+      <c r="BD160">
+        <v>2.29</v>
+      </c>
+      <c r="BE160">
+        <v>3.25</v>
+      </c>
+      <c r="BF160">
+        <v>4</v>
+      </c>
+      <c r="BG160">
+        <v>6</v>
+      </c>
+      <c r="BH160">
+        <v>3</v>
+      </c>
+      <c r="BI160">
+        <v>12</v>
+      </c>
+      <c r="BJ160">
+        <v>7</v>
+      </c>
+      <c r="BK160">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5557321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45145.83333333334</v>
+      </c>
+      <c r="F161">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" t="s">
+        <v>65</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>87</v>
+      </c>
+      <c r="P161" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q161">
+        <v>7</v>
+      </c>
+      <c r="R161">
+        <v>4</v>
+      </c>
+      <c r="S161">
+        <v>11</v>
+      </c>
+      <c r="T161">
+        <v>2.6</v>
+      </c>
+      <c r="U161">
+        <v>1.91</v>
+      </c>
+      <c r="V161">
+        <v>5</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>1.93</v>
+      </c>
+      <c r="AD161">
+        <v>3.1</v>
+      </c>
+      <c r="AE161">
+        <v>3.9</v>
+      </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>1.48</v>
+      </c>
+      <c r="AI161">
+        <v>2.47</v>
+      </c>
+      <c r="AJ161">
+        <v>2.4</v>
+      </c>
+      <c r="AK161">
+        <v>1.51</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>0</v>
+      </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
+      <c r="AP161">
+        <v>0</v>
+      </c>
+      <c r="AQ161">
+        <v>1.88</v>
+      </c>
+      <c r="AR161">
+        <v>1</v>
+      </c>
+      <c r="AS161">
+        <v>1.78</v>
+      </c>
+      <c r="AT161">
+        <v>1</v>
+      </c>
+      <c r="AU161">
+        <v>1.87</v>
+      </c>
+      <c r="AV161">
+        <v>1.12</v>
+      </c>
+      <c r="AW161">
+        <v>2.99</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>3</v>
+      </c>
+      <c r="BG161">
+        <v>5</v>
+      </c>
+      <c r="BH161">
+        <v>9</v>
+      </c>
+      <c r="BI161">
+        <v>5</v>
+      </c>
+      <c r="BJ161">
+        <v>12</v>
+      </c>
+      <c r="BK161">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -31553,13 +31553,13 @@
         <v>159</v>
       </c>
       <c r="Q160">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="S160">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="T160">
         <v>2.8</v>
@@ -31676,22 +31676,22 @@
         <v>3.25</v>
       </c>
       <c r="BF160">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG160">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BH160">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI160">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BJ160">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BK160">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:63">
@@ -31744,13 +31744,13 @@
         <v>171</v>
       </c>
       <c r="Q161">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="R161">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="S161">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="T161">
         <v>2.6</v>
@@ -31867,22 +31867,22 @@
         <v>0</v>
       </c>
       <c r="BF161">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BG161">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH161">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BI161">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BJ161">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BK161">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,15 @@
     <t>['4', '18', '90+5']</t>
   </si>
   <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['66', '90']</t>
+  </si>
+  <si>
+    <t>['6', '10', '27']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,7 +1572,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1650,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1754,7 +1763,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1945,7 +1954,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2223,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2608,7 +2617,7 @@
         <v>1.75</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2709,7 +2718,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2799,7 +2808,7 @@
         <v>1.78</v>
       </c>
       <c r="AT9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3091,7 +3100,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3178,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT11">
         <v>1.13</v>
@@ -3664,7 +3673,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4428,7 +4437,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4515,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT18">
         <v>1.11</v>
@@ -4619,7 +4628,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -5001,7 +5010,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5091,7 +5100,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5574,7 +5583,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5852,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5956,7 +5965,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6237,7 +6246,7 @@
         <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU27">
         <v>1.58</v>
@@ -6338,7 +6347,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6428,7 +6437,7 @@
         <v>1.38</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6529,7 +6538,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6720,7 +6729,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6807,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT30">
         <v>0.88</v>
@@ -6911,7 +6920,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7102,7 +7111,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7293,7 +7302,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7380,10 +7389,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU33">
         <v>2.06</v>
@@ -7484,7 +7493,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7675,7 +7684,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8057,7 +8066,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8147,7 +8156,7 @@
         <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8526,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT39">
         <v>0.78</v>
@@ -8630,7 +8639,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9290,7 +9299,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9776,7 +9785,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10245,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT48">
         <v>0.75</v>
@@ -10439,7 +10448,7 @@
         <v>1.43</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10540,7 +10549,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10627,10 +10636,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT50">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU50">
         <v>1.97</v>
@@ -10821,7 +10830,7 @@
         <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU51">
         <v>2.07</v>
@@ -11012,7 +11021,7 @@
         <v>1.14</v>
       </c>
       <c r="AT52">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU52">
         <v>2.39</v>
@@ -11686,7 +11695,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11773,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT56">
         <v>1.13</v>
@@ -12068,7 +12077,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12259,7 +12268,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12450,7 +12459,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12540,7 +12549,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU60">
         <v>1.61</v>
@@ -12728,7 +12737,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT61">
         <v>0.86</v>
@@ -13304,7 +13313,7 @@
         <v>0.5</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU64">
         <v>1.86</v>
@@ -13686,7 +13695,7 @@
         <v>2.14</v>
       </c>
       <c r="AT66">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -14169,7 +14178,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14256,7 +14265,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT69">
         <v>1.63</v>
@@ -14829,7 +14838,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT72">
         <v>1.71</v>
@@ -15124,7 +15133,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15211,7 +15220,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT74">
         <v>1.13</v>
@@ -15596,7 +15605,7 @@
         <v>1.43</v>
       </c>
       <c r="AT76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU76">
         <v>1.71</v>
@@ -15888,7 +15897,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16270,7 +16279,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16461,7 +16470,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16652,7 +16661,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16742,7 +16751,7 @@
         <v>1.14</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU82">
         <v>2.25</v>
@@ -16843,7 +16852,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16933,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -17034,7 +17043,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17225,7 +17234,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17312,7 +17321,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT85">
         <v>0.86</v>
@@ -17416,7 +17425,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17607,7 +17616,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17697,7 +17706,7 @@
         <v>1.89</v>
       </c>
       <c r="AT87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17798,7 +17807,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17989,7 +17998,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18180,7 +18189,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18267,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT90">
         <v>0.88</v>
@@ -18371,7 +18380,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18562,7 +18571,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18652,7 +18661,7 @@
         <v>1.57</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU92">
         <v>1.55</v>
@@ -18753,7 +18762,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19031,7 +19040,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT94">
         <v>0.67</v>
@@ -19413,7 +19422,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT96">
         <v>0.71</v>
@@ -19517,7 +19526,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19899,7 +19908,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20090,7 +20099,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20281,7 +20290,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20371,7 +20380,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -20559,7 +20568,7 @@
         <v>1.6</v>
       </c>
       <c r="AS102">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT102">
         <v>1.71</v>
@@ -20941,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT104">
         <v>0.67</v>
@@ -21045,7 +21054,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21517,7 +21526,7 @@
         <v>1.56</v>
       </c>
       <c r="AT107">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU107">
         <v>1.35</v>
@@ -21705,7 +21714,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22281,7 +22290,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU111">
         <v>1.75</v>
@@ -22382,7 +22391,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22573,7 +22582,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22764,7 +22773,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22851,10 +22860,10 @@
         <v>0.67</v>
       </c>
       <c r="AS114">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT114">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU114">
         <v>2.08</v>
@@ -23146,7 +23155,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23337,7 +23346,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23528,7 +23537,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23615,7 +23624,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23719,7 +23728,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23910,7 +23919,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24101,7 +24110,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24191,7 +24200,7 @@
         <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU121">
         <v>1.93</v>
@@ -24570,10 +24579,10 @@
         <v>1.33</v>
       </c>
       <c r="AS123">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -25907,10 +25916,10 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT130">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU130">
         <v>1.68</v>
@@ -26292,7 +26301,7 @@
         <v>1.75</v>
       </c>
       <c r="AT132">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU132">
         <v>1.6</v>
@@ -26393,7 +26402,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26862,7 +26871,7 @@
         <v>0.86</v>
       </c>
       <c r="AS135">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT135">
         <v>0.78</v>
@@ -26966,7 +26975,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27157,7 +27166,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27730,7 +27739,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27921,7 +27930,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28112,7 +28121,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28393,7 +28402,7 @@
         <v>2.14</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU143">
         <v>1.94</v>
@@ -28494,7 +28503,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28772,10 +28781,10 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT145">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU145">
         <v>1.78</v>
@@ -28876,7 +28885,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29067,7 +29076,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29539,7 +29548,7 @@
         <v>1.56</v>
       </c>
       <c r="AT149">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU149">
         <v>1.45</v>
@@ -29727,7 +29736,7 @@
         <v>0.71</v>
       </c>
       <c r="AS150">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT150">
         <v>0.67</v>
@@ -29918,7 +29927,7 @@
         <v>1.29</v>
       </c>
       <c r="AS151">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT151">
         <v>1.11</v>
@@ -30977,7 +30986,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31553,13 +31562,13 @@
         <v>159</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R160">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S160">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T160">
         <v>2.8</v>
@@ -31676,22 +31685,22 @@
         <v>3.25</v>
       </c>
       <c r="BF160">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG160">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH160">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI160">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BJ160">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK160">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:63">
@@ -31744,13 +31753,13 @@
         <v>171</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R161">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S161">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T161">
         <v>2.6</v>
@@ -31867,22 +31876,786 @@
         <v>0</v>
       </c>
       <c r="BF161">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG161">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH161">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI161">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ161">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK161">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5557332</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45150.66666666666</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H162" t="s">
+        <v>84</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>191</v>
+      </c>
+      <c r="P162" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q162">
+        <v>4</v>
+      </c>
+      <c r="R162">
+        <v>4</v>
+      </c>
+      <c r="S162">
+        <v>8</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>1.83</v>
+      </c>
+      <c r="V162">
+        <v>4.33</v>
+      </c>
+      <c r="W162">
+        <v>1.5</v>
+      </c>
+      <c r="X162">
+        <v>2.4</v>
+      </c>
+      <c r="Y162">
+        <v>3.3</v>
+      </c>
+      <c r="Z162">
+        <v>1.28</v>
+      </c>
+      <c r="AA162">
+        <v>7.75</v>
+      </c>
+      <c r="AB162">
+        <v>1.05</v>
+      </c>
+      <c r="AC162">
+        <v>2.05</v>
+      </c>
+      <c r="AD162">
+        <v>3.1</v>
+      </c>
+      <c r="AE162">
+        <v>3.25</v>
+      </c>
+      <c r="AF162">
+        <v>1.08</v>
+      </c>
+      <c r="AG162">
+        <v>8.15</v>
+      </c>
+      <c r="AH162">
+        <v>1.5</v>
+      </c>
+      <c r="AI162">
+        <v>2.4</v>
+      </c>
+      <c r="AJ162">
+        <v>2.44</v>
+      </c>
+      <c r="AK162">
+        <v>1.49</v>
+      </c>
+      <c r="AL162">
+        <v>2</v>
+      </c>
+      <c r="AM162">
+        <v>1.75</v>
+      </c>
+      <c r="AN162">
+        <v>1.25</v>
+      </c>
+      <c r="AO162">
+        <v>1.32</v>
+      </c>
+      <c r="AP162">
+        <v>1.55</v>
+      </c>
+      <c r="AQ162">
+        <v>1.25</v>
+      </c>
+      <c r="AR162">
+        <v>1</v>
+      </c>
+      <c r="AS162">
+        <v>1.44</v>
+      </c>
+      <c r="AT162">
+        <v>0.89</v>
+      </c>
+      <c r="AU162">
+        <v>1.54</v>
+      </c>
+      <c r="AV162">
+        <v>1.36</v>
+      </c>
+      <c r="AW162">
+        <v>2.9</v>
+      </c>
+      <c r="AX162">
+        <v>1.75</v>
+      </c>
+      <c r="AY162">
+        <v>7.5</v>
+      </c>
+      <c r="AZ162">
+        <v>2.5</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>1.5</v>
+      </c>
+      <c r="BC162">
+        <v>1.8</v>
+      </c>
+      <c r="BD162">
+        <v>2.25</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>4</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>12</v>
+      </c>
+      <c r="BI162">
+        <v>6</v>
+      </c>
+      <c r="BJ162">
+        <v>16</v>
+      </c>
+      <c r="BK162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5557327</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45150.66666666666</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>192</v>
+      </c>
+      <c r="P163" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q163">
+        <v>7</v>
+      </c>
+      <c r="R163">
+        <v>3</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>3.1</v>
+      </c>
+      <c r="U163">
+        <v>1.83</v>
+      </c>
+      <c r="V163">
+        <v>4.33</v>
+      </c>
+      <c r="W163">
+        <v>1.59</v>
+      </c>
+      <c r="X163">
+        <v>2.22</v>
+      </c>
+      <c r="Y163">
+        <v>3.84</v>
+      </c>
+      <c r="Z163">
+        <v>1.22</v>
+      </c>
+      <c r="AA163">
+        <v>11</v>
+      </c>
+      <c r="AB163">
+        <v>1.01</v>
+      </c>
+      <c r="AC163">
+        <v>2.19</v>
+      </c>
+      <c r="AD163">
+        <v>3.1</v>
+      </c>
+      <c r="AE163">
+        <v>3.35</v>
+      </c>
+      <c r="AF163">
+        <v>1.09</v>
+      </c>
+      <c r="AG163">
+        <v>5.8</v>
+      </c>
+      <c r="AH163">
+        <v>1.5</v>
+      </c>
+      <c r="AI163">
+        <v>2.4</v>
+      </c>
+      <c r="AJ163">
+        <v>2.47</v>
+      </c>
+      <c r="AK163">
+        <v>1.44</v>
+      </c>
+      <c r="AL163">
+        <v>2.19</v>
+      </c>
+      <c r="AM163">
+        <v>1.64</v>
+      </c>
+      <c r="AN163">
+        <v>1.29</v>
+      </c>
+      <c r="AO163">
+        <v>1.35</v>
+      </c>
+      <c r="AP163">
+        <v>1.55</v>
+      </c>
+      <c r="AQ163">
+        <v>1.71</v>
+      </c>
+      <c r="AR163">
+        <v>2</v>
+      </c>
+      <c r="AS163">
+        <v>1.88</v>
+      </c>
+      <c r="AT163">
+        <v>1.78</v>
+      </c>
+      <c r="AU163">
+        <v>1.94</v>
+      </c>
+      <c r="AV163">
+        <v>1.31</v>
+      </c>
+      <c r="AW163">
+        <v>3.25</v>
+      </c>
+      <c r="AX163">
+        <v>1.33</v>
+      </c>
+      <c r="AY163">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ163">
+        <v>3.78</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>1.54</v>
+      </c>
+      <c r="BC163">
+        <v>1.93</v>
+      </c>
+      <c r="BD163">
+        <v>2.42</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>6</v>
+      </c>
+      <c r="BG163">
+        <v>3</v>
+      </c>
+      <c r="BH163">
+        <v>11</v>
+      </c>
+      <c r="BI163">
+        <v>2</v>
+      </c>
+      <c r="BJ163">
+        <v>17</v>
+      </c>
+      <c r="BK163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5557334</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45150.79166666666</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>69</v>
+      </c>
+      <c r="H164" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>3</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>193</v>
+      </c>
+      <c r="P164" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q164">
+        <v>3</v>
+      </c>
+      <c r="R164">
+        <v>9</v>
+      </c>
+      <c r="S164">
+        <v>12</v>
+      </c>
+      <c r="T164">
+        <v>2.1</v>
+      </c>
+      <c r="U164">
+        <v>1.95</v>
+      </c>
+      <c r="V164">
+        <v>8</v>
+      </c>
+      <c r="W164">
+        <v>1.52</v>
+      </c>
+      <c r="X164">
+        <v>2.35</v>
+      </c>
+      <c r="Y164">
+        <v>3.4</v>
+      </c>
+      <c r="Z164">
+        <v>1.27</v>
+      </c>
+      <c r="AA164">
+        <v>8.25</v>
+      </c>
+      <c r="AB164">
+        <v>1.04</v>
+      </c>
+      <c r="AC164">
+        <v>1.3</v>
+      </c>
+      <c r="AD164">
+        <v>4.33</v>
+      </c>
+      <c r="AE164">
+        <v>9.5</v>
+      </c>
+      <c r="AF164">
+        <v>1.08</v>
+      </c>
+      <c r="AG164">
+        <v>7.7</v>
+      </c>
+      <c r="AH164">
+        <v>1.47</v>
+      </c>
+      <c r="AI164">
+        <v>2.55</v>
+      </c>
+      <c r="AJ164">
+        <v>2.3</v>
+      </c>
+      <c r="AK164">
+        <v>1.55</v>
+      </c>
+      <c r="AL164">
+        <v>2.55</v>
+      </c>
+      <c r="AM164">
+        <v>1.45</v>
+      </c>
+      <c r="AN164">
+        <v>1.08</v>
+      </c>
+      <c r="AO164">
+        <v>1.2</v>
+      </c>
+      <c r="AP164">
+        <v>2.25</v>
+      </c>
+      <c r="AQ164">
+        <v>1.75</v>
+      </c>
+      <c r="AR164">
+        <v>0.63</v>
+      </c>
+      <c r="AS164">
+        <v>1.89</v>
+      </c>
+      <c r="AT164">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU164">
+        <v>1.69</v>
+      </c>
+      <c r="AV164">
+        <v>1.35</v>
+      </c>
+      <c r="AW164">
+        <v>3.04</v>
+      </c>
+      <c r="AX164">
+        <v>1.3</v>
+      </c>
+      <c r="AY164">
+        <v>10.25</v>
+      </c>
+      <c r="AZ164">
+        <v>3.98</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>1.44</v>
+      </c>
+      <c r="BC164">
+        <v>1.76</v>
+      </c>
+      <c r="BD164">
+        <v>2.11</v>
+      </c>
+      <c r="BE164">
+        <v>2.3</v>
+      </c>
+      <c r="BF164">
+        <v>7</v>
+      </c>
+      <c r="BG164">
+        <v>4</v>
+      </c>
+      <c r="BH164">
+        <v>11</v>
+      </c>
+      <c r="BI164">
+        <v>7</v>
+      </c>
+      <c r="BJ164">
+        <v>18</v>
+      </c>
+      <c r="BK164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5557329</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45150.79166666666</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>66</v>
+      </c>
+      <c r="H165" t="s">
+        <v>80</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>191</v>
+      </c>
+      <c r="P165" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q165">
+        <v>4</v>
+      </c>
+      <c r="R165">
+        <v>4</v>
+      </c>
+      <c r="S165">
+        <v>8</v>
+      </c>
+      <c r="T165">
+        <v>2.88</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
+        <v>4</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+      <c r="AC165">
+        <v>2.05</v>
+      </c>
+      <c r="AD165">
+        <v>3.1</v>
+      </c>
+      <c r="AE165">
+        <v>3.5</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+      <c r="AH165">
+        <v>0</v>
+      </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>2.35</v>
+      </c>
+      <c r="AK165">
+        <v>1.53</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>0</v>
+      </c>
+      <c r="AO165">
+        <v>0</v>
+      </c>
+      <c r="AP165">
+        <v>0</v>
+      </c>
+      <c r="AQ165">
+        <v>2.38</v>
+      </c>
+      <c r="AR165">
+        <v>1.14</v>
+      </c>
+      <c r="AS165">
+        <v>2.22</v>
+      </c>
+      <c r="AT165">
+        <v>1.13</v>
+      </c>
+      <c r="AU165">
+        <v>1.86</v>
+      </c>
+      <c r="AV165">
+        <v>1.34</v>
+      </c>
+      <c r="AW165">
+        <v>3.2</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>6</v>
+      </c>
+      <c r="BG165">
+        <v>5</v>
+      </c>
+      <c r="BH165">
+        <v>8</v>
+      </c>
+      <c r="BI165">
+        <v>4</v>
+      </c>
+      <c r="BJ165">
+        <v>14</v>
+      </c>
+      <c r="BK165">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,15 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['36', '64', '79', '90+4']</t>
+  </si>
+  <si>
+    <t>['27', '40', '74']</t>
+  </si>
+  <si>
+    <t>['57', '87']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -776,6 +785,12 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['11', '23']</t>
+  </si>
+  <si>
+    <t>['22', '57', '72']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.67</v>
@@ -1662,7 +1677,7 @@
         <v>2.22</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1763,7 +1778,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1850,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1954,7 +1969,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2041,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
         <v>0.71</v>
@@ -2423,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2614,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
         <v>0.89</v>
@@ -2718,7 +2733,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2999,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3100,7 +3115,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3190,7 +3205,7 @@
         <v>1.88</v>
       </c>
       <c r="AT11">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3673,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4437,7 +4452,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4628,7 +4643,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4718,7 +4733,7 @@
         <v>1.38</v>
       </c>
       <c r="AT19">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5010,7 +5025,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5482,7 +5497,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU23">
         <v>2.03</v>
@@ -5583,7 +5598,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5864,7 +5879,7 @@
         <v>1.44</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU25">
         <v>2.16</v>
@@ -5965,7 +5980,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6052,10 +6067,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT26">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU26">
         <v>2.95</v>
@@ -6243,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>0.5600000000000001</v>
@@ -6347,7 +6362,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6538,7 +6553,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6729,7 +6744,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6920,7 +6935,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7111,7 +7126,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7302,7 +7317,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7493,7 +7508,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7684,7 +7699,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7774,7 +7789,7 @@
         <v>1.78</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU35">
         <v>1.34</v>
@@ -7962,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT36">
         <v>1.63</v>
@@ -8066,7 +8081,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8344,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT38">
         <v>0.67</v>
@@ -8639,7 +8654,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8917,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9681,7 +9696,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
         <v>1.11</v>
@@ -9785,7 +9800,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9875,7 +9890,7 @@
         <v>1.56</v>
       </c>
       <c r="AT46">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU46">
         <v>1.28</v>
@@ -10066,7 +10081,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU47">
         <v>1.87</v>
@@ -10549,7 +10564,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11018,7 +11033,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
         <v>1.13</v>
@@ -11209,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
         <v>0.88</v>
@@ -11594,7 +11609,7 @@
         <v>0.5</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU55">
         <v>1.9</v>
@@ -11695,7 +11710,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11785,7 +11800,7 @@
         <v>1.89</v>
       </c>
       <c r="AT56">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11973,7 +11988,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12077,7 +12092,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12268,7 +12283,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12459,7 +12474,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12740,7 +12755,7 @@
         <v>1.88</v>
       </c>
       <c r="AT61">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU61">
         <v>1.81</v>
@@ -13122,7 +13137,7 @@
         <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13692,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>0.5600000000000001</v>
@@ -14178,7 +14193,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14456,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
         <v>0.67</v>
@@ -14841,7 +14856,7 @@
         <v>2.22</v>
       </c>
       <c r="AT72">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU72">
         <v>1.45</v>
@@ -15133,7 +15148,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15223,7 +15238,7 @@
         <v>1.44</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15984,7 +15999,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT78">
         <v>1.63</v>
@@ -16175,7 +16190,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT79">
         <v>1.11</v>
@@ -16279,7 +16294,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16369,7 +16384,7 @@
         <v>1.56</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU80">
         <v>1.45</v>
@@ -16470,7 +16485,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16560,7 +16575,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -16661,7 +16676,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16748,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT82">
         <v>0.89</v>
@@ -16852,7 +16867,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17043,7 +17058,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17133,7 +17148,7 @@
         <v>0.5</v>
       </c>
       <c r="AT84">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU84">
         <v>1.81</v>
@@ -17234,7 +17249,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17324,7 +17339,7 @@
         <v>1.89</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17425,7 +17440,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17512,7 +17527,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17616,7 +17631,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17807,7 +17822,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17894,7 +17909,7 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT88">
         <v>0.67</v>
@@ -17998,7 +18013,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18088,7 +18103,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU89">
         <v>1.49</v>
@@ -18189,7 +18204,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18380,7 +18395,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18467,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -18571,7 +18586,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18658,7 +18673,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
         <v>0.89</v>
@@ -18762,7 +18777,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18852,7 +18867,7 @@
         <v>1.38</v>
       </c>
       <c r="AT93">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19234,7 +19249,7 @@
         <v>1</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU95">
         <v>1.84</v>
@@ -19526,7 +19541,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19613,7 +19628,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>1.11</v>
@@ -19908,7 +19923,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20099,7 +20114,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20186,7 +20201,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
         <v>0.78</v>
@@ -20290,7 +20305,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20571,7 +20586,7 @@
         <v>1.88</v>
       </c>
       <c r="AT102">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU102">
         <v>1.93</v>
@@ -21054,7 +21069,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21141,7 +21156,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT105">
         <v>1.63</v>
@@ -21335,7 +21350,7 @@
         <v>1.63</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU106">
         <v>1.66</v>
@@ -21908,7 +21923,7 @@
         <v>1.43</v>
       </c>
       <c r="AT109">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU109">
         <v>1.89</v>
@@ -22096,7 +22111,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>0.78</v>
@@ -22391,7 +22406,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22582,7 +22597,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22773,7 +22788,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23155,7 +23170,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23242,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="AS116">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT116">
         <v>0.67</v>
@@ -23346,7 +23361,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23537,7 +23552,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23728,7 +23743,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23818,7 +23833,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -23919,7 +23934,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24110,7 +24125,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24388,7 +24403,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT122">
         <v>1.11</v>
@@ -24773,7 +24788,7 @@
         <v>2</v>
       </c>
       <c r="AT124">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU124">
         <v>1.86</v>
@@ -25152,7 +25167,7 @@
         <v>1.14</v>
       </c>
       <c r="AS126">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25728,7 +25743,7 @@
         <v>1.89</v>
       </c>
       <c r="AT129">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU129">
         <v>1.67</v>
@@ -26107,10 +26122,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT131">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU131">
         <v>1.26</v>
@@ -26402,7 +26417,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26975,7 +26990,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27065,7 +27080,7 @@
         <v>1</v>
       </c>
       <c r="AT136">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU136">
         <v>1.77</v>
@@ -27166,7 +27181,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27253,7 +27268,7 @@
         <v>1.67</v>
       </c>
       <c r="AS137">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT137">
         <v>1.63</v>
@@ -27447,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU138">
         <v>1.8</v>
@@ -27635,7 +27650,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -27739,7 +27754,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27826,7 +27841,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT140">
         <v>0.88</v>
@@ -27930,7 +27945,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28020,7 +28035,7 @@
         <v>1.43</v>
       </c>
       <c r="AT141">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU141">
         <v>1.84</v>
@@ -28121,7 +28136,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28211,7 +28226,7 @@
         <v>2.33</v>
       </c>
       <c r="AT142">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU142">
         <v>1.98</v>
@@ -28399,7 +28414,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <v>0.89</v>
@@ -28503,7 +28518,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28885,7 +28900,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -28972,7 +28987,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT146">
         <v>0.75</v>
@@ -29076,7 +29091,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29163,10 +29178,10 @@
         <v>1.14</v>
       </c>
       <c r="AS147">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT147">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU147">
         <v>1.85</v>
@@ -30986,7 +31001,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -32514,7 +32529,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32656,6 +32671,961 @@
       </c>
       <c r="BK165">
         <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5557333</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45151.66666666666</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>67</v>
+      </c>
+      <c r="H166" t="s">
+        <v>82</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>109</v>
+      </c>
+      <c r="P166" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>5</v>
+      </c>
+      <c r="S166">
+        <v>7</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>1.91</v>
+      </c>
+      <c r="V166">
+        <v>3.75</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>2.4</v>
+      </c>
+      <c r="Y166">
+        <v>3.25</v>
+      </c>
+      <c r="Z166">
+        <v>1.3</v>
+      </c>
+      <c r="AA166">
+        <v>7.5</v>
+      </c>
+      <c r="AB166">
+        <v>1.05</v>
+      </c>
+      <c r="AC166">
+        <v>2.5</v>
+      </c>
+      <c r="AD166">
+        <v>2.85</v>
+      </c>
+      <c r="AE166">
+        <v>2.85</v>
+      </c>
+      <c r="AF166">
+        <v>1.08</v>
+      </c>
+      <c r="AG166">
+        <v>8.25</v>
+      </c>
+      <c r="AH166">
+        <v>1.5</v>
+      </c>
+      <c r="AI166">
+        <v>2.45</v>
+      </c>
+      <c r="AJ166">
+        <v>2.28</v>
+      </c>
+      <c r="AK166">
+        <v>1.51</v>
+      </c>
+      <c r="AL166">
+        <v>1.9</v>
+      </c>
+      <c r="AM166">
+        <v>1.8</v>
+      </c>
+      <c r="AN166">
+        <v>1.35</v>
+      </c>
+      <c r="AO166">
+        <v>1.32</v>
+      </c>
+      <c r="AP166">
+        <v>1.42</v>
+      </c>
+      <c r="AQ166">
+        <v>1.57</v>
+      </c>
+      <c r="AR166">
+        <v>1.13</v>
+      </c>
+      <c r="AS166">
+        <v>1.5</v>
+      </c>
+      <c r="AT166">
+        <v>1.11</v>
+      </c>
+      <c r="AU166">
+        <v>1.62</v>
+      </c>
+      <c r="AV166">
+        <v>1.33</v>
+      </c>
+      <c r="AW166">
+        <v>2.95</v>
+      </c>
+      <c r="AX166">
+        <v>1.69</v>
+      </c>
+      <c r="AY166">
+        <v>7.5</v>
+      </c>
+      <c r="AZ166">
+        <v>2.55</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>1.64</v>
+      </c>
+      <c r="BD166">
+        <v>2.01</v>
+      </c>
+      <c r="BE166">
+        <v>2.6</v>
+      </c>
+      <c r="BF166">
+        <v>6</v>
+      </c>
+      <c r="BG166">
+        <v>5</v>
+      </c>
+      <c r="BH166">
+        <v>4</v>
+      </c>
+      <c r="BI166">
+        <v>5</v>
+      </c>
+      <c r="BJ166">
+        <v>10</v>
+      </c>
+      <c r="BK166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5557330</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45151.66666666666</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167" t="s">
+        <v>72</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>194</v>
+      </c>
+      <c r="P167" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q167">
+        <v>8</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+      <c r="S167">
+        <v>11</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
+        <v>1.91</v>
+      </c>
+      <c r="V167">
+        <v>4.5</v>
+      </c>
+      <c r="W167">
+        <v>1.54</v>
+      </c>
+      <c r="X167">
+        <v>2.32</v>
+      </c>
+      <c r="Y167">
+        <v>3.56</v>
+      </c>
+      <c r="Z167">
+        <v>1.25</v>
+      </c>
+      <c r="AA167">
+        <v>9.6</v>
+      </c>
+      <c r="AB167">
+        <v>1.02</v>
+      </c>
+      <c r="AC167">
+        <v>1.88</v>
+      </c>
+      <c r="AD167">
+        <v>2.99</v>
+      </c>
+      <c r="AE167">
+        <v>3.95</v>
+      </c>
+      <c r="AF167">
+        <v>1.07</v>
+      </c>
+      <c r="AG167">
+        <v>6.4</v>
+      </c>
+      <c r="AH167">
+        <v>1.53</v>
+      </c>
+      <c r="AI167">
+        <v>2.25</v>
+      </c>
+      <c r="AJ167">
+        <v>2.31</v>
+      </c>
+      <c r="AK167">
+        <v>1.54</v>
+      </c>
+      <c r="AL167">
+        <v>2.11</v>
+      </c>
+      <c r="AM167">
+        <v>1.62</v>
+      </c>
+      <c r="AN167">
+        <v>1.25</v>
+      </c>
+      <c r="AO167">
+        <v>1.32</v>
+      </c>
+      <c r="AP167">
+        <v>1.55</v>
+      </c>
+      <c r="AQ167">
+        <v>1.75</v>
+      </c>
+      <c r="AR167">
+        <v>1.71</v>
+      </c>
+      <c r="AS167">
+        <v>1.67</v>
+      </c>
+      <c r="AT167">
+        <v>1.63</v>
+      </c>
+      <c r="AU167">
+        <v>1.89</v>
+      </c>
+      <c r="AV167">
+        <v>1.56</v>
+      </c>
+      <c r="AW167">
+        <v>3.45</v>
+      </c>
+      <c r="AX167">
+        <v>1.63</v>
+      </c>
+      <c r="AY167">
+        <v>8.5</v>
+      </c>
+      <c r="AZ167">
+        <v>2.59</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>1.6</v>
+      </c>
+      <c r="BD167">
+        <v>1.95</v>
+      </c>
+      <c r="BE167">
+        <v>2.43</v>
+      </c>
+      <c r="BF167">
+        <v>6</v>
+      </c>
+      <c r="BG167">
+        <v>3</v>
+      </c>
+      <c r="BH167">
+        <v>15</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>21</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5557326</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45151.66666666666</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" t="s">
+        <v>77</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>6</v>
+      </c>
+      <c r="O168" t="s">
+        <v>195</v>
+      </c>
+      <c r="P168" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q168">
+        <v>6</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>7</v>
+      </c>
+      <c r="T168">
+        <v>3</v>
+      </c>
+      <c r="U168">
+        <v>1.83</v>
+      </c>
+      <c r="V168">
+        <v>4.33</v>
+      </c>
+      <c r="W168">
+        <v>1.52</v>
+      </c>
+      <c r="X168">
+        <v>2.4</v>
+      </c>
+      <c r="Y168">
+        <v>3.3</v>
+      </c>
+      <c r="Z168">
+        <v>1.28</v>
+      </c>
+      <c r="AA168">
+        <v>7.75</v>
+      </c>
+      <c r="AB168">
+        <v>1.05</v>
+      </c>
+      <c r="AC168">
+        <v>2.1</v>
+      </c>
+      <c r="AD168">
+        <v>2.99</v>
+      </c>
+      <c r="AE168">
+        <v>3.3</v>
+      </c>
+      <c r="AF168">
+        <v>1.09</v>
+      </c>
+      <c r="AG168">
+        <v>7.7</v>
+      </c>
+      <c r="AH168">
+        <v>1.44</v>
+      </c>
+      <c r="AI168">
+        <v>2.4</v>
+      </c>
+      <c r="AJ168">
+        <v>2.41</v>
+      </c>
+      <c r="AK168">
+        <v>1.5</v>
+      </c>
+      <c r="AL168">
+        <v>2</v>
+      </c>
+      <c r="AM168">
+        <v>1.75</v>
+      </c>
+      <c r="AN168">
+        <v>1.25</v>
+      </c>
+      <c r="AO168">
+        <v>1.35</v>
+      </c>
+      <c r="AP168">
+        <v>1.52</v>
+      </c>
+      <c r="AQ168">
+        <v>2.13</v>
+      </c>
+      <c r="AR168">
+        <v>1</v>
+      </c>
+      <c r="AS168">
+        <v>2.22</v>
+      </c>
+      <c r="AT168">
+        <v>0.88</v>
+      </c>
+      <c r="AU168">
+        <v>1.23</v>
+      </c>
+      <c r="AV168">
+        <v>1.48</v>
+      </c>
+      <c r="AW168">
+        <v>2.71</v>
+      </c>
+      <c r="AX168">
+        <v>1.7</v>
+      </c>
+      <c r="AY168">
+        <v>7.4</v>
+      </c>
+      <c r="AZ168">
+        <v>2.54</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>1.4</v>
+      </c>
+      <c r="BC168">
+        <v>1.67</v>
+      </c>
+      <c r="BD168">
+        <v>2.05</v>
+      </c>
+      <c r="BE168">
+        <v>2.67</v>
+      </c>
+      <c r="BF168">
+        <v>9</v>
+      </c>
+      <c r="BG168">
+        <v>5</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>5</v>
+      </c>
+      <c r="BJ168">
+        <v>13</v>
+      </c>
+      <c r="BK168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5557325</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45151.79166666666</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>65</v>
+      </c>
+      <c r="H169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>6</v>
+      </c>
+      <c r="O169" t="s">
+        <v>196</v>
+      </c>
+      <c r="P169" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>4</v>
+      </c>
+      <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>1.91</v>
+      </c>
+      <c r="V169">
+        <v>4.33</v>
+      </c>
+      <c r="W169">
+        <v>1.57</v>
+      </c>
+      <c r="X169">
+        <v>2.26</v>
+      </c>
+      <c r="Y169">
+        <v>3.74</v>
+      </c>
+      <c r="Z169">
+        <v>1.23</v>
+      </c>
+      <c r="AA169">
+        <v>11</v>
+      </c>
+      <c r="AB169">
+        <v>1.04</v>
+      </c>
+      <c r="AC169">
+        <v>2.16</v>
+      </c>
+      <c r="AD169">
+        <v>3</v>
+      </c>
+      <c r="AE169">
+        <v>3.5</v>
+      </c>
+      <c r="AF169">
+        <v>1.08</v>
+      </c>
+      <c r="AG169">
+        <v>6</v>
+      </c>
+      <c r="AH169">
+        <v>1.5</v>
+      </c>
+      <c r="AI169">
+        <v>2.45</v>
+      </c>
+      <c r="AJ169">
+        <v>2.5</v>
+      </c>
+      <c r="AK169">
+        <v>1.48</v>
+      </c>
+      <c r="AL169">
+        <v>2.21</v>
+      </c>
+      <c r="AM169">
+        <v>1.56</v>
+      </c>
+      <c r="AN169">
+        <v>1.21</v>
+      </c>
+      <c r="AO169">
+        <v>1.33</v>
+      </c>
+      <c r="AP169">
+        <v>1.71</v>
+      </c>
+      <c r="AQ169">
+        <v>2.14</v>
+      </c>
+      <c r="AR169">
+        <v>0.86</v>
+      </c>
+      <c r="AS169">
+        <v>2</v>
+      </c>
+      <c r="AT169">
+        <v>0.88</v>
+      </c>
+      <c r="AU169">
+        <v>1.83</v>
+      </c>
+      <c r="AV169">
+        <v>1.12</v>
+      </c>
+      <c r="AW169">
+        <v>2.95</v>
+      </c>
+      <c r="AX169">
+        <v>1.55</v>
+      </c>
+      <c r="AY169">
+        <v>8.6</v>
+      </c>
+      <c r="AZ169">
+        <v>2.81</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>1.56</v>
+      </c>
+      <c r="BD169">
+        <v>1.93</v>
+      </c>
+      <c r="BE169">
+        <v>2.48</v>
+      </c>
+      <c r="BF169">
+        <v>7</v>
+      </c>
+      <c r="BG169">
+        <v>4</v>
+      </c>
+      <c r="BH169">
+        <v>5</v>
+      </c>
+      <c r="BI169">
+        <v>8</v>
+      </c>
+      <c r="BJ169">
+        <v>12</v>
+      </c>
+      <c r="BK169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5557328</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45151.79166666666</v>
+      </c>
+      <c r="F170">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>68</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>197</v>
+      </c>
+      <c r="P170" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q170">
+        <v>5</v>
+      </c>
+      <c r="R170">
+        <v>8</v>
+      </c>
+      <c r="S170">
+        <v>13</v>
+      </c>
+      <c r="T170">
+        <v>2.4</v>
+      </c>
+      <c r="U170">
+        <v>1.91</v>
+      </c>
+      <c r="V170">
+        <v>6</v>
+      </c>
+      <c r="W170">
+        <v>1.55</v>
+      </c>
+      <c r="X170">
+        <v>2.3</v>
+      </c>
+      <c r="Y170">
+        <v>3.65</v>
+      </c>
+      <c r="Z170">
+        <v>1.24</v>
+      </c>
+      <c r="AA170">
+        <v>10</v>
+      </c>
+      <c r="AB170">
+        <v>1.02</v>
+      </c>
+      <c r="AC170">
+        <v>1.65</v>
+      </c>
+      <c r="AD170">
+        <v>3.2</v>
+      </c>
+      <c r="AE170">
+        <v>6.2</v>
+      </c>
+      <c r="AF170">
+        <v>1.07</v>
+      </c>
+      <c r="AG170">
+        <v>6.25</v>
+      </c>
+      <c r="AH170">
+        <v>1.5</v>
+      </c>
+      <c r="AI170">
+        <v>2.45</v>
+      </c>
+      <c r="AJ170">
+        <v>2.45</v>
+      </c>
+      <c r="AK170">
+        <v>1.5</v>
+      </c>
+      <c r="AL170">
+        <v>2.35</v>
+      </c>
+      <c r="AM170">
+        <v>1.5</v>
+      </c>
+      <c r="AN170">
+        <v>1.12</v>
+      </c>
+      <c r="AO170">
+        <v>1.27</v>
+      </c>
+      <c r="AP170">
+        <v>1.9</v>
+      </c>
+      <c r="AQ170">
+        <v>1.14</v>
+      </c>
+      <c r="AR170">
+        <v>1</v>
+      </c>
+      <c r="AS170">
+        <v>1.38</v>
+      </c>
+      <c r="AT170">
+        <v>0.89</v>
+      </c>
+      <c r="AU170">
+        <v>2.07</v>
+      </c>
+      <c r="AV170">
+        <v>1.38</v>
+      </c>
+      <c r="AW170">
+        <v>3.45</v>
+      </c>
+      <c r="AX170">
+        <v>1.45</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>3.5</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>1.4</v>
+      </c>
+      <c r="BC170">
+        <v>1.55</v>
+      </c>
+      <c r="BD170">
+        <v>1.85</v>
+      </c>
+      <c r="BE170">
+        <v>2.25</v>
+      </c>
+      <c r="BF170">
+        <v>8</v>
+      </c>
+      <c r="BG170">
+        <v>7</v>
+      </c>
+      <c r="BH170">
+        <v>7</v>
+      </c>
+      <c r="BI170">
+        <v>8</v>
+      </c>
+      <c r="BJ170">
+        <v>15</v>
+      </c>
+      <c r="BK170">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,9 @@
     <t>['57', '87']</t>
   </si>
   <si>
+    <t>['65', '76']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -1152,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1778,7 +1781,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1969,7 +1972,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2059,7 +2062,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2733,7 +2736,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -3115,7 +3118,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3584,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT13">
         <v>0.88</v>
@@ -3688,7 +3691,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4452,7 +4455,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4643,7 +4646,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -5025,7 +5028,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5598,7 +5601,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5980,7 +5983,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6362,7 +6365,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6553,7 +6556,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6640,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6744,7 +6747,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6935,7 +6938,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7126,7 +7129,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7216,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU32">
         <v>1.81</v>
@@ -7317,7 +7320,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7508,7 +7511,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7699,7 +7702,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8081,7 +8084,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8654,7 +8657,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9800,7 +9803,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10460,7 +10463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT49">
         <v>1.78</v>
@@ -10564,7 +10567,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11710,7 +11713,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -12092,7 +12095,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12283,7 +12286,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12474,7 +12477,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -14089,7 +14092,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT68">
         <v>1.11</v>
@@ -14193,7 +14196,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14665,7 +14668,7 @@
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -15148,7 +15151,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15617,7 +15620,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT76">
         <v>0.5600000000000001</v>
@@ -16294,7 +16297,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16485,7 +16488,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16676,7 +16679,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16867,7 +16870,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17058,7 +17061,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17249,7 +17252,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17440,7 +17443,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17631,7 +17634,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17822,7 +17825,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -18013,7 +18016,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18204,7 +18207,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18395,7 +18398,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18586,7 +18589,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18777,7 +18780,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19440,7 +19443,7 @@
         <v>2.22</v>
       </c>
       <c r="AT96">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19541,7 +19544,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19923,7 +19926,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20114,7 +20117,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20305,7 +20308,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20777,7 +20780,7 @@
         <v>1.75</v>
       </c>
       <c r="AT103">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU103">
         <v>1.62</v>
@@ -21069,7 +21072,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21920,7 +21923,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT109">
         <v>1.11</v>
@@ -22406,7 +22409,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22597,7 +22600,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22788,7 +22791,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23170,7 +23173,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23361,7 +23364,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23552,7 +23555,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23743,7 +23746,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23934,7 +23937,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24125,7 +24128,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -26417,7 +26420,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26698,7 +26701,7 @@
         <v>1.63</v>
       </c>
       <c r="AT134">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU134">
         <v>1.81</v>
@@ -26990,7 +26993,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27181,7 +27184,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27754,7 +27757,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27945,7 +27948,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28032,7 +28035,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT141">
         <v>0.88</v>
@@ -28136,7 +28139,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28518,7 +28521,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28608,7 +28611,7 @@
         <v>1.38</v>
       </c>
       <c r="AT144">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU144">
         <v>1.84</v>
@@ -28900,7 +28903,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29091,7 +29094,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -31001,7 +31004,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -32529,7 +32532,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33102,7 +33105,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33293,7 +33296,7 @@
         <v>196</v>
       </c>
       <c r="P169" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33626,6 +33629,197 @@
       </c>
       <c r="BK170">
         <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5557331</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45152.83333333334</v>
+      </c>
+      <c r="F171">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>79</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>198</v>
+      </c>
+      <c r="P171" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q171">
+        <v>9</v>
+      </c>
+      <c r="R171">
+        <v>4</v>
+      </c>
+      <c r="S171">
+        <v>13</v>
+      </c>
+      <c r="T171">
+        <v>3.5</v>
+      </c>
+      <c r="U171">
+        <v>1.8</v>
+      </c>
+      <c r="V171">
+        <v>3.6</v>
+      </c>
+      <c r="W171">
+        <v>1.55</v>
+      </c>
+      <c r="X171">
+        <v>2.25</v>
+      </c>
+      <c r="Y171">
+        <v>3.5</v>
+      </c>
+      <c r="Z171">
+        <v>1.25</v>
+      </c>
+      <c r="AA171">
+        <v>8.25</v>
+      </c>
+      <c r="AB171">
+        <v>1.04</v>
+      </c>
+      <c r="AC171">
+        <v>2.45</v>
+      </c>
+      <c r="AD171">
+        <v>2.85</v>
+      </c>
+      <c r="AE171">
+        <v>2.95</v>
+      </c>
+      <c r="AF171">
+        <v>1.1</v>
+      </c>
+      <c r="AG171">
+        <v>7.2</v>
+      </c>
+      <c r="AH171">
+        <v>1.48</v>
+      </c>
+      <c r="AI171">
+        <v>2.47</v>
+      </c>
+      <c r="AJ171">
+        <v>2.59</v>
+      </c>
+      <c r="AK171">
+        <v>1.44</v>
+      </c>
+      <c r="AL171">
+        <v>2.05</v>
+      </c>
+      <c r="AM171">
+        <v>1.68</v>
+      </c>
+      <c r="AN171">
+        <v>1.42</v>
+      </c>
+      <c r="AO171">
+        <v>1.32</v>
+      </c>
+      <c r="AP171">
+        <v>1.42</v>
+      </c>
+      <c r="AQ171">
+        <v>1.43</v>
+      </c>
+      <c r="AR171">
+        <v>0.71</v>
+      </c>
+      <c r="AS171">
+        <v>1.63</v>
+      </c>
+      <c r="AT171">
+        <v>0.63</v>
+      </c>
+      <c r="AU171">
+        <v>1.9</v>
+      </c>
+      <c r="AV171">
+        <v>1.32</v>
+      </c>
+      <c r="AW171">
+        <v>3.22</v>
+      </c>
+      <c r="AX171">
+        <v>1.65</v>
+      </c>
+      <c r="AY171">
+        <v>8.6</v>
+      </c>
+      <c r="AZ171">
+        <v>2.53</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>1.52</v>
+      </c>
+      <c r="BC171">
+        <v>2</v>
+      </c>
+      <c r="BD171">
+        <v>2.32</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>5</v>
+      </c>
+      <c r="BG171">
+        <v>7</v>
+      </c>
+      <c r="BH171">
+        <v>2</v>
+      </c>
+      <c r="BI171">
+        <v>5</v>
+      </c>
+      <c r="BJ171">
+        <v>7</v>
+      </c>
+      <c r="BK171">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,18 @@
     <t>['65', '76']</t>
   </si>
   <si>
+    <t>['42', '70']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['56', '69']</t>
+  </si>
+  <si>
+    <t>['14', '86']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -794,6 +806,18 @@
   </si>
   <si>
     <t>['22', '57', '72']</t>
+  </si>
+  <si>
+    <t>['26', '51']</t>
+  </si>
+  <si>
+    <t>['27', '51', '76']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1677,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT3">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1781,7 +1805,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1868,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1972,7 +1996,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2250,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2441,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2632,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT8">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2736,7 +2760,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2823,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT9">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3014,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT10">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3118,7 +3142,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3208,7 +3232,7 @@
         <v>1.88</v>
       </c>
       <c r="AT11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3691,7 +3715,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4455,7 +4479,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4646,7 +4670,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -5028,7 +5052,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5500,7 +5524,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU23">
         <v>2.03</v>
@@ -5601,7 +5625,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5882,7 +5906,7 @@
         <v>1.44</v>
       </c>
       <c r="AT25">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU25">
         <v>2.16</v>
@@ -5983,7 +6007,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6261,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT27">
         <v>0.5600000000000001</v>
@@ -6365,7 +6389,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6455,7 +6479,7 @@
         <v>1.38</v>
       </c>
       <c r="AT28">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6556,7 +6580,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6747,7 +6771,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6834,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT30">
         <v>0.88</v>
@@ -6938,7 +6962,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7129,7 +7153,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7216,7 +7240,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT32">
         <v>0.63</v>
@@ -7320,7 +7344,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7410,7 +7434,7 @@
         <v>1.88</v>
       </c>
       <c r="AT33">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU33">
         <v>2.06</v>
@@ -7511,7 +7535,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7702,7 +7726,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7789,10 +7813,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT35">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>1.34</v>
@@ -7980,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT36">
         <v>1.63</v>
@@ -8084,7 +8108,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8174,7 +8198,7 @@
         <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8362,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT38">
         <v>0.67</v>
@@ -8553,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT39">
         <v>0.78</v>
@@ -8657,7 +8681,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8747,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -8935,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT41">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9317,7 +9341,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9699,7 +9723,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT45">
         <v>1.11</v>
@@ -9803,7 +9827,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10084,7 +10108,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU47">
         <v>1.87</v>
@@ -10272,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT48">
         <v>0.75</v>
@@ -10466,7 +10490,7 @@
         <v>1.63</v>
       </c>
       <c r="AT49">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10567,7 +10591,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10848,7 +10872,7 @@
         <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU51">
         <v>2.07</v>
@@ -11039,7 +11063,7 @@
         <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>2.39</v>
@@ -11227,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT53">
         <v>0.88</v>
@@ -11418,7 +11442,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11612,7 +11636,7 @@
         <v>0.5</v>
       </c>
       <c r="AT55">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU55">
         <v>1.9</v>
@@ -11713,7 +11737,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11800,10 +11824,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT56">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11991,7 +12015,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12095,7 +12119,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12182,10 +12206,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12286,7 +12310,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12477,7 +12501,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12567,7 +12591,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU60">
         <v>1.61</v>
@@ -12758,7 +12782,7 @@
         <v>1.88</v>
       </c>
       <c r="AT61">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU61">
         <v>1.81</v>
@@ -13331,7 +13355,7 @@
         <v>0.5</v>
       </c>
       <c r="AT64">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU64">
         <v>1.86</v>
@@ -13710,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT66">
         <v>0.5600000000000001</v>
@@ -14196,7 +14220,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14474,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
         <v>0.67</v>
@@ -14856,7 +14880,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT72">
         <v>1.63</v>
@@ -15151,7 +15175,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15241,7 +15265,7 @@
         <v>1.44</v>
       </c>
       <c r="AT74">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -16193,7 +16217,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT79">
         <v>1.11</v>
@@ -16297,7 +16321,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16387,7 +16411,7 @@
         <v>1.56</v>
       </c>
       <c r="AT80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU80">
         <v>1.45</v>
@@ -16488,7 +16512,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16578,7 +16602,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -16679,7 +16703,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16769,7 +16793,7 @@
         <v>1.38</v>
       </c>
       <c r="AT82">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU82">
         <v>2.25</v>
@@ -16870,7 +16894,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16957,10 +16981,10 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT83">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -17061,7 +17085,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17151,7 +17175,7 @@
         <v>0.5</v>
       </c>
       <c r="AT84">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU84">
         <v>1.81</v>
@@ -17252,7 +17276,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17339,10 +17363,10 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT85">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17443,7 +17467,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17530,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17634,7 +17658,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17724,7 +17748,7 @@
         <v>1.89</v>
       </c>
       <c r="AT87">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17825,7 +17849,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17912,10 +17936,10 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT88">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU88">
         <v>1.15</v>
@@ -18016,7 +18040,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18103,10 +18127,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT89">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU89">
         <v>1.49</v>
@@ -18207,7 +18231,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18398,7 +18422,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18485,7 +18509,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -18589,7 +18613,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18676,10 +18700,10 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU92">
         <v>1.55</v>
@@ -18780,7 +18804,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18870,7 +18894,7 @@
         <v>1.38</v>
       </c>
       <c r="AT93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19058,10 +19082,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT94">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU94">
         <v>1.63</v>
@@ -19249,10 +19273,10 @@
         <v>1.75</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU95">
         <v>1.84</v>
@@ -19440,7 +19464,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT96">
         <v>0.63</v>
@@ -19544,7 +19568,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19631,7 +19655,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT97">
         <v>1.11</v>
@@ -19926,7 +19950,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20013,7 +20037,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
         <v>0.75</v>
@@ -20117,7 +20141,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20204,7 +20228,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT100">
         <v>0.78</v>
@@ -20308,7 +20332,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20398,7 +20422,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -21072,7 +21096,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21159,7 +21183,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT105">
         <v>1.63</v>
@@ -21353,7 +21377,7 @@
         <v>1.63</v>
       </c>
       <c r="AT106">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU106">
         <v>1.66</v>
@@ -21544,7 +21568,7 @@
         <v>1.56</v>
       </c>
       <c r="AT107">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.35</v>
@@ -21732,7 +21756,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -21926,7 +21950,7 @@
         <v>1.63</v>
       </c>
       <c r="AT109">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU109">
         <v>1.89</v>
@@ -22114,7 +22138,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT110">
         <v>0.78</v>
@@ -22409,7 +22433,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22600,7 +22624,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22687,7 +22711,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT113">
         <v>1.63</v>
@@ -22791,7 +22815,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23072,7 +23096,7 @@
         <v>0.5</v>
       </c>
       <c r="AT115">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU115">
         <v>1.86</v>
@@ -23173,7 +23197,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23364,7 +23388,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23555,7 +23579,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23746,7 +23770,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23836,7 +23860,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -23937,7 +23961,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24128,7 +24152,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24218,7 +24242,7 @@
         <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU121">
         <v>1.93</v>
@@ -24406,7 +24430,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT122">
         <v>1.11</v>
@@ -24597,10 +24621,10 @@
         <v>1.33</v>
       </c>
       <c r="AS123">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT123">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -24791,7 +24815,7 @@
         <v>2</v>
       </c>
       <c r="AT124">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU124">
         <v>1.86</v>
@@ -24979,7 +25003,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25170,7 +25194,7 @@
         <v>1.14</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25361,7 +25385,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT127">
         <v>0.78</v>
@@ -25555,7 +25579,7 @@
         <v>2.33</v>
       </c>
       <c r="AT128">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU128">
         <v>2.06</v>
@@ -25746,7 +25770,7 @@
         <v>1.89</v>
       </c>
       <c r="AT129">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU129">
         <v>1.67</v>
@@ -25934,10 +25958,10 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT130">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU130">
         <v>1.68</v>
@@ -26125,10 +26149,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT131">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU131">
         <v>1.26</v>
@@ -26319,7 +26343,7 @@
         <v>1.75</v>
       </c>
       <c r="AT132">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU132">
         <v>1.6</v>
@@ -26420,7 +26444,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26993,7 +27017,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27080,7 +27104,7 @@
         <v>1.5</v>
       </c>
       <c r="AS136">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT136">
         <v>1.63</v>
@@ -27184,7 +27208,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27271,7 +27295,7 @@
         <v>1.67</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT137">
         <v>1.63</v>
@@ -27465,7 +27489,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU138">
         <v>1.8</v>
@@ -27653,7 +27677,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -27757,7 +27781,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27844,7 +27868,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT140">
         <v>0.88</v>
@@ -27948,7 +27972,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28038,7 +28062,7 @@
         <v>1.63</v>
       </c>
       <c r="AT141">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU141">
         <v>1.84</v>
@@ -28139,7 +28163,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28229,7 +28253,7 @@
         <v>2.33</v>
       </c>
       <c r="AT142">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU142">
         <v>1.98</v>
@@ -28417,10 +28441,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT143">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU143">
         <v>1.94</v>
@@ -28521,7 +28545,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28799,7 +28823,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT145">
         <v>0.5600000000000001</v>
@@ -28903,7 +28927,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29094,7 +29118,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29181,10 +29205,10 @@
         <v>1.14</v>
       </c>
       <c r="AS147">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT147">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU147">
         <v>1.85</v>
@@ -29372,7 +29396,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT148">
         <v>0.67</v>
@@ -29566,7 +29590,7 @@
         <v>1.56</v>
       </c>
       <c r="AT149">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU149">
         <v>1.45</v>
@@ -29757,7 +29781,7 @@
         <v>1.44</v>
       </c>
       <c r="AT150">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU150">
         <v>1.6</v>
@@ -29945,7 +29969,7 @@
         <v>1.29</v>
       </c>
       <c r="AS151">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT151">
         <v>1.11</v>
@@ -31004,7 +31028,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31091,7 +31115,7 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT157">
         <v>0.75</v>
@@ -31667,7 +31691,7 @@
         <v>1.75</v>
       </c>
       <c r="AT160">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -31855,7 +31879,7 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT161">
         <v>1</v>
@@ -32049,7 +32073,7 @@
         <v>1.44</v>
       </c>
       <c r="AT162">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU162">
         <v>1.54</v>
@@ -32240,7 +32264,7 @@
         <v>1.88</v>
       </c>
       <c r="AT163">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU163">
         <v>1.94</v>
@@ -32428,7 +32452,7 @@
         <v>0.63</v>
       </c>
       <c r="AS164">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT164">
         <v>0.5600000000000001</v>
@@ -32532,7 +32556,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32619,10 +32643,10 @@
         <v>1.14</v>
       </c>
       <c r="AS165">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT165">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU165">
         <v>1.86</v>
@@ -32810,10 +32834,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT166">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU166">
         <v>1.62</v>
@@ -33001,7 +33025,7 @@
         <v>1.71</v>
       </c>
       <c r="AS167">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT167">
         <v>1.63</v>
@@ -33105,7 +33129,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33192,10 +33216,10 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT168">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU168">
         <v>1.23</v>
@@ -33296,7 +33320,7 @@
         <v>196</v>
       </c>
       <c r="P169" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33383,10 +33407,10 @@
         <v>0.86</v>
       </c>
       <c r="AS169">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT169">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU169">
         <v>1.83</v>
@@ -33577,7 +33601,7 @@
         <v>1.38</v>
       </c>
       <c r="AT170">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU170">
         <v>2.07</v>
@@ -33820,6 +33844,1534 @@
       </c>
       <c r="BK171">
         <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5557344</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45157.66666666666</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>69</v>
+      </c>
+      <c r="H172" t="s">
+        <v>77</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>199</v>
+      </c>
+      <c r="P172" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q172">
+        <v>7</v>
+      </c>
+      <c r="R172">
+        <v>4</v>
+      </c>
+      <c r="S172">
+        <v>11</v>
+      </c>
+      <c r="T172">
+        <v>2.55</v>
+      </c>
+      <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
+        <v>4.75</v>
+      </c>
+      <c r="W172">
+        <v>1.5</v>
+      </c>
+      <c r="X172">
+        <v>2.4</v>
+      </c>
+      <c r="Y172">
+        <v>3.3</v>
+      </c>
+      <c r="Z172">
+        <v>1.28</v>
+      </c>
+      <c r="AA172">
+        <v>7.75</v>
+      </c>
+      <c r="AB172">
+        <v>1.05</v>
+      </c>
+      <c r="AC172">
+        <v>1.85</v>
+      </c>
+      <c r="AD172">
+        <v>3.1</v>
+      </c>
+      <c r="AE172">
+        <v>4.13</v>
+      </c>
+      <c r="AF172">
+        <v>1.08</v>
+      </c>
+      <c r="AG172">
+        <v>8.1</v>
+      </c>
+      <c r="AH172">
+        <v>1.41</v>
+      </c>
+      <c r="AI172">
+        <v>2.68</v>
+      </c>
+      <c r="AJ172">
+        <v>2.29</v>
+      </c>
+      <c r="AK172">
+        <v>1.55</v>
+      </c>
+      <c r="AL172">
+        <v>2.05</v>
+      </c>
+      <c r="AM172">
+        <v>1.68</v>
+      </c>
+      <c r="AN172">
+        <v>1.2</v>
+      </c>
+      <c r="AO172">
+        <v>1.28</v>
+      </c>
+      <c r="AP172">
+        <v>1.82</v>
+      </c>
+      <c r="AQ172">
+        <v>1.89</v>
+      </c>
+      <c r="AR172">
+        <v>0.88</v>
+      </c>
+      <c r="AS172">
+        <v>1.8</v>
+      </c>
+      <c r="AT172">
+        <v>0.89</v>
+      </c>
+      <c r="AU172">
+        <v>1.75</v>
+      </c>
+      <c r="AV172">
+        <v>1.45</v>
+      </c>
+      <c r="AW172">
+        <v>3.2</v>
+      </c>
+      <c r="AX172">
+        <v>1.62</v>
+      </c>
+      <c r="AY172">
+        <v>7.5</v>
+      </c>
+      <c r="AZ172">
+        <v>2.88</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>1.51</v>
+      </c>
+      <c r="BD172">
+        <v>1.84</v>
+      </c>
+      <c r="BE172">
+        <v>2.3</v>
+      </c>
+      <c r="BF172">
+        <v>7</v>
+      </c>
+      <c r="BG172">
+        <v>4</v>
+      </c>
+      <c r="BH172">
+        <v>9</v>
+      </c>
+      <c r="BI172">
+        <v>1</v>
+      </c>
+      <c r="BJ172">
+        <v>16</v>
+      </c>
+      <c r="BK172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5557341</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45157.66666666666</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>72</v>
+      </c>
+      <c r="H173" t="s">
+        <v>84</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173" t="s">
+        <v>200</v>
+      </c>
+      <c r="P173" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q173">
+        <v>8</v>
+      </c>
+      <c r="R173">
+        <v>4</v>
+      </c>
+      <c r="S173">
+        <v>12</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.97</v>
+      </c>
+      <c r="V173">
+        <v>5.07</v>
+      </c>
+      <c r="W173">
+        <v>1.48</v>
+      </c>
+      <c r="X173">
+        <v>2.47</v>
+      </c>
+      <c r="Y173">
+        <v>3.28</v>
+      </c>
+      <c r="Z173">
+        <v>1.29</v>
+      </c>
+      <c r="AA173">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB173">
+        <v>1.04</v>
+      </c>
+      <c r="AC173">
+        <v>1.75</v>
+      </c>
+      <c r="AD173">
+        <v>3.3</v>
+      </c>
+      <c r="AE173">
+        <v>4.34</v>
+      </c>
+      <c r="AF173">
+        <v>1.08</v>
+      </c>
+      <c r="AG173">
+        <v>8.4</v>
+      </c>
+      <c r="AH173">
+        <v>1.41</v>
+      </c>
+      <c r="AI173">
+        <v>2.71</v>
+      </c>
+      <c r="AJ173">
+        <v>2.25</v>
+      </c>
+      <c r="AK173">
+        <v>1.57</v>
+      </c>
+      <c r="AL173">
+        <v>2.05</v>
+      </c>
+      <c r="AM173">
+        <v>1.68</v>
+      </c>
+      <c r="AN173">
+        <v>1.2</v>
+      </c>
+      <c r="AO173">
+        <v>1.27</v>
+      </c>
+      <c r="AP173">
+        <v>1.88</v>
+      </c>
+      <c r="AQ173">
+        <v>1.78</v>
+      </c>
+      <c r="AR173">
+        <v>0.89</v>
+      </c>
+      <c r="AS173">
+        <v>1.6</v>
+      </c>
+      <c r="AT173">
+        <v>1.1</v>
+      </c>
+      <c r="AU173">
+        <v>1.84</v>
+      </c>
+      <c r="AV173">
+        <v>1.29</v>
+      </c>
+      <c r="AW173">
+        <v>3.13</v>
+      </c>
+      <c r="AX173">
+        <v>1.66</v>
+      </c>
+      <c r="AY173">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ173">
+        <v>2.5</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>1.41</v>
+      </c>
+      <c r="BC173">
+        <v>1.71</v>
+      </c>
+      <c r="BD173">
+        <v>2.13</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>5</v>
+      </c>
+      <c r="BG173">
+        <v>6</v>
+      </c>
+      <c r="BH173">
+        <v>13</v>
+      </c>
+      <c r="BI173">
+        <v>9</v>
+      </c>
+      <c r="BJ173">
+        <v>18</v>
+      </c>
+      <c r="BK173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5557342</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45157.79166666666</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" t="s">
+        <v>80</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>85</v>
+      </c>
+      <c r="P174" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q174">
+        <v>9</v>
+      </c>
+      <c r="R174">
+        <v>6</v>
+      </c>
+      <c r="S174">
+        <v>15</v>
+      </c>
+      <c r="T174">
+        <v>5.5</v>
+      </c>
+      <c r="U174">
+        <v>2</v>
+      </c>
+      <c r="V174">
+        <v>2.38</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <v>5.03</v>
+      </c>
+      <c r="AD174">
+        <v>3.15</v>
+      </c>
+      <c r="AE174">
+        <v>1.67</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>0</v>
+      </c>
+      <c r="AH174">
+        <v>1.48</v>
+      </c>
+      <c r="AI174">
+        <v>2.46</v>
+      </c>
+      <c r="AJ174">
+        <v>2.56</v>
+      </c>
+      <c r="AK174">
+        <v>1.45</v>
+      </c>
+      <c r="AL174">
+        <v>0</v>
+      </c>
+      <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AN174">
+        <v>0</v>
+      </c>
+      <c r="AO174">
+        <v>0</v>
+      </c>
+      <c r="AP174">
+        <v>0</v>
+      </c>
+      <c r="AQ174">
+        <v>1</v>
+      </c>
+      <c r="AR174">
+        <v>1.13</v>
+      </c>
+      <c r="AS174">
+        <v>0.89</v>
+      </c>
+      <c r="AT174">
+        <v>1.33</v>
+      </c>
+      <c r="AU174">
+        <v>1.62</v>
+      </c>
+      <c r="AV174">
+        <v>1.33</v>
+      </c>
+      <c r="AW174">
+        <v>2.95</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>4</v>
+      </c>
+      <c r="BH174">
+        <v>3</v>
+      </c>
+      <c r="BI174">
+        <v>5</v>
+      </c>
+      <c r="BJ174">
+        <v>7</v>
+      </c>
+      <c r="BK174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5557335</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45157.79166666666</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>65</v>
+      </c>
+      <c r="H175" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>125</v>
+      </c>
+      <c r="P175" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>6</v>
+      </c>
+      <c r="S175">
+        <v>11</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>2.05</v>
+      </c>
+      <c r="V175">
+        <v>3.75</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>2.6</v>
+      </c>
+      <c r="Y175">
+        <v>2.9</v>
+      </c>
+      <c r="Z175">
+        <v>1.36</v>
+      </c>
+      <c r="AA175">
+        <v>8</v>
+      </c>
+      <c r="AB175">
+        <v>1.05</v>
+      </c>
+      <c r="AC175">
+        <v>1.98</v>
+      </c>
+      <c r="AD175">
+        <v>3.1</v>
+      </c>
+      <c r="AE175">
+        <v>3.48</v>
+      </c>
+      <c r="AF175">
+        <v>1.05</v>
+      </c>
+      <c r="AG175">
+        <v>8</v>
+      </c>
+      <c r="AH175">
+        <v>1.33</v>
+      </c>
+      <c r="AI175">
+        <v>3</v>
+      </c>
+      <c r="AJ175">
+        <v>2.19</v>
+      </c>
+      <c r="AK175">
+        <v>1.6</v>
+      </c>
+      <c r="AL175">
+        <v>1.93</v>
+      </c>
+      <c r="AM175">
+        <v>1.75</v>
+      </c>
+      <c r="AN175">
+        <v>1.2</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>1.83</v>
+      </c>
+      <c r="AQ175">
+        <v>2</v>
+      </c>
+      <c r="AR175">
+        <v>1.78</v>
+      </c>
+      <c r="AS175">
+        <v>2.11</v>
+      </c>
+      <c r="AT175">
+        <v>1.6</v>
+      </c>
+      <c r="AU175">
+        <v>1.83</v>
+      </c>
+      <c r="AV175">
+        <v>1.25</v>
+      </c>
+      <c r="AW175">
+        <v>3.08</v>
+      </c>
+      <c r="AX175">
+        <v>1.6</v>
+      </c>
+      <c r="AY175">
+        <v>8.9</v>
+      </c>
+      <c r="AZ175">
+        <v>2.63</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>1.4</v>
+      </c>
+      <c r="BC175">
+        <v>1.69</v>
+      </c>
+      <c r="BD175">
+        <v>2.14</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>9</v>
+      </c>
+      <c r="BG175">
+        <v>6</v>
+      </c>
+      <c r="BH175">
+        <v>12</v>
+      </c>
+      <c r="BI175">
+        <v>8</v>
+      </c>
+      <c r="BJ175">
+        <v>21</v>
+      </c>
+      <c r="BK175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5557340</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>82</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>85</v>
+      </c>
+      <c r="P176" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q176">
+        <v>7</v>
+      </c>
+      <c r="R176">
+        <v>6</v>
+      </c>
+      <c r="S176">
+        <v>13</v>
+      </c>
+      <c r="T176">
+        <v>2.8</v>
+      </c>
+      <c r="U176">
+        <v>1.95</v>
+      </c>
+      <c r="V176">
+        <v>4.2</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>2.4</v>
+      </c>
+      <c r="Y176">
+        <v>3.25</v>
+      </c>
+      <c r="Z176">
+        <v>1.3</v>
+      </c>
+      <c r="AA176">
+        <v>7.75</v>
+      </c>
+      <c r="AB176">
+        <v>1.05</v>
+      </c>
+      <c r="AC176">
+        <v>1.95</v>
+      </c>
+      <c r="AD176">
+        <v>2.96</v>
+      </c>
+      <c r="AE176">
+        <v>3.23</v>
+      </c>
+      <c r="AF176">
+        <v>1.08</v>
+      </c>
+      <c r="AG176">
+        <v>8.35</v>
+      </c>
+      <c r="AH176">
+        <v>1.5</v>
+      </c>
+      <c r="AI176">
+        <v>2.4</v>
+      </c>
+      <c r="AJ176">
+        <v>2.17</v>
+      </c>
+      <c r="AK176">
+        <v>1.54</v>
+      </c>
+      <c r="AL176">
+        <v>2</v>
+      </c>
+      <c r="AM176">
+        <v>1.75</v>
+      </c>
+      <c r="AN176">
+        <v>1.27</v>
+      </c>
+      <c r="AO176">
+        <v>1.3</v>
+      </c>
+      <c r="AP176">
+        <v>1.68</v>
+      </c>
+      <c r="AQ176">
+        <v>1.67</v>
+      </c>
+      <c r="AR176">
+        <v>1.11</v>
+      </c>
+      <c r="AS176">
+        <v>1.6</v>
+      </c>
+      <c r="AT176">
+        <v>1.1</v>
+      </c>
+      <c r="AU176">
+        <v>1.98</v>
+      </c>
+      <c r="AV176">
+        <v>1.33</v>
+      </c>
+      <c r="AW176">
+        <v>3.31</v>
+      </c>
+      <c r="AX176">
+        <v>1.79</v>
+      </c>
+      <c r="AY176">
+        <v>8.9</v>
+      </c>
+      <c r="AZ176">
+        <v>2.24</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>0</v>
+      </c>
+      <c r="BC176">
+        <v>1.63</v>
+      </c>
+      <c r="BD176">
+        <v>1.99</v>
+      </c>
+      <c r="BE176">
+        <v>2.57</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>5</v>
+      </c>
+      <c r="BH176">
+        <v>15</v>
+      </c>
+      <c r="BI176">
+        <v>9</v>
+      </c>
+      <c r="BJ176">
+        <v>20</v>
+      </c>
+      <c r="BK176">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5557343</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>67</v>
+      </c>
+      <c r="H177" t="s">
+        <v>76</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>85</v>
+      </c>
+      <c r="P177" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q177">
+        <v>6</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>8</v>
+      </c>
+      <c r="T177">
+        <v>2.8</v>
+      </c>
+      <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
+        <v>4.2</v>
+      </c>
+      <c r="W177">
+        <v>1.5</v>
+      </c>
+      <c r="X177">
+        <v>2.4</v>
+      </c>
+      <c r="Y177">
+        <v>3.3</v>
+      </c>
+      <c r="Z177">
+        <v>1.3</v>
+      </c>
+      <c r="AA177">
+        <v>7.75</v>
+      </c>
+      <c r="AB177">
+        <v>1.05</v>
+      </c>
+      <c r="AC177">
+        <v>1.93</v>
+      </c>
+      <c r="AD177">
+        <v>2.77</v>
+      </c>
+      <c r="AE177">
+        <v>3.57</v>
+      </c>
+      <c r="AF177">
+        <v>1.08</v>
+      </c>
+      <c r="AG177">
+        <v>8.4</v>
+      </c>
+      <c r="AH177">
+        <v>1.5</v>
+      </c>
+      <c r="AI177">
+        <v>2.45</v>
+      </c>
+      <c r="AJ177">
+        <v>2.25</v>
+      </c>
+      <c r="AK177">
+        <v>1.53</v>
+      </c>
+      <c r="AL177">
+        <v>2</v>
+      </c>
+      <c r="AM177">
+        <v>1.72</v>
+      </c>
+      <c r="AN177">
+        <v>1.27</v>
+      </c>
+      <c r="AO177">
+        <v>1.3</v>
+      </c>
+      <c r="AP177">
+        <v>1.68</v>
+      </c>
+      <c r="AQ177">
+        <v>1.5</v>
+      </c>
+      <c r="AR177">
+        <v>0.67</v>
+      </c>
+      <c r="AS177">
+        <v>1.44</v>
+      </c>
+      <c r="AT177">
+        <v>0.7</v>
+      </c>
+      <c r="AU177">
+        <v>1.57</v>
+      </c>
+      <c r="AV177">
+        <v>1.4</v>
+      </c>
+      <c r="AW177">
+        <v>2.97</v>
+      </c>
+      <c r="AX177">
+        <v>1.58</v>
+      </c>
+      <c r="AY177">
+        <v>8.9</v>
+      </c>
+      <c r="AZ177">
+        <v>2.68</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>1.38</v>
+      </c>
+      <c r="BC177">
+        <v>1.71</v>
+      </c>
+      <c r="BD177">
+        <v>2.11</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>4</v>
+      </c>
+      <c r="BG177">
+        <v>5</v>
+      </c>
+      <c r="BH177">
+        <v>12</v>
+      </c>
+      <c r="BI177">
+        <v>6</v>
+      </c>
+      <c r="BJ177">
+        <v>16</v>
+      </c>
+      <c r="BK177">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5557339</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45158.79166666666</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>66</v>
+      </c>
+      <c r="H178" t="s">
+        <v>83</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>201</v>
+      </c>
+      <c r="P178" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q178">
+        <v>2</v>
+      </c>
+      <c r="R178">
+        <v>7</v>
+      </c>
+      <c r="S178">
+        <v>9</v>
+      </c>
+      <c r="T178">
+        <v>2.6</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>4.6</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>2.4</v>
+      </c>
+      <c r="Y178">
+        <v>3.3</v>
+      </c>
+      <c r="Z178">
+        <v>1.28</v>
+      </c>
+      <c r="AA178">
+        <v>7.75</v>
+      </c>
+      <c r="AB178">
+        <v>1.05</v>
+      </c>
+      <c r="AC178">
+        <v>1.73</v>
+      </c>
+      <c r="AD178">
+        <v>3.25</v>
+      </c>
+      <c r="AE178">
+        <v>4.25</v>
+      </c>
+      <c r="AF178">
+        <v>1.08</v>
+      </c>
+      <c r="AG178">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH178">
+        <v>1.41</v>
+      </c>
+      <c r="AI178">
+        <v>2.69</v>
+      </c>
+      <c r="AJ178">
+        <v>2.43</v>
+      </c>
+      <c r="AK178">
+        <v>1.5</v>
+      </c>
+      <c r="AL178">
+        <v>2.05</v>
+      </c>
+      <c r="AM178">
+        <v>1.7</v>
+      </c>
+      <c r="AN178">
+        <v>1.23</v>
+      </c>
+      <c r="AO178">
+        <v>1.28</v>
+      </c>
+      <c r="AP178">
+        <v>1.78</v>
+      </c>
+      <c r="AQ178">
+        <v>2.22</v>
+      </c>
+      <c r="AR178">
+        <v>0.88</v>
+      </c>
+      <c r="AS178">
+        <v>2.3</v>
+      </c>
+      <c r="AT178">
+        <v>0.78</v>
+      </c>
+      <c r="AU178">
+        <v>1.86</v>
+      </c>
+      <c r="AV178">
+        <v>1.18</v>
+      </c>
+      <c r="AW178">
+        <v>3.04</v>
+      </c>
+      <c r="AX178">
+        <v>1.46</v>
+      </c>
+      <c r="AY178">
+        <v>9.4</v>
+      </c>
+      <c r="AZ178">
+        <v>3.06</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>1.65</v>
+      </c>
+      <c r="BD178">
+        <v>2.02</v>
+      </c>
+      <c r="BE178">
+        <v>2.6</v>
+      </c>
+      <c r="BF178">
+        <v>7</v>
+      </c>
+      <c r="BG178">
+        <v>5</v>
+      </c>
+      <c r="BH178">
+        <v>10</v>
+      </c>
+      <c r="BI178">
+        <v>6</v>
+      </c>
+      <c r="BJ178">
+        <v>17</v>
+      </c>
+      <c r="BK178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5557336</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45158.79166666666</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>70</v>
+      </c>
+      <c r="H179" t="s">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>202</v>
+      </c>
+      <c r="P179" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q179">
+        <v>5</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>7</v>
+      </c>
+      <c r="T179">
+        <v>1.53</v>
+      </c>
+      <c r="U179">
+        <v>2.6</v>
+      </c>
+      <c r="V179">
+        <v>13</v>
+      </c>
+      <c r="W179">
+        <v>1.3</v>
+      </c>
+      <c r="X179">
+        <v>3.2</v>
+      </c>
+      <c r="Y179">
+        <v>2.55</v>
+      </c>
+      <c r="Z179">
+        <v>1.46</v>
+      </c>
+      <c r="AA179">
+        <v>6</v>
+      </c>
+      <c r="AB179">
+        <v>1.1</v>
+      </c>
+      <c r="AC179">
+        <v>1.15</v>
+      </c>
+      <c r="AD179">
+        <v>5.7</v>
+      </c>
+      <c r="AE179">
+        <v>13.5</v>
+      </c>
+      <c r="AF179">
+        <v>1.02</v>
+      </c>
+      <c r="AG179">
+        <v>15</v>
+      </c>
+      <c r="AH179">
+        <v>1.2</v>
+      </c>
+      <c r="AI179">
+        <v>4</v>
+      </c>
+      <c r="AJ179">
+        <v>1.88</v>
+      </c>
+      <c r="AK179">
+        <v>1.92</v>
+      </c>
+      <c r="AL179">
+        <v>2.65</v>
+      </c>
+      <c r="AM179">
+        <v>1.42</v>
+      </c>
+      <c r="AN179">
+        <v>1.02</v>
+      </c>
+      <c r="AO179">
+        <v>1.08</v>
+      </c>
+      <c r="AP179">
+        <v>3.75</v>
+      </c>
+      <c r="AQ179">
+        <v>2.22</v>
+      </c>
+      <c r="AR179">
+        <v>0.89</v>
+      </c>
+      <c r="AS179">
+        <v>2.3</v>
+      </c>
+      <c r="AT179">
+        <v>0.8</v>
+      </c>
+      <c r="AU179">
+        <v>1.3</v>
+      </c>
+      <c r="AV179">
+        <v>1.42</v>
+      </c>
+      <c r="AW179">
+        <v>2.72</v>
+      </c>
+      <c r="AX179">
+        <v>1.33</v>
+      </c>
+      <c r="AY179">
+        <v>10</v>
+      </c>
+      <c r="AZ179">
+        <v>3.75</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>1.61</v>
+      </c>
+      <c r="BD179">
+        <v>1.97</v>
+      </c>
+      <c r="BE179">
+        <v>2.47</v>
+      </c>
+      <c r="BF179">
+        <v>8</v>
+      </c>
+      <c r="BG179">
+        <v>7</v>
+      </c>
+      <c r="BH179">
+        <v>16</v>
+      </c>
+      <c r="BI179">
+        <v>2</v>
+      </c>
+      <c r="BJ179">
+        <v>24</v>
+      </c>
+      <c r="BK179">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['14', '86']</t>
   </si>
   <si>
+    <t>['90+11']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1805,7 +1808,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1996,7 +1999,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2083,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2760,7 +2763,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -3142,7 +3145,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3229,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1.1</v>
@@ -3715,7 +3718,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4479,7 +4482,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4670,7 +4673,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -5052,7 +5055,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5625,7 +5628,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6007,7 +6010,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6094,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
         <v>1.63</v>
@@ -6389,7 +6392,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6580,7 +6583,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6771,7 +6774,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6962,7 +6965,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7153,7 +7156,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7243,7 +7246,7 @@
         <v>0.89</v>
       </c>
       <c r="AT32">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU32">
         <v>1.81</v>
@@ -7344,7 +7347,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7431,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.1</v>
@@ -7535,7 +7538,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7726,7 +7729,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8108,7 +8111,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8681,7 +8684,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9827,7 +9830,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10591,7 +10594,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11060,7 +11063,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
         <v>1.33</v>
@@ -11737,7 +11740,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -12119,7 +12122,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12310,7 +12313,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12501,7 +12504,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12779,7 +12782,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>0.78</v>
@@ -14220,7 +14223,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14692,7 +14695,7 @@
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -15175,7 +15178,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -16026,7 +16029,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
         <v>1.63</v>
@@ -16321,7 +16324,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16512,7 +16515,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16703,7 +16706,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16790,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT82">
         <v>1.1</v>
@@ -16894,7 +16897,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17085,7 +17088,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17276,7 +17279,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17467,7 +17470,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17658,7 +17661,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17849,7 +17852,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -18040,7 +18043,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18231,7 +18234,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18318,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>0.88</v>
@@ -18422,7 +18425,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18613,7 +18616,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18804,7 +18807,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19467,7 +19470,7 @@
         <v>2.3</v>
       </c>
       <c r="AT96">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19568,7 +19571,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19950,7 +19953,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20141,7 +20144,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20332,7 +20335,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20610,7 +20613,7 @@
         <v>1.6</v>
       </c>
       <c r="AS102">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>1.63</v>
@@ -20804,7 +20807,7 @@
         <v>1.75</v>
       </c>
       <c r="AT103">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU103">
         <v>1.62</v>
@@ -21096,7 +21099,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -22433,7 +22436,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22624,7 +22627,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22815,7 +22818,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22902,7 +22905,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT114">
         <v>0.5600000000000001</v>
@@ -23197,7 +23200,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23284,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="AS116">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT116">
         <v>0.67</v>
@@ -23388,7 +23391,7 @@
         <v>113</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23579,7 +23582,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23770,7 +23773,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23961,7 +23964,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24152,7 +24155,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -26444,7 +26447,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26725,7 +26728,7 @@
         <v>1.63</v>
       </c>
       <c r="AT134">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU134">
         <v>1.81</v>
@@ -26913,7 +26916,7 @@
         <v>0.86</v>
       </c>
       <c r="AS135">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT135">
         <v>0.78</v>
@@ -27017,7 +27020,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27208,7 +27211,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27781,7 +27784,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27972,7 +27975,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28163,7 +28166,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28545,7 +28548,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28635,7 +28638,7 @@
         <v>1.38</v>
       </c>
       <c r="AT144">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU144">
         <v>1.84</v>
@@ -28927,7 +28930,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29014,7 +29017,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT146">
         <v>0.75</v>
@@ -29118,7 +29121,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -31028,7 +31031,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -32261,7 +32264,7 @@
         <v>2</v>
       </c>
       <c r="AS163">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT163">
         <v>1.6</v>
@@ -32556,7 +32559,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33129,7 +33132,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33320,7 +33323,7 @@
         <v>196</v>
       </c>
       <c r="P169" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33598,7 +33601,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>0.8</v>
@@ -33792,7 +33795,7 @@
         <v>1.63</v>
       </c>
       <c r="AT171">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU171">
         <v>1.9</v>
@@ -33893,7 +33896,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34084,7 +34087,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q173">
         <v>8</v>
@@ -34275,7 +34278,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -35230,7 +35233,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35372,6 +35375,388 @@
       </c>
       <c r="BK179">
         <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5557338</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45159.83333333334</v>
+      </c>
+      <c r="F180">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>68</v>
+      </c>
+      <c r="H180" t="s">
+        <v>81</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>85</v>
+      </c>
+      <c r="P180" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q180">
+        <v>7</v>
+      </c>
+      <c r="R180">
+        <v>1</v>
+      </c>
+      <c r="S180">
+        <v>8</v>
+      </c>
+      <c r="T180">
+        <v>2.65</v>
+      </c>
+      <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
+        <v>4.6</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>2.62</v>
+      </c>
+      <c r="Y180">
+        <v>3</v>
+      </c>
+      <c r="Z180">
+        <v>1.36</v>
+      </c>
+      <c r="AA180">
+        <v>7.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.07</v>
+      </c>
+      <c r="AC180">
+        <v>1.86</v>
+      </c>
+      <c r="AD180">
+        <v>3.2</v>
+      </c>
+      <c r="AE180">
+        <v>3.7</v>
+      </c>
+      <c r="AF180">
+        <v>1.1</v>
+      </c>
+      <c r="AG180">
+        <v>6.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.49</v>
+      </c>
+      <c r="AI180">
+        <v>2.38</v>
+      </c>
+      <c r="AJ180">
+        <v>2.27</v>
+      </c>
+      <c r="AK180">
+        <v>1.56</v>
+      </c>
+      <c r="AL180">
+        <v>2</v>
+      </c>
+      <c r="AM180">
+        <v>1.73</v>
+      </c>
+      <c r="AN180">
+        <v>1.18</v>
+      </c>
+      <c r="AO180">
+        <v>1.35</v>
+      </c>
+      <c r="AP180">
+        <v>1.83</v>
+      </c>
+      <c r="AQ180">
+        <v>1.38</v>
+      </c>
+      <c r="AR180">
+        <v>1</v>
+      </c>
+      <c r="AS180">
+        <v>1.33</v>
+      </c>
+      <c r="AT180">
+        <v>1</v>
+      </c>
+      <c r="AU180">
+        <v>2.04</v>
+      </c>
+      <c r="AV180">
+        <v>1.01</v>
+      </c>
+      <c r="AW180">
+        <v>3.05</v>
+      </c>
+      <c r="AX180">
+        <v>1.43</v>
+      </c>
+      <c r="AY180">
+        <v>9.1</v>
+      </c>
+      <c r="AZ180">
+        <v>3.24</v>
+      </c>
+      <c r="BA180">
+        <v>1.26</v>
+      </c>
+      <c r="BB180">
+        <v>1.48</v>
+      </c>
+      <c r="BC180">
+        <v>1.83</v>
+      </c>
+      <c r="BD180">
+        <v>2.34</v>
+      </c>
+      <c r="BE180">
+        <v>3.35</v>
+      </c>
+      <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>4</v>
+      </c>
+      <c r="BH180">
+        <v>15</v>
+      </c>
+      <c r="BI180">
+        <v>5</v>
+      </c>
+      <c r="BJ180">
+        <v>22</v>
+      </c>
+      <c r="BK180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5557337</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45159.83333333334</v>
+      </c>
+      <c r="F181">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181" t="s">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>203</v>
+      </c>
+      <c r="P181" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q181">
+        <v>5</v>
+      </c>
+      <c r="R181">
+        <v>4</v>
+      </c>
+      <c r="S181">
+        <v>9</v>
+      </c>
+      <c r="T181">
+        <v>2.47</v>
+      </c>
+      <c r="U181">
+        <v>1.94</v>
+      </c>
+      <c r="V181">
+        <v>5.05</v>
+      </c>
+      <c r="W181">
+        <v>1.51</v>
+      </c>
+      <c r="X181">
+        <v>2.39</v>
+      </c>
+      <c r="Y181">
+        <v>3.42</v>
+      </c>
+      <c r="Z181">
+        <v>1.27</v>
+      </c>
+      <c r="AA181">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB181">
+        <v>1.03</v>
+      </c>
+      <c r="AC181">
+        <v>1.88</v>
+      </c>
+      <c r="AD181">
+        <v>3.25</v>
+      </c>
+      <c r="AE181">
+        <v>3.55</v>
+      </c>
+      <c r="AF181">
+        <v>1.06</v>
+      </c>
+      <c r="AG181">
+        <v>6.8</v>
+      </c>
+      <c r="AH181">
+        <v>1.43</v>
+      </c>
+      <c r="AI181">
+        <v>2.54</v>
+      </c>
+      <c r="AJ181">
+        <v>2.28</v>
+      </c>
+      <c r="AK181">
+        <v>1.61</v>
+      </c>
+      <c r="AL181">
+        <v>2.05</v>
+      </c>
+      <c r="AM181">
+        <v>1.68</v>
+      </c>
+      <c r="AN181">
+        <v>1.18</v>
+      </c>
+      <c r="AO181">
+        <v>1.28</v>
+      </c>
+      <c r="AP181">
+        <v>1.72</v>
+      </c>
+      <c r="AQ181">
+        <v>1.88</v>
+      </c>
+      <c r="AR181">
+        <v>0.63</v>
+      </c>
+      <c r="AS181">
+        <v>2</v>
+      </c>
+      <c r="AT181">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU181">
+        <v>1.96</v>
+      </c>
+      <c r="AV181">
+        <v>1.38</v>
+      </c>
+      <c r="AW181">
+        <v>3.34</v>
+      </c>
+      <c r="AX181">
+        <v>1.45</v>
+      </c>
+      <c r="AY181">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ181">
+        <v>3.13</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>1.41</v>
+      </c>
+      <c r="BC181">
+        <v>1.71</v>
+      </c>
+      <c r="BD181">
+        <v>2.17</v>
+      </c>
+      <c r="BE181">
+        <v>2.65</v>
+      </c>
+      <c r="BF181">
+        <v>12</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>6</v>
+      </c>
+      <c r="BI181">
+        <v>6</v>
+      </c>
+      <c r="BJ181">
+        <v>18</v>
+      </c>
+      <c r="BK181">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -631,7 +631,7 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['59', '83']</t>
+    <t>['59', '81']</t>
   </si>
   <si>
     <t>['90+4']</t>
@@ -643,7 +643,7 @@
     <t>['34', '71', '85']</t>
   </si>
   <si>
-    <t>['70', '90+1']</t>
+    <t>['70', '90']</t>
   </si>
   <si>
     <t>['44']</t>
@@ -847,7 +847,7 @@
     <t>['36', '67']</t>
   </si>
   <si>
-    <t>['43', '90+1']</t>
+    <t>['43', '90+2']</t>
   </si>
 </sst>
 </file>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -613,10 +613,10 @@
     <t>['65', '76']</t>
   </si>
   <si>
-    <t>['45+1', '90+5']</t>
+    <t>['42', '70']</t>
   </si>
   <si>
-    <t>['42', '70']</t>
+    <t>['45+1', '90+5']</t>
   </si>
   <si>
     <t>['56', '69']</t>
@@ -628,9 +628,6 @@
     <t>['90+11']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['59', '81']</t>
   </si>
   <si>
@@ -640,13 +637,16 @@
     <t>['15']</t>
   </si>
   <si>
-    <t>['34', '71', '85']</t>
+    <t>['44']</t>
   </si>
   <si>
     <t>['70', '90']</t>
   </si>
   <si>
-    <t>['44']</t>
+    <t>['34', '71', '85']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
   <si>
     <t>['74']</t>
@@ -829,10 +829,10 @@
     <t>['22', '57', '72']</t>
   </si>
   <si>
-    <t>['27', '51', '76']</t>
+    <t>['26', '51']</t>
   </si>
   <si>
-    <t>['26', '51']</t>
+    <t>['27', '51', '76']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -18834,7 +18834,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -33881,7 +33881,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>5557341</v>
+        <v>5557344</v>
       </c>
       <c r="C172" t="s">
         <v>63</v>
@@ -33896,10 +33896,10 @@
         <v>18</v>
       </c>
       <c r="G172" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H172" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -33914,10 +33914,10 @@
         <v>2</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O172" t="s">
         <v>199</v>
@@ -33926,67 +33926,67 @@
         <v>271</v>
       </c>
       <c r="Q172">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R172">
         <v>4</v>
       </c>
       <c r="S172">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U172">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>5.07</v>
+        <v>4.75</v>
       </c>
       <c r="W172">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X172">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="Y172">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="Z172">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AA172">
-        <v>8.699999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="AB172">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC172">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AD172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AE172">
-        <v>4.34</v>
+        <v>4.13</v>
       </c>
       <c r="AF172">
         <v>1.08</v>
       </c>
       <c r="AG172">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AH172">
         <v>1.41</v>
       </c>
       <c r="AI172">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="AJ172">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AK172">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AL172">
         <v>2.05</v>
@@ -33998,73 +33998,73 @@
         <v>1.2</v>
       </c>
       <c r="AO172">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AP172">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ172">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AR172">
+        <v>0.88</v>
+      </c>
+      <c r="AS172">
+        <v>1.8</v>
+      </c>
+      <c r="AT172">
         <v>0.89</v>
       </c>
-      <c r="AS172">
-        <v>1.6</v>
-      </c>
-      <c r="AT172">
-        <v>1.1</v>
-      </c>
       <c r="AU172">
+        <v>1.75</v>
+      </c>
+      <c r="AV172">
+        <v>1.45</v>
+      </c>
+      <c r="AW172">
+        <v>3.2</v>
+      </c>
+      <c r="AX172">
+        <v>1.62</v>
+      </c>
+      <c r="AY172">
+        <v>7.5</v>
+      </c>
+      <c r="AZ172">
+        <v>2.88</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>1.51</v>
+      </c>
+      <c r="BD172">
         <v>1.84</v>
       </c>
-      <c r="AV172">
-        <v>1.29</v>
-      </c>
-      <c r="AW172">
-        <v>3.13</v>
-      </c>
-      <c r="AX172">
-        <v>1.66</v>
-      </c>
-      <c r="AY172">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ172">
-        <v>2.5</v>
-      </c>
-      <c r="BA172">
-        <v>0</v>
-      </c>
-      <c r="BB172">
-        <v>1.41</v>
-      </c>
-      <c r="BC172">
-        <v>1.71</v>
-      </c>
-      <c r="BD172">
-        <v>2.13</v>
-      </c>
       <c r="BE172">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BF172">
+        <v>7</v>
+      </c>
+      <c r="BG172">
+        <v>4</v>
+      </c>
+      <c r="BH172">
+        <v>9</v>
+      </c>
+      <c r="BI172">
+        <v>1</v>
+      </c>
+      <c r="BJ172">
+        <v>16</v>
+      </c>
+      <c r="BK172">
         <v>5</v>
-      </c>
-      <c r="BG172">
-        <v>6</v>
-      </c>
-      <c r="BH172">
-        <v>13</v>
-      </c>
-      <c r="BI172">
-        <v>9</v>
-      </c>
-      <c r="BJ172">
-        <v>18</v>
-      </c>
-      <c r="BK172">
-        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:63">
@@ -34072,7 +34072,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>5557344</v>
+        <v>5557341</v>
       </c>
       <c r="C173" t="s">
         <v>63</v>
@@ -34087,10 +34087,10 @@
         <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H173" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -34105,10 +34105,10 @@
         <v>2</v>
       </c>
       <c r="M173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O173" t="s">
         <v>200</v>
@@ -34117,67 +34117,67 @@
         <v>272</v>
       </c>
       <c r="Q173">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R173">
         <v>4</v>
       </c>
       <c r="S173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T173">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V173">
-        <v>4.75</v>
+        <v>5.07</v>
       </c>
       <c r="W173">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X173">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="Y173">
+        <v>3.28</v>
+      </c>
+      <c r="Z173">
+        <v>1.29</v>
+      </c>
+      <c r="AA173">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB173">
+        <v>1.04</v>
+      </c>
+      <c r="AC173">
+        <v>1.75</v>
+      </c>
+      <c r="AD173">
         <v>3.3</v>
       </c>
-      <c r="Z173">
-        <v>1.28</v>
-      </c>
-      <c r="AA173">
-        <v>7.75</v>
-      </c>
-      <c r="AB173">
-        <v>1.05</v>
-      </c>
-      <c r="AC173">
-        <v>1.85</v>
-      </c>
-      <c r="AD173">
-        <v>3.1</v>
-      </c>
       <c r="AE173">
-        <v>4.13</v>
+        <v>4.34</v>
       </c>
       <c r="AF173">
         <v>1.08</v>
       </c>
       <c r="AG173">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AH173">
         <v>1.41</v>
       </c>
       <c r="AI173">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="AJ173">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AK173">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AL173">
         <v>2.05</v>
@@ -34189,73 +34189,73 @@
         <v>1.2</v>
       </c>
       <c r="AO173">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AP173">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AQ173">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AR173">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AS173">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AT173">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU173">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AV173">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AW173">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="AX173">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AY173">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ173">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="BA173">
         <v>0</v>
       </c>
       <c r="BB173">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BC173">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="BD173">
-        <v>1.84</v>
+        <v>2.13</v>
       </c>
       <c r="BE173">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BF173">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG173">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH173">
+        <v>13</v>
+      </c>
+      <c r="BI173">
         <v>9</v>
       </c>
-      <c r="BI173">
-        <v>1</v>
-      </c>
       <c r="BJ173">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BK173">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:63">
@@ -34263,7 +34263,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>5557335</v>
+        <v>5557342</v>
       </c>
       <c r="C174" t="s">
         <v>63</v>
@@ -34278,175 +34278,175 @@
         <v>18</v>
       </c>
       <c r="G174" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H174" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174">
         <v>1</v>
       </c>
       <c r="O174" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="Q174">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R174">
         <v>6</v>
       </c>
       <c r="S174">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="U174">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="W174">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X174">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Y174">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Z174">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB174">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>1.98</v>
+        <v>5.03</v>
       </c>
       <c r="AD174">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AE174">
-        <v>3.48</v>
+        <v>1.67</v>
       </c>
       <c r="AF174">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AG174">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH174">
+        <v>1.48</v>
+      </c>
+      <c r="AI174">
+        <v>2.46</v>
+      </c>
+      <c r="AJ174">
+        <v>2.56</v>
+      </c>
+      <c r="AK174">
+        <v>1.45</v>
+      </c>
+      <c r="AL174">
+        <v>0</v>
+      </c>
+      <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AN174">
+        <v>0</v>
+      </c>
+      <c r="AO174">
+        <v>0</v>
+      </c>
+      <c r="AP174">
+        <v>0</v>
+      </c>
+      <c r="AQ174">
+        <v>1</v>
+      </c>
+      <c r="AR174">
+        <v>1.13</v>
+      </c>
+      <c r="AS174">
+        <v>0.89</v>
+      </c>
+      <c r="AT174">
         <v>1.33</v>
       </c>
-      <c r="AI174">
+      <c r="AU174">
+        <v>1.62</v>
+      </c>
+      <c r="AV174">
+        <v>1.33</v>
+      </c>
+      <c r="AW174">
+        <v>2.95</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>4</v>
+      </c>
+      <c r="BH174">
         <v>3</v>
       </c>
-      <c r="AJ174">
-        <v>2.19</v>
-      </c>
-      <c r="AK174">
-        <v>1.6</v>
-      </c>
-      <c r="AL174">
-        <v>1.93</v>
-      </c>
-      <c r="AM174">
-        <v>1.75</v>
-      </c>
-      <c r="AN174">
-        <v>1.2</v>
-      </c>
-      <c r="AO174">
-        <v>1.25</v>
-      </c>
-      <c r="AP174">
-        <v>1.83</v>
-      </c>
-      <c r="AQ174">
-        <v>2</v>
-      </c>
-      <c r="AR174">
-        <v>1.78</v>
-      </c>
-      <c r="AS174">
-        <v>2.11</v>
-      </c>
-      <c r="AT174">
-        <v>1.6</v>
-      </c>
-      <c r="AU174">
-        <v>1.83</v>
-      </c>
-      <c r="AV174">
-        <v>1.25</v>
-      </c>
-      <c r="AW174">
-        <v>3.08</v>
-      </c>
-      <c r="AX174">
-        <v>1.6</v>
-      </c>
-      <c r="AY174">
-        <v>8.9</v>
-      </c>
-      <c r="AZ174">
-        <v>2.63</v>
-      </c>
-      <c r="BA174">
-        <v>0</v>
-      </c>
-      <c r="BB174">
-        <v>1.4</v>
-      </c>
-      <c r="BC174">
-        <v>1.69</v>
-      </c>
-      <c r="BD174">
-        <v>2.14</v>
-      </c>
-      <c r="BE174">
-        <v>0</v>
-      </c>
-      <c r="BF174">
+      <c r="BI174">
+        <v>5</v>
+      </c>
+      <c r="BJ174">
+        <v>7</v>
+      </c>
+      <c r="BK174">
         <v>9</v>
-      </c>
-      <c r="BG174">
-        <v>6</v>
-      </c>
-      <c r="BH174">
-        <v>12</v>
-      </c>
-      <c r="BI174">
-        <v>8</v>
-      </c>
-      <c r="BJ174">
-        <v>21</v>
-      </c>
-      <c r="BK174">
-        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:63">
@@ -34454,7 +34454,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>5557342</v>
+        <v>5557335</v>
       </c>
       <c r="C175" t="s">
         <v>63</v>
@@ -34469,175 +34469,175 @@
         <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H175" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N175">
         <v>1</v>
       </c>
       <c r="O175" t="s">
+        <v>125</v>
+      </c>
+      <c r="P175" t="s">
         <v>85</v>
       </c>
-      <c r="P175" t="s">
-        <v>273</v>
-      </c>
       <c r="Q175">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R175">
         <v>6</v>
       </c>
       <c r="S175">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T175">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V175">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="W175">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X175">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA175">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC175">
-        <v>5.03</v>
+        <v>1.98</v>
       </c>
       <c r="AD175">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AE175">
-        <v>1.67</v>
+        <v>3.48</v>
       </c>
       <c r="AF175">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG175">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH175">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AI175">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="AJ175">
-        <v>2.56</v>
+        <v>2.19</v>
       </c>
       <c r="AK175">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AL175">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM175">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN175">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AO175">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR175">
-        <v>1.13</v>
+        <v>1.78</v>
       </c>
       <c r="AS175">
-        <v>0.89</v>
+        <v>2.11</v>
       </c>
       <c r="AT175">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AU175">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AV175">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AW175">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="AX175">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AY175">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AZ175">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="BA175">
         <v>0</v>
       </c>
       <c r="BB175">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC175">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BD175">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BE175">
         <v>0</v>
       </c>
       <c r="BF175">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG175">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH175">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BI175">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ175">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BK175">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:63">
@@ -35791,7 +35791,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>5557354</v>
+        <v>5557353</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -35806,10 +35806,10 @@
         <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H182" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -35821,70 +35821,70 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="P182" t="s">
         <v>85</v>
       </c>
       <c r="Q182">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R182">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S182">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T182">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>3.96</v>
+        <v>5</v>
       </c>
       <c r="W182">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X182">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="Z182">
         <v>1.28</v>
       </c>
       <c r="AA182">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="AB182">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC182">
         <v>2</v>
       </c>
       <c r="AD182">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AE182">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AF182">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG182">
-        <v>7.8</v>
+        <v>7.35</v>
       </c>
       <c r="AH182">
         <v>1.5</v>
@@ -35893,88 +35893,88 @@
         <v>2.4</v>
       </c>
       <c r="AJ182">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AK182">
         <v>1.5</v>
       </c>
       <c r="AL182">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AM182">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AN182">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AO182">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP182">
+        <v>1.68</v>
+      </c>
+      <c r="AQ182">
+        <v>1.56</v>
+      </c>
+      <c r="AR182">
+        <v>0.67</v>
+      </c>
+      <c r="AS182">
         <v>1.5</v>
       </c>
-      <c r="AQ182">
-        <v>1.63</v>
-      </c>
-      <c r="AR182">
-        <v>1</v>
-      </c>
-      <c r="AS182">
-        <v>1.78</v>
-      </c>
       <c r="AT182">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="AU182">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="AV182">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AW182">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="AX182">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AY182">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ182">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="BA182">
         <v>0</v>
       </c>
       <c r="BB182">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="BC182">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BD182">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="BE182">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="BF182">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH182">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BI182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ182">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="BK182">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:63">
@@ -35982,7 +35982,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>5557353</v>
+        <v>5557352</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -35997,175 +35997,175 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O183" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="Q183">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S183">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V183">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="W183">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X183">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="Y183">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="Z183">
         <v>1.28</v>
       </c>
       <c r="AA183">
-        <v>7.75</v>
+        <v>8.9</v>
       </c>
       <c r="AB183">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC183">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AD183">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE183">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="AF183">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AG183">
-        <v>7.35</v>
+        <v>7.85</v>
       </c>
       <c r="AH183">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AI183">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="AJ183">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AK183">
         <v>1.5</v>
       </c>
       <c r="AL183">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AM183">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AN183">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AO183">
         <v>1.32</v>
       </c>
       <c r="AP183">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AQ183">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AR183">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AS183">
+        <v>1.3</v>
+      </c>
+      <c r="AT183">
+        <v>1.11</v>
+      </c>
+      <c r="AU183">
+        <v>1.57</v>
+      </c>
+      <c r="AV183">
+        <v>1.38</v>
+      </c>
+      <c r="AW183">
+        <v>2.95</v>
+      </c>
+      <c r="AX183">
+        <v>1.71</v>
+      </c>
+      <c r="AY183">
+        <v>8.6</v>
+      </c>
+      <c r="AZ183">
+        <v>2.4</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
         <v>1.5</v>
       </c>
-      <c r="AT183">
-        <v>0.7</v>
-      </c>
-      <c r="AU183">
-        <v>1.46</v>
-      </c>
-      <c r="AV183">
-        <v>1.36</v>
-      </c>
-      <c r="AW183">
-        <v>2.82</v>
-      </c>
-      <c r="AX183">
-        <v>1.61</v>
-      </c>
-      <c r="AY183">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ183">
-        <v>2.58</v>
-      </c>
-      <c r="BA183">
-        <v>0</v>
-      </c>
-      <c r="BB183">
-        <v>0</v>
-      </c>
       <c r="BC183">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="BD183">
-        <v>1.84</v>
+        <v>2.42</v>
       </c>
       <c r="BE183">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BF183">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BG183">
+        <v>7</v>
+      </c>
+      <c r="BH183">
+        <v>18</v>
+      </c>
+      <c r="BI183">
         <v>3</v>
       </c>
-      <c r="BH183">
-        <v>3</v>
-      </c>
-      <c r="BI183">
-        <v>5</v>
-      </c>
       <c r="BJ183">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="BK183">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36173,7 +36173,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>5557352</v>
+        <v>5557351</v>
       </c>
       <c r="C184" t="s">
         <v>63</v>
@@ -36188,91 +36188,91 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H184" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O184" t="s">
         <v>205</v>
       </c>
       <c r="P184" t="s">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="Q184">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R184">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S184">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="T184">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="U184">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="W184">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X184">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="Y184">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="Z184">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA184">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="AB184">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AD184">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AE184">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AF184">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG184">
-        <v>7.85</v>
+        <v>7.5</v>
       </c>
       <c r="AH184">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AI184">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AJ184">
         <v>2.35</v>
@@ -36284,79 +36284,79 @@
         <v>2</v>
       </c>
       <c r="AM184">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AN184">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AO184">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AP184">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ184">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AR184">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AS184">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="AT184">
-        <v>1.11</v>
+        <v>0.7</v>
       </c>
       <c r="AU184">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AV184">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AW184">
-        <v>2.95</v>
+        <v>3.33</v>
       </c>
       <c r="AX184">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AY184">
         <v>8.6</v>
       </c>
       <c r="AZ184">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="BA184">
         <v>0</v>
       </c>
       <c r="BB184">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC184">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BD184">
-        <v>2.42</v>
+        <v>2.19</v>
       </c>
       <c r="BE184">
         <v>0</v>
       </c>
       <c r="BF184">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BG184">
+        <v>3</v>
+      </c>
+      <c r="BH184">
         <v>7</v>
-      </c>
-      <c r="BH184">
-        <v>18</v>
       </c>
       <c r="BI184">
         <v>3</v>
       </c>
       <c r="BJ184">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="BK184">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:63">
@@ -36364,7 +36364,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>5557351</v>
+        <v>5557350</v>
       </c>
       <c r="C185" t="s">
         <v>63</v>
@@ -36379,19 +36379,19 @@
         <v>19</v>
       </c>
       <c r="G185" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H185" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185">
         <v>1</v>
@@ -36409,61 +36409,61 @@
         <v>85</v>
       </c>
       <c r="Q185">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R185">
         <v>7</v>
       </c>
       <c r="S185">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T185">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V185">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="W185">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X185">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="Y185">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Z185">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA185">
         <v>8</v>
       </c>
       <c r="AB185">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC185">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="AD185">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AE185">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="AF185">
         <v>1.09</v>
       </c>
       <c r="AG185">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="AH185">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AI185">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="AJ185">
         <v>2.35</v>
@@ -36481,73 +36481,73 @@
         <v>1.35</v>
       </c>
       <c r="AO185">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AP185">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ185">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AR185">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AS185">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AT185">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AU185">
+        <v>1.57</v>
+      </c>
+      <c r="AV185">
+        <v>0.98</v>
+      </c>
+      <c r="AW185">
+        <v>2.55</v>
+      </c>
+      <c r="AX185">
+        <v>1.56</v>
+      </c>
+      <c r="AY185">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ185">
+        <v>2.76</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>1.49</v>
+      </c>
+      <c r="BC185">
         <v>1.83</v>
       </c>
-      <c r="AV185">
-        <v>1.5</v>
-      </c>
-      <c r="AW185">
-        <v>3.33</v>
-      </c>
-      <c r="AX185">
-        <v>1.8</v>
-      </c>
-      <c r="AY185">
-        <v>8.6</v>
-      </c>
-      <c r="AZ185">
-        <v>2.24</v>
-      </c>
-      <c r="BA185">
-        <v>0</v>
-      </c>
-      <c r="BB185">
-        <v>1.42</v>
-      </c>
-      <c r="BC185">
-        <v>1.73</v>
-      </c>
       <c r="BD185">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="BE185">
         <v>0</v>
       </c>
       <c r="BF185">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG185">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH185">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI185">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BJ185">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BK185">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:63">
@@ -36555,7 +36555,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>5557350</v>
+        <v>5557347</v>
       </c>
       <c r="C186" t="s">
         <v>63</v>
@@ -36570,10 +36570,10 @@
         <v>19</v>
       </c>
       <c r="G186" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H186" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -36600,61 +36600,61 @@
         <v>85</v>
       </c>
       <c r="Q186">
+        <v>5</v>
+      </c>
+      <c r="R186">
         <v>3</v>
       </c>
-      <c r="R186">
-        <v>7</v>
-      </c>
       <c r="S186">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T186">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="U186">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V186">
-        <v>3.62</v>
+        <v>4.33</v>
       </c>
       <c r="W186">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="X186">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="Y186">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="Z186">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB186">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AC186">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AD186">
         <v>3.05</v>
       </c>
       <c r="AE186">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="AF186">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AG186">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="AH186">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AI186">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="AJ186">
         <v>2.35</v>
@@ -36663,82 +36663,82 @@
         <v>1.5</v>
       </c>
       <c r="AL186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM186">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AN186">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AO186">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP186">
+        <v>0</v>
+      </c>
+      <c r="AQ186">
+        <v>2.33</v>
+      </c>
+      <c r="AR186">
+        <v>1.63</v>
+      </c>
+      <c r="AS186">
+        <v>2.4</v>
+      </c>
+      <c r="AT186">
         <v>1.44</v>
       </c>
-      <c r="AQ186">
-        <v>1.75</v>
-      </c>
-      <c r="AR186">
-        <v>0.75</v>
-      </c>
-      <c r="AS186">
-        <v>1.89</v>
-      </c>
-      <c r="AT186">
-        <v>0.67</v>
-      </c>
       <c r="AU186">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AV186">
-        <v>0.98</v>
+        <v>1.36</v>
       </c>
       <c r="AW186">
-        <v>2.55</v>
+        <v>3.26</v>
       </c>
       <c r="AX186">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AY186">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ186">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="BA186">
         <v>0</v>
       </c>
       <c r="BB186">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BC186">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BD186">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BE186">
         <v>0</v>
       </c>
       <c r="BF186">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG186">
+        <v>0</v>
+      </c>
+      <c r="BH186">
+        <v>3</v>
+      </c>
+      <c r="BI186">
         <v>5</v>
       </c>
-      <c r="BH186">
-        <v>1</v>
-      </c>
-      <c r="BI186">
-        <v>16</v>
-      </c>
       <c r="BJ186">
+        <v>11</v>
+      </c>
+      <c r="BK186">
         <v>5</v>
-      </c>
-      <c r="BK186">
-        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:63">
@@ -36746,7 +36746,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>5557346</v>
+        <v>5557348</v>
       </c>
       <c r="C187" t="s">
         <v>63</v>
@@ -36761,25 +36761,25 @@
         <v>19</v>
       </c>
       <c r="G187" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H187" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
       <c r="K187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N187">
         <v>4</v>
@@ -36788,148 +36788,148 @@
         <v>208</v>
       </c>
       <c r="P187" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="Q187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R187">
         <v>3</v>
       </c>
       <c r="S187">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T187">
-        <v>1.91</v>
+        <v>2.57</v>
       </c>
       <c r="U187">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>8.5</v>
+        <v>4.95</v>
       </c>
       <c r="W187">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X187">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>3.15</v>
       </c>
       <c r="Z187">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AA187">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="AB187">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC187">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="AD187">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="AE187">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="AF187">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG187">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AH187">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AI187">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AJ187">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AK187">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AL187">
-        <v>2.51</v>
+        <v>2.07</v>
       </c>
       <c r="AM187">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AN187">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="AO187">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AP187">
-        <v>2.82</v>
+        <v>1.83</v>
       </c>
       <c r="AQ187">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AR187">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AS187">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="AT187">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AU187">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AV187">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AW187">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="AX187">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="AY187">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AZ187">
-        <v>5</v>
+        <v>2.64</v>
       </c>
       <c r="BA187">
         <v>0</v>
       </c>
       <c r="BB187">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="BC187">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="BD187">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="BE187">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BF187">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG187">
         <v>4</v>
       </c>
       <c r="BH187">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ187">
         <v>13</v>
       </c>
       <c r="BK187">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:63">
@@ -36937,7 +36937,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>5557348</v>
+        <v>5557346</v>
       </c>
       <c r="C188" t="s">
         <v>63</v>
@@ -36952,25 +36952,25 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H188" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>1</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N188">
         <v>4</v>
@@ -36979,148 +36979,148 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="Q188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R188">
         <v>3</v>
       </c>
       <c r="S188">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T188">
-        <v>2.57</v>
+        <v>1.91</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V188">
-        <v>4.95</v>
+        <v>8.5</v>
       </c>
       <c r="W188">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X188">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="Y188">
         <v>3.15</v>
       </c>
       <c r="Z188">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AA188">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="AB188">
+        <v>1.04</v>
+      </c>
+      <c r="AC188">
+        <v>1.33</v>
+      </c>
+      <c r="AD188">
+        <v>4.3</v>
+      </c>
+      <c r="AE188">
+        <v>9.5</v>
+      </c>
+      <c r="AF188">
+        <v>1.04</v>
+      </c>
+      <c r="AG188">
+        <v>7.5</v>
+      </c>
+      <c r="AH188">
+        <v>1.37</v>
+      </c>
+      <c r="AI188">
+        <v>2.75</v>
+      </c>
+      <c r="AJ188">
+        <v>2.15</v>
+      </c>
+      <c r="AK188">
+        <v>1.6</v>
+      </c>
+      <c r="AL188">
+        <v>2.51</v>
+      </c>
+      <c r="AM188">
+        <v>1.44</v>
+      </c>
+      <c r="AN188">
         <v>1.03</v>
       </c>
-      <c r="AC188">
-        <v>1.95</v>
-      </c>
-      <c r="AD188">
-        <v>3.15</v>
-      </c>
-      <c r="AE188">
-        <v>3.8</v>
-      </c>
-      <c r="AF188">
-        <v>1.06</v>
-      </c>
-      <c r="AG188">
-        <v>6.8</v>
-      </c>
-      <c r="AH188">
-        <v>1.43</v>
-      </c>
-      <c r="AI188">
-        <v>2.54</v>
-      </c>
-      <c r="AJ188">
-        <v>2.45</v>
-      </c>
-      <c r="AK188">
-        <v>1.5</v>
-      </c>
-      <c r="AL188">
-        <v>2.07</v>
-      </c>
-      <c r="AM188">
-        <v>1.64</v>
-      </c>
-      <c r="AN188">
-        <v>1.2</v>
-      </c>
       <c r="AO188">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AP188">
-        <v>1.83</v>
+        <v>2.82</v>
       </c>
       <c r="AQ188">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AR188">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS188">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="AT188">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AU188">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AV188">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AW188">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="AX188">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="AY188">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AZ188">
-        <v>2.64</v>
+        <v>5</v>
       </c>
       <c r="BA188">
         <v>0</v>
       </c>
       <c r="BB188">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC188">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="BD188">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="BE188">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="BF188">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG188">
         <v>4</v>
       </c>
       <c r="BH188">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ188">
         <v>13</v>
       </c>
       <c r="BK188">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:63">
@@ -37128,7 +37128,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>5557347</v>
+        <v>5557354</v>
       </c>
       <c r="C189" t="s">
         <v>63</v>
@@ -37143,19 +37143,19 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H189" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <v>1</v>
@@ -37173,55 +37173,55 @@
         <v>85</v>
       </c>
       <c r="Q189">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R189">
         <v>3</v>
       </c>
       <c r="S189">
+        <v>10</v>
+      </c>
+      <c r="T189">
+        <v>2.9</v>
+      </c>
+      <c r="U189">
+        <v>1.92</v>
+      </c>
+      <c r="V189">
+        <v>3.96</v>
+      </c>
+      <c r="W189">
+        <v>1.51</v>
+      </c>
+      <c r="X189">
+        <v>2.39</v>
+      </c>
+      <c r="Y189">
+        <v>3.34</v>
+      </c>
+      <c r="Z189">
+        <v>1.28</v>
+      </c>
+      <c r="AA189">
         <v>8</v>
       </c>
-      <c r="T189">
-        <v>2.88</v>
-      </c>
-      <c r="U189">
-        <v>1.83</v>
-      </c>
-      <c r="V189">
-        <v>4.33</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
-        <v>0</v>
-      </c>
       <c r="AB189">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AD189">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AE189">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AF189">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG189">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AH189">
         <v>1.5</v>
@@ -37230,88 +37230,88 @@
         <v>2.4</v>
       </c>
       <c r="AJ189">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AK189">
         <v>1.5</v>
       </c>
       <c r="AL189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM189">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AN189">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AO189">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP189">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ189">
-        <v>2.33</v>
+        <v>1.63</v>
       </c>
       <c r="AR189">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AS189">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="AT189">
-        <v>1.44</v>
+        <v>0.89</v>
       </c>
       <c r="AU189">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AV189">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AW189">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="AX189">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AY189">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AZ189">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BA189">
         <v>0</v>
       </c>
       <c r="BB189">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC189">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="BD189">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="BE189">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="BF189">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG189">
         <v>0</v>
       </c>
       <c r="BH189">
+        <v>12</v>
+      </c>
+      <c r="BI189">
         <v>3</v>
       </c>
-      <c r="BI189">
-        <v>5</v>
-      </c>
       <c r="BJ189">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="BK189">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:63">
@@ -37319,7 +37319,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>5557345</v>
+        <v>5557349</v>
       </c>
       <c r="C190" t="s">
         <v>63</v>
@@ -37334,142 +37334,142 @@
         <v>19</v>
       </c>
       <c r="G190" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H190" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O190" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P190" t="s">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="Q190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R190">
         <v>3</v>
       </c>
       <c r="S190">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T190">
-        <v>3.13</v>
+        <v>4</v>
       </c>
       <c r="U190">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V190">
-        <v>3.62</v>
+        <v>3.2</v>
       </c>
       <c r="W190">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="X190">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="Y190">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="Z190">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AB190">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AC190">
+        <v>3.1</v>
+      </c>
+      <c r="AD190">
+        <v>2.8</v>
+      </c>
+      <c r="AE190">
+        <v>2.35</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>1.5</v>
+      </c>
+      <c r="AI190">
+        <v>2.42</v>
+      </c>
+      <c r="AJ190">
         <v>2.3</v>
-      </c>
-      <c r="AD190">
-        <v>3</v>
-      </c>
-      <c r="AE190">
-        <v>3</v>
-      </c>
-      <c r="AF190">
-        <v>1.06</v>
-      </c>
-      <c r="AG190">
-        <v>6.8</v>
-      </c>
-      <c r="AH190">
-        <v>1.43</v>
-      </c>
-      <c r="AI190">
-        <v>2.54</v>
-      </c>
-      <c r="AJ190">
-        <v>2.35</v>
       </c>
       <c r="AK190">
         <v>1.5</v>
       </c>
       <c r="AL190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM190">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AN190">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AO190">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP190">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AQ190">
-        <v>1.89</v>
+        <v>0.5</v>
       </c>
       <c r="AR190">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AS190">
-        <v>1.8</v>
+        <v>0.44</v>
       </c>
       <c r="AT190">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AU190">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AV190">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="AW190">
-        <v>3.18</v>
+        <v>2.92</v>
       </c>
       <c r="AX190">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AY190">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AZ190">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="BA190">
         <v>0</v>
@@ -37478,31 +37478,31 @@
         <v>0</v>
       </c>
       <c r="BC190">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="BD190">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="BE190">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="BF190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG190">
         <v>4</v>
       </c>
       <c r="BH190">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BI190">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ190">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BK190">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:63">
@@ -37510,7 +37510,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>5557349</v>
+        <v>5557345</v>
       </c>
       <c r="C191" t="s">
         <v>63</v>
@@ -37525,142 +37525,142 @@
         <v>19</v>
       </c>
       <c r="G191" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H191" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>205</v>
+      </c>
+      <c r="P191" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q191">
         <v>3</v>
-      </c>
-      <c r="O191" t="s">
-        <v>211</v>
-      </c>
-      <c r="P191" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q191">
-        <v>4</v>
       </c>
       <c r="R191">
         <v>3</v>
       </c>
       <c r="S191">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T191">
-        <v>4</v>
+        <v>3.13</v>
       </c>
       <c r="U191">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="V191">
-        <v>3.2</v>
+        <v>3.62</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC191">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD191">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AE191">
+        <v>3</v>
+      </c>
+      <c r="AF191">
+        <v>1.06</v>
+      </c>
+      <c r="AG191">
+        <v>6.8</v>
+      </c>
+      <c r="AH191">
+        <v>1.43</v>
+      </c>
+      <c r="AI191">
+        <v>2.54</v>
+      </c>
+      <c r="AJ191">
         <v>2.35</v>
-      </c>
-      <c r="AF191">
-        <v>0</v>
-      </c>
-      <c r="AG191">
-        <v>0</v>
-      </c>
-      <c r="AH191">
-        <v>1.5</v>
-      </c>
-      <c r="AI191">
-        <v>2.42</v>
-      </c>
-      <c r="AJ191">
-        <v>2.3</v>
       </c>
       <c r="AK191">
         <v>1.5</v>
       </c>
       <c r="AL191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM191">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AN191">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AO191">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP191">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AQ191">
-        <v>0.5</v>
+        <v>1.89</v>
       </c>
       <c r="AR191">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AS191">
-        <v>0.44</v>
+        <v>1.8</v>
       </c>
       <c r="AT191">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="AU191">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AV191">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="AW191">
-        <v>2.92</v>
+        <v>3.18</v>
       </c>
       <c r="AX191">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AY191">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ191">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="BA191">
         <v>0</v>
@@ -37669,31 +37669,31 @@
         <v>0</v>
       </c>
       <c r="BC191">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BD191">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BE191">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BF191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG191">
         <v>4</v>
       </c>
       <c r="BH191">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BI191">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ191">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="BK191">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -849,6 +849,9 @@
   <si>
     <t>['43', '90+2']</t>
   </si>
+  <si>
+    <t>['30', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1209,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT2">
         <v>0.7</v>
@@ -3835,7 +3838,7 @@
         <v>0.44</v>
       </c>
       <c r="AT14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -7846,7 +7849,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU35">
         <v>2.77</v>
@@ -8798,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT40">
         <v>1.1</v>
@@ -13764,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT66">
         <v>0.5</v>
@@ -14340,7 +14343,7 @@
         <v>1.3</v>
       </c>
       <c r="AT69">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -15868,7 +15871,7 @@
         <v>1.33</v>
       </c>
       <c r="AT77">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU77">
         <v>2.18</v>
@@ -19685,7 +19688,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT97">
         <v>1.1</v>
@@ -21025,7 +21028,7 @@
         <v>2.3</v>
       </c>
       <c r="AT104">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU104">
         <v>1.18</v>
@@ -22359,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT111">
         <v>0.7</v>
@@ -22744,7 +22747,7 @@
         <v>1.6</v>
       </c>
       <c r="AT113">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU113">
         <v>1.86</v>
@@ -27137,7 +27140,7 @@
         <v>1.44</v>
       </c>
       <c r="AT136">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU136">
         <v>1.53</v>
@@ -28089,7 +28092,7 @@
         <v>1</v>
       </c>
       <c r="AS141">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT141">
         <v>1.11</v>
@@ -28280,7 +28283,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT142">
         <v>1.1</v>
@@ -30575,7 +30578,7 @@
         <v>1.8</v>
       </c>
       <c r="AT154">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU154">
         <v>1.66</v>
@@ -33437,7 +33440,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT169">
         <v>0.78</v>
@@ -34583,7 +34586,7 @@
         <v>1.78</v>
       </c>
       <c r="AS175">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT175">
         <v>1.6</v>
@@ -36687,7 +36690,7 @@
         <v>2.4</v>
       </c>
       <c r="AT186">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU186">
         <v>1.9</v>
@@ -37694,6 +37697,197 @@
       </c>
       <c r="BK191">
         <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7191756</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45171.66666666666</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>65</v>
+      </c>
+      <c r="H192" t="s">
+        <v>69</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>150</v>
+      </c>
+      <c r="P192" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q192">
+        <v>4</v>
+      </c>
+      <c r="R192">
+        <v>3</v>
+      </c>
+      <c r="S192">
+        <v>7</v>
+      </c>
+      <c r="T192">
+        <v>3.1</v>
+      </c>
+      <c r="U192">
+        <v>1.91</v>
+      </c>
+      <c r="V192">
+        <v>4</v>
+      </c>
+      <c r="W192">
+        <v>1.54</v>
+      </c>
+      <c r="X192">
+        <v>2.36</v>
+      </c>
+      <c r="Y192">
+        <v>3.5</v>
+      </c>
+      <c r="Z192">
+        <v>1.25</v>
+      </c>
+      <c r="AA192">
+        <v>9</v>
+      </c>
+      <c r="AB192">
+        <v>1.05</v>
+      </c>
+      <c r="AC192">
+        <v>2.37</v>
+      </c>
+      <c r="AD192">
+        <v>2.94</v>
+      </c>
+      <c r="AE192">
+        <v>3.16</v>
+      </c>
+      <c r="AF192">
+        <v>1.06</v>
+      </c>
+      <c r="AG192">
+        <v>6.6</v>
+      </c>
+      <c r="AH192">
+        <v>1.5</v>
+      </c>
+      <c r="AI192">
+        <v>2.3</v>
+      </c>
+      <c r="AJ192">
+        <v>2.55</v>
+      </c>
+      <c r="AK192">
+        <v>1.47</v>
+      </c>
+      <c r="AL192">
+        <v>2.05</v>
+      </c>
+      <c r="AM192">
+        <v>1.68</v>
+      </c>
+      <c r="AN192">
+        <v>1.22</v>
+      </c>
+      <c r="AO192">
+        <v>1.28</v>
+      </c>
+      <c r="AP192">
+        <v>1.63</v>
+      </c>
+      <c r="AQ192">
+        <v>2.11</v>
+      </c>
+      <c r="AR192">
+        <v>1.44</v>
+      </c>
+      <c r="AS192">
+        <v>1.9</v>
+      </c>
+      <c r="AT192">
+        <v>1.6</v>
+      </c>
+      <c r="AU192">
+        <v>1.89</v>
+      </c>
+      <c r="AV192">
+        <v>1.26</v>
+      </c>
+      <c r="AW192">
+        <v>3.15</v>
+      </c>
+      <c r="AX192">
+        <v>1.56</v>
+      </c>
+      <c r="AY192">
+        <v>9.4</v>
+      </c>
+      <c r="AZ192">
+        <v>2.7</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>1.29</v>
+      </c>
+      <c r="BC192">
+        <v>1.52</v>
+      </c>
+      <c r="BD192">
+        <v>1.86</v>
+      </c>
+      <c r="BE192">
+        <v>2.4</v>
+      </c>
+      <c r="BF192">
+        <v>4</v>
+      </c>
+      <c r="BG192">
+        <v>5</v>
+      </c>
+      <c r="BH192">
+        <v>9</v>
+      </c>
+      <c r="BI192">
+        <v>8</v>
+      </c>
+      <c r="BJ192">
+        <v>13</v>
+      </c>
+      <c r="BK192">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,15 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['31', '90+2']</t>
+  </si>
+  <si>
+    <t>['35', '49']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -785,9 +794,6 @@
   </si>
   <si>
     <t>['71', '90']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['73']</t>
@@ -1212,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1838,7 +1844,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2029,7 +2035,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2310,7 +2316,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2498,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2793,7 +2799,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2880,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2984,7 +2990,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3071,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT10">
         <v>1.1</v>
@@ -3647,7 +3653,7 @@
         <v>1.78</v>
       </c>
       <c r="AT13">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3939,7 +3945,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4512,7 +4518,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>12</v>
@@ -4703,7 +4709,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4894,7 +4900,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5467,7 +5473,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6040,7 +6046,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6422,7 +6428,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6512,7 +6518,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6613,7 +6619,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6703,7 +6709,7 @@
         <v>1.8</v>
       </c>
       <c r="AT29">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU29">
         <v>1.52</v>
@@ -6804,7 +6810,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6995,7 +7001,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7273,7 +7279,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT32">
         <v>1.1</v>
@@ -7377,7 +7383,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7568,7 +7574,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7950,7 +7956,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8037,7 +8043,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT36">
         <v>0.8</v>
@@ -8141,7 +8147,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8231,7 +8237,7 @@
         <v>1.78</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8419,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT38">
         <v>0.7</v>
@@ -8905,7 +8911,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9860,7 +9866,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10523,7 +10529,7 @@
         <v>1.78</v>
       </c>
       <c r="AT49">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10624,7 +10630,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11096,7 +11102,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU52">
         <v>2.39</v>
@@ -11478,7 +11484,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU54">
         <v>1.42</v>
@@ -11770,7 +11776,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -12048,7 +12054,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT57">
         <v>1.2</v>
@@ -12152,7 +12158,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12239,7 +12245,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT58">
         <v>0.7</v>
@@ -12534,7 +12540,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12624,7 +12630,7 @@
         <v>1.89</v>
       </c>
       <c r="AT60">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU60">
         <v>1.61</v>
@@ -12812,7 +12818,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT61">
         <v>0.78</v>
@@ -13006,7 +13012,7 @@
         <v>1.9</v>
       </c>
       <c r="AT62">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -14253,7 +14259,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15208,7 +15214,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -16250,7 +16256,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT79">
         <v>1.1</v>
@@ -16354,7 +16360,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16545,7 +16551,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16736,7 +16742,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16927,7 +16933,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17017,7 +17023,7 @@
         <v>0.89</v>
       </c>
       <c r="AT83">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -17118,7 +17124,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17309,7 +17315,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17500,7 +17506,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17691,7 +17697,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17781,7 +17787,7 @@
         <v>1.8</v>
       </c>
       <c r="AT87">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17882,7 +17888,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17969,7 +17975,7 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT88">
         <v>0.7</v>
@@ -18073,7 +18079,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18160,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT89">
         <v>0.89</v>
@@ -18264,7 +18270,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18351,10 +18357,10 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT90">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU90">
         <v>1.76</v>
@@ -18455,7 +18461,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18646,7 +18652,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19601,7 +19607,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19983,7 +19989,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20070,7 +20076,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT99">
         <v>0.67</v>
@@ -20174,7 +20180,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20365,7 +20371,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20455,7 +20461,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -20643,7 +20649,7 @@
         <v>1.6</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT102">
         <v>1.56</v>
@@ -20938,7 +20944,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21025,7 +21031,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT104">
         <v>1.6</v>
@@ -21601,7 +21607,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU107">
         <v>1.35</v>
@@ -22466,7 +22472,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22657,7 +22663,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22744,7 +22750,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT113">
         <v>1.6</v>
@@ -22848,7 +22854,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22935,7 +22941,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT114">
         <v>0.5</v>
@@ -23039,7 +23045,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23421,7 +23427,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23612,7 +23618,7 @@
         <v>113</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23803,7 +23809,7 @@
         <v>85</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>9</v>
@@ -23893,7 +23899,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU119">
         <v>1.54</v>
@@ -23994,7 +24000,7 @@
         <v>164</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24185,7 +24191,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24275,7 +24281,7 @@
         <v>1.56</v>
       </c>
       <c r="AT121">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU121">
         <v>1.93</v>
@@ -25036,7 +25042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25994,7 +26000,7 @@
         <v>2.3</v>
       </c>
       <c r="AT130">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU130">
         <v>1.68</v>
@@ -26182,7 +26188,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT131">
         <v>1.1</v>
@@ -26477,7 +26483,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="Q133">
         <v>13</v>
@@ -26758,7 +26764,7 @@
         <v>1.89</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU134">
         <v>1.6</v>
@@ -26946,7 +26952,7 @@
         <v>0.86</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT135">
         <v>0.7</v>
@@ -27050,7 +27056,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27241,7 +27247,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27519,7 +27525,7 @@
         <v>1.17</v>
       </c>
       <c r="AS138">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT138">
         <v>0.89</v>
@@ -27814,7 +27820,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28005,7 +28011,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28095,7 +28101,7 @@
         <v>1.9</v>
       </c>
       <c r="AT141">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU141">
         <v>1.88</v>
@@ -28387,7 +28393,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28578,7 +28584,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28960,7 +28966,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29151,7 +29157,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29429,7 +29435,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT148">
         <v>0.7</v>
@@ -29623,7 +29629,7 @@
         <v>1.5</v>
       </c>
       <c r="AT149">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU149">
         <v>1.45</v>
@@ -30769,7 +30775,7 @@
         <v>1.56</v>
       </c>
       <c r="AT155">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU155">
         <v>1.82</v>
@@ -31061,7 +31067,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31912,7 +31918,7 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT161">
         <v>1.2</v>
@@ -32103,10 +32109,10 @@
         <v>2</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT162">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU162">
         <v>1.94</v>
@@ -32589,7 +32595,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32679,7 +32685,7 @@
         <v>2.3</v>
       </c>
       <c r="AT165">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU165">
         <v>1.86</v>
@@ -32971,7 +32977,7 @@
         <v>195</v>
       </c>
       <c r="P167" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33058,7 +33064,7 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT167">
         <v>0.89</v>
@@ -33353,7 +33359,7 @@
         <v>196</v>
       </c>
       <c r="P169" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33926,7 +33932,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34117,7 +34123,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q173">
         <v>8</v>
@@ -34204,7 +34210,7 @@
         <v>0.89</v>
       </c>
       <c r="AS173">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT173">
         <v>1.1</v>
@@ -34308,7 +34314,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34398,7 +34404,7 @@
         <v>0.89</v>
       </c>
       <c r="AT174">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU174">
         <v>1.62</v>
@@ -34589,7 +34595,7 @@
         <v>1.9</v>
       </c>
       <c r="AT175">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU175">
         <v>1.83</v>
@@ -35263,7 +35269,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35350,7 +35356,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT179">
         <v>0.8</v>
@@ -35541,7 +35547,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT180">
         <v>0.5600000000000001</v>
@@ -36027,7 +36033,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q183">
         <v>16</v>
@@ -36117,7 +36123,7 @@
         <v>1.3</v>
       </c>
       <c r="AT183">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU183">
         <v>1.57</v>
@@ -36791,7 +36797,7 @@
         <v>208</v>
       </c>
       <c r="P187" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37364,7 +37370,7 @@
         <v>211</v>
       </c>
       <c r="P190" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37743,10 +37749,10 @@
         <v>3</v>
       </c>
       <c r="O192" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -37888,6 +37894,579 @@
       </c>
       <c r="BK192">
         <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7191755</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45172.66666666666</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s">
+        <v>79</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>213</v>
+      </c>
+      <c r="P193" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q193">
+        <v>11</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>15</v>
+      </c>
+      <c r="T193">
+        <v>3.1</v>
+      </c>
+      <c r="U193">
+        <v>1.91</v>
+      </c>
+      <c r="V193">
+        <v>4</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>2.16</v>
+      </c>
+      <c r="AD193">
+        <v>2.83</v>
+      </c>
+      <c r="AE193">
+        <v>2.92</v>
+      </c>
+      <c r="AF193">
+        <v>0</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>1.49</v>
+      </c>
+      <c r="AI193">
+        <v>2.48</v>
+      </c>
+      <c r="AJ193">
+        <v>2.69</v>
+      </c>
+      <c r="AK193">
+        <v>1.41</v>
+      </c>
+      <c r="AL193">
+        <v>0</v>
+      </c>
+      <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AN193">
+        <v>0</v>
+      </c>
+      <c r="AO193">
+        <v>0</v>
+      </c>
+      <c r="AP193">
+        <v>0</v>
+      </c>
+      <c r="AQ193">
+        <v>2</v>
+      </c>
+      <c r="AR193">
+        <v>1.33</v>
+      </c>
+      <c r="AS193">
+        <v>2.1</v>
+      </c>
+      <c r="AT193">
+        <v>1.2</v>
+      </c>
+      <c r="AU193">
+        <v>2.01</v>
+      </c>
+      <c r="AV193">
+        <v>1.33</v>
+      </c>
+      <c r="AW193">
+        <v>3.34</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>6</v>
+      </c>
+      <c r="BG193">
+        <v>3</v>
+      </c>
+      <c r="BH193">
+        <v>6</v>
+      </c>
+      <c r="BI193">
+        <v>4</v>
+      </c>
+      <c r="BJ193">
+        <v>12</v>
+      </c>
+      <c r="BK193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7191757</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45172.70833333334</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>70</v>
+      </c>
+      <c r="H194" t="s">
+        <v>66</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>174</v>
+      </c>
+      <c r="P194" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q194">
+        <v>5</v>
+      </c>
+      <c r="R194">
+        <v>3</v>
+      </c>
+      <c r="S194">
+        <v>8</v>
+      </c>
+      <c r="T194">
+        <v>2.4</v>
+      </c>
+      <c r="U194">
+        <v>1.91</v>
+      </c>
+      <c r="V194">
+        <v>5.5</v>
+      </c>
+      <c r="W194">
+        <v>1.52</v>
+      </c>
+      <c r="X194">
+        <v>2.38</v>
+      </c>
+      <c r="Y194">
+        <v>3.48</v>
+      </c>
+      <c r="Z194">
+        <v>1.26</v>
+      </c>
+      <c r="AA194">
+        <v>9.4</v>
+      </c>
+      <c r="AB194">
+        <v>1.03</v>
+      </c>
+      <c r="AC194">
+        <v>1.65</v>
+      </c>
+      <c r="AD194">
+        <v>3.55</v>
+      </c>
+      <c r="AE194">
+        <v>4.3</v>
+      </c>
+      <c r="AF194">
+        <v>1.06</v>
+      </c>
+      <c r="AG194">
+        <v>6.6</v>
+      </c>
+      <c r="AH194">
+        <v>1.44</v>
+      </c>
+      <c r="AI194">
+        <v>2.65</v>
+      </c>
+      <c r="AJ194">
+        <v>2.45</v>
+      </c>
+      <c r="AK194">
+        <v>1.5</v>
+      </c>
+      <c r="AL194">
+        <v>2.09</v>
+      </c>
+      <c r="AM194">
+        <v>1.63</v>
+      </c>
+      <c r="AN194">
+        <v>1.23</v>
+      </c>
+      <c r="AO194">
+        <v>1.31</v>
+      </c>
+      <c r="AP194">
+        <v>1.71</v>
+      </c>
+      <c r="AQ194">
+        <v>2.3</v>
+      </c>
+      <c r="AR194">
+        <v>1.11</v>
+      </c>
+      <c r="AS194">
+        <v>2.18</v>
+      </c>
+      <c r="AT194">
+        <v>1.1</v>
+      </c>
+      <c r="AU194">
+        <v>1.43</v>
+      </c>
+      <c r="AV194">
+        <v>1.38</v>
+      </c>
+      <c r="AW194">
+        <v>2.81</v>
+      </c>
+      <c r="AX194">
+        <v>1.55</v>
+      </c>
+      <c r="AY194">
+        <v>7</v>
+      </c>
+      <c r="AZ194">
+        <v>3.2</v>
+      </c>
+      <c r="BA194">
+        <v>1.2</v>
+      </c>
+      <c r="BB194">
+        <v>1.39</v>
+      </c>
+      <c r="BC194">
+        <v>1.74</v>
+      </c>
+      <c r="BD194">
+        <v>2.15</v>
+      </c>
+      <c r="BE194">
+        <v>2.84</v>
+      </c>
+      <c r="BF194">
+        <v>5</v>
+      </c>
+      <c r="BG194">
+        <v>5</v>
+      </c>
+      <c r="BH194">
+        <v>10</v>
+      </c>
+      <c r="BI194">
+        <v>2</v>
+      </c>
+      <c r="BJ194">
+        <v>15</v>
+      </c>
+      <c r="BK194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7191758</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45172.75</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>72</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>214</v>
+      </c>
+      <c r="P195" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>7</v>
+      </c>
+      <c r="S195">
+        <v>8</v>
+      </c>
+      <c r="T195">
+        <v>2.74</v>
+      </c>
+      <c r="U195">
+        <v>1.88</v>
+      </c>
+      <c r="V195">
+        <v>4.81</v>
+      </c>
+      <c r="W195">
+        <v>1.55</v>
+      </c>
+      <c r="X195">
+        <v>2.3</v>
+      </c>
+      <c r="Y195">
+        <v>3.56</v>
+      </c>
+      <c r="Z195">
+        <v>1.25</v>
+      </c>
+      <c r="AA195">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB195">
+        <v>1.02</v>
+      </c>
+      <c r="AC195">
+        <v>2.05</v>
+      </c>
+      <c r="AD195">
+        <v>3</v>
+      </c>
+      <c r="AE195">
+        <v>3.6</v>
+      </c>
+      <c r="AF195">
+        <v>1.07</v>
+      </c>
+      <c r="AG195">
+        <v>6.25</v>
+      </c>
+      <c r="AH195">
+        <v>1.5</v>
+      </c>
+      <c r="AI195">
+        <v>2.45</v>
+      </c>
+      <c r="AJ195">
+        <v>2.51</v>
+      </c>
+      <c r="AK195">
+        <v>1.4</v>
+      </c>
+      <c r="AL195">
+        <v>2.14</v>
+      </c>
+      <c r="AM195">
+        <v>1.67</v>
+      </c>
+      <c r="AN195">
+        <v>1.23</v>
+      </c>
+      <c r="AO195">
+        <v>1.32</v>
+      </c>
+      <c r="AP195">
+        <v>1.68</v>
+      </c>
+      <c r="AQ195">
+        <v>1.6</v>
+      </c>
+      <c r="AR195">
+        <v>1.6</v>
+      </c>
+      <c r="AS195">
+        <v>1.73</v>
+      </c>
+      <c r="AT195">
+        <v>1.45</v>
+      </c>
+      <c r="AU195">
+        <v>1.85</v>
+      </c>
+      <c r="AV195">
+        <v>1.29</v>
+      </c>
+      <c r="AW195">
+        <v>3.14</v>
+      </c>
+      <c r="AX195">
+        <v>1.45</v>
+      </c>
+      <c r="AY195">
+        <v>8</v>
+      </c>
+      <c r="AZ195">
+        <v>3.5</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>1.4</v>
+      </c>
+      <c r="BC195">
+        <v>1.68</v>
+      </c>
+      <c r="BD195">
+        <v>2.07</v>
+      </c>
+      <c r="BE195">
+        <v>2.5</v>
+      </c>
+      <c r="BF195">
+        <v>3</v>
+      </c>
+      <c r="BG195">
+        <v>6</v>
+      </c>
+      <c r="BH195">
+        <v>5</v>
+      </c>
+      <c r="BI195">
+        <v>4</v>
+      </c>
+      <c r="BJ195">
+        <v>8</v>
+      </c>
+      <c r="BK195">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,9 @@
     <t>['35', '49']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -1218,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1844,7 +1847,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2035,7 +2038,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2313,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT6">
         <v>1.45</v>
@@ -2799,7 +2802,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2990,7 +2993,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3459,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT12">
         <v>0.7</v>
@@ -3945,7 +3948,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4518,7 +4521,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>12</v>
@@ -4709,7 +4712,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4799,7 +4802,7 @@
         <v>1.3</v>
       </c>
       <c r="AT19">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4900,7 +4903,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5181,7 +5184,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5372,7 +5375,7 @@
         <v>1.8</v>
       </c>
       <c r="AT22">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU22">
         <v>1.79</v>
@@ -5473,7 +5476,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5563,7 +5566,7 @@
         <v>0.44</v>
       </c>
       <c r="AT23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>2.19</v>
@@ -6046,7 +6049,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6428,7 +6431,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6619,7 +6622,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6706,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT29">
         <v>1.1</v>
@@ -6810,7 +6813,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7001,7 +7004,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7383,7 +7386,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7574,7 +7577,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7956,7 +7959,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8147,7 +8150,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8234,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>1.2</v>
@@ -8911,7 +8914,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9380,7 +9383,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT43">
         <v>1.2</v>
@@ -9765,7 +9768,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9866,7 +9869,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10147,7 +10150,7 @@
         <v>2.3</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU47">
         <v>1.56</v>
@@ -10630,7 +10633,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11776,7 +11779,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11863,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT56">
         <v>1.1</v>
@@ -12158,7 +12161,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12540,7 +12543,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13200,7 +13203,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
         <v>1.56</v>
@@ -13585,7 +13588,7 @@
         <v>2.4</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU65">
         <v>1.95</v>
@@ -14158,7 +14161,7 @@
         <v>1.78</v>
       </c>
       <c r="AT68">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14259,7 +14262,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15110,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT73">
         <v>0.7</v>
@@ -15214,7 +15217,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -16259,7 +16262,7 @@
         <v>2.18</v>
       </c>
       <c r="AT79">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.18</v>
@@ -16360,7 +16363,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16551,7 +16554,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16742,7 +16745,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16933,7 +16936,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17124,7 +17127,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17315,7 +17318,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17402,7 +17405,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT85">
         <v>0.78</v>
@@ -17506,7 +17509,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17697,7 +17700,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17888,7 +17891,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -18079,7 +18082,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18270,7 +18273,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18461,7 +18464,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18652,7 +18655,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19121,7 +19124,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT94">
         <v>0.7</v>
@@ -19607,7 +19610,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19697,7 +19700,7 @@
         <v>1.9</v>
       </c>
       <c r="AT97">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.98</v>
@@ -19989,7 +19992,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20079,7 +20082,7 @@
         <v>1.73</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU99">
         <v>1.64</v>
@@ -20180,7 +20183,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20371,7 +20374,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20944,7 +20947,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21413,7 +21416,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT106">
         <v>0.8</v>
@@ -22472,7 +22475,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22559,10 +22562,10 @@
         <v>0.2</v>
       </c>
       <c r="AS112">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT112">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22663,7 +22666,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22854,7 +22857,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23045,7 +23048,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23618,7 +23621,7 @@
         <v>113</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23809,7 +23812,7 @@
         <v>85</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>9</v>
@@ -24000,7 +24003,7 @@
         <v>164</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24191,7 +24194,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24469,7 +24472,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT122">
         <v>1.1</v>
@@ -24663,7 +24666,7 @@
         <v>1.44</v>
       </c>
       <c r="AT123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU123">
         <v>1.56</v>
@@ -26379,7 +26382,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT132">
         <v>0.5600000000000001</v>
@@ -27056,7 +27059,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27247,7 +27250,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27820,7 +27823,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28011,7 +28014,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28393,7 +28396,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28584,7 +28587,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28966,7 +28969,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29056,7 +29059,7 @@
         <v>1.33</v>
       </c>
       <c r="AT146">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU146">
         <v>2.32</v>
@@ -29157,7 +29160,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29817,10 +29820,10 @@
         <v>1.29</v>
       </c>
       <c r="AS150">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT150">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.72</v>
@@ -30199,7 +30202,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -31067,7 +31070,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31157,7 +31160,7 @@
         <v>0.89</v>
       </c>
       <c r="AT157">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU157">
         <v>1.67</v>
@@ -31348,7 +31351,7 @@
         <v>2.4</v>
       </c>
       <c r="AT158">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU158">
         <v>1.95</v>
@@ -32491,7 +32494,7 @@
         <v>0.63</v>
       </c>
       <c r="AS164">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT164">
         <v>0.5</v>
@@ -32595,7 +32598,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32977,7 +32980,7 @@
         <v>195</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33359,7 +33362,7 @@
         <v>196</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33932,7 +33935,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34019,7 +34022,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT172">
         <v>0.89</v>
@@ -34123,7 +34126,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q173">
         <v>8</v>
@@ -34314,7 +34317,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -35269,7 +35272,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -36033,7 +36036,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q183">
         <v>16</v>
@@ -36505,7 +36508,7 @@
         <v>1.89</v>
       </c>
       <c r="AT185">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU185">
         <v>1.57</v>
@@ -36797,7 +36800,7 @@
         <v>208</v>
       </c>
       <c r="P187" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -36887,7 +36890,7 @@
         <v>1.9</v>
       </c>
       <c r="AT187">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU187">
         <v>1.82</v>
@@ -37266,7 +37269,7 @@
         <v>1</v>
       </c>
       <c r="AS189">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT189">
         <v>0.89</v>
@@ -37370,7 +37373,7 @@
         <v>211</v>
       </c>
       <c r="P190" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37752,7 +37755,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38325,7 +38328,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q195">
         <v>1</v>
@@ -38467,6 +38470,388 @@
       </c>
       <c r="BK195">
         <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7191762</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45178.70833333334</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196" t="s">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s">
+        <v>70</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>85</v>
+      </c>
+      <c r="P196" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q196">
+        <v>6</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>8</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>1.83</v>
+      </c>
+      <c r="V196">
+        <v>4.33</v>
+      </c>
+      <c r="W196">
+        <v>1.57</v>
+      </c>
+      <c r="X196">
+        <v>2.26</v>
+      </c>
+      <c r="Y196">
+        <v>3.56</v>
+      </c>
+      <c r="Z196">
+        <v>1.25</v>
+      </c>
+      <c r="AA196">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB196">
+        <v>1.02</v>
+      </c>
+      <c r="AC196">
+        <v>2.17</v>
+      </c>
+      <c r="AD196">
+        <v>2.98</v>
+      </c>
+      <c r="AE196">
+        <v>3.45</v>
+      </c>
+      <c r="AF196">
+        <v>1.08</v>
+      </c>
+      <c r="AG196">
+        <v>6.05</v>
+      </c>
+      <c r="AH196">
+        <v>1.52</v>
+      </c>
+      <c r="AI196">
+        <v>2.38</v>
+      </c>
+      <c r="AJ196">
+        <v>2.7</v>
+      </c>
+      <c r="AK196">
+        <v>1.41</v>
+      </c>
+      <c r="AL196">
+        <v>2.09</v>
+      </c>
+      <c r="AM196">
+        <v>1.71</v>
+      </c>
+      <c r="AN196">
+        <v>1.27</v>
+      </c>
+      <c r="AO196">
+        <v>1.32</v>
+      </c>
+      <c r="AP196">
+        <v>1.52</v>
+      </c>
+      <c r="AQ196">
+        <v>1.78</v>
+      </c>
+      <c r="AR196">
+        <v>0.67</v>
+      </c>
+      <c r="AS196">
+        <v>1.6</v>
+      </c>
+      <c r="AT196">
+        <v>0.9</v>
+      </c>
+      <c r="AU196">
+        <v>1.78</v>
+      </c>
+      <c r="AV196">
+        <v>1.1</v>
+      </c>
+      <c r="AW196">
+        <v>2.88</v>
+      </c>
+      <c r="AX196">
+        <v>1.67</v>
+      </c>
+      <c r="AY196">
+        <v>7</v>
+      </c>
+      <c r="AZ196">
+        <v>2.8</v>
+      </c>
+      <c r="BA196">
+        <v>1.22</v>
+      </c>
+      <c r="BB196">
+        <v>1.5</v>
+      </c>
+      <c r="BC196">
+        <v>1.75</v>
+      </c>
+      <c r="BD196">
+        <v>2.2</v>
+      </c>
+      <c r="BE196">
+        <v>2.98</v>
+      </c>
+      <c r="BF196">
+        <v>0</v>
+      </c>
+      <c r="BG196">
+        <v>3</v>
+      </c>
+      <c r="BH196">
+        <v>12</v>
+      </c>
+      <c r="BI196">
+        <v>7</v>
+      </c>
+      <c r="BJ196">
+        <v>12</v>
+      </c>
+      <c r="BK196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7191760</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45178.79166666666</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197" t="s">
+        <v>69</v>
+      </c>
+      <c r="H197" t="s">
+        <v>73</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>215</v>
+      </c>
+      <c r="P197" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q197">
+        <v>5</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>7</v>
+      </c>
+      <c r="T197">
+        <v>2.63</v>
+      </c>
+      <c r="U197">
+        <v>1.95</v>
+      </c>
+      <c r="V197">
+        <v>4.75</v>
+      </c>
+      <c r="W197">
+        <v>1.53</v>
+      </c>
+      <c r="X197">
+        <v>2.34</v>
+      </c>
+      <c r="Y197">
+        <v>3.42</v>
+      </c>
+      <c r="Z197">
+        <v>1.27</v>
+      </c>
+      <c r="AA197">
+        <v>9.1</v>
+      </c>
+      <c r="AB197">
+        <v>1.03</v>
+      </c>
+      <c r="AC197">
+        <v>1.91</v>
+      </c>
+      <c r="AD197">
+        <v>3</v>
+      </c>
+      <c r="AE197">
+        <v>3.9</v>
+      </c>
+      <c r="AF197">
+        <v>1.06</v>
+      </c>
+      <c r="AG197">
+        <v>6.5</v>
+      </c>
+      <c r="AH197">
+        <v>1.33</v>
+      </c>
+      <c r="AI197">
+        <v>3.1</v>
+      </c>
+      <c r="AJ197">
+        <v>2.45</v>
+      </c>
+      <c r="AK197">
+        <v>1.5</v>
+      </c>
+      <c r="AL197">
+        <v>2.07</v>
+      </c>
+      <c r="AM197">
+        <v>1.72</v>
+      </c>
+      <c r="AN197">
+        <v>1.19</v>
+      </c>
+      <c r="AO197">
+        <v>1.3</v>
+      </c>
+      <c r="AP197">
+        <v>1.7</v>
+      </c>
+      <c r="AQ197">
+        <v>1.8</v>
+      </c>
+      <c r="AR197">
+        <v>1.1</v>
+      </c>
+      <c r="AS197">
+        <v>1.91</v>
+      </c>
+      <c r="AT197">
+        <v>1</v>
+      </c>
+      <c r="AU197">
+        <v>1.79</v>
+      </c>
+      <c r="AV197">
+        <v>1.58</v>
+      </c>
+      <c r="AW197">
+        <v>3.37</v>
+      </c>
+      <c r="AX197">
+        <v>1.7</v>
+      </c>
+      <c r="AY197">
+        <v>7</v>
+      </c>
+      <c r="AZ197">
+        <v>2.7</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>1.3</v>
+      </c>
+      <c r="BC197">
+        <v>1.6</v>
+      </c>
+      <c r="BD197">
+        <v>1.95</v>
+      </c>
+      <c r="BE197">
+        <v>2.45</v>
+      </c>
+      <c r="BF197">
+        <v>7</v>
+      </c>
+      <c r="BG197">
+        <v>4</v>
+      </c>
+      <c r="BH197">
+        <v>6</v>
+      </c>
+      <c r="BI197">
+        <v>7</v>
+      </c>
+      <c r="BJ197">
+        <v>13</v>
+      </c>
+      <c r="BK197">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,12 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['45', '89']</t>
+  </si>
+  <si>
+    <t>['67', '81']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT3">
         <v>0.8</v>
@@ -1847,7 +1853,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2038,7 +2044,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2802,7 +2808,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2993,7 +2999,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3948,7 +3954,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4038,7 +4044,7 @@
         <v>1.9</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4226,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT16">
         <v>0.7</v>
@@ -4521,7 +4527,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>12</v>
@@ -4611,7 +4617,7 @@
         <v>1.56</v>
       </c>
       <c r="AT18">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4712,7 +4718,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4903,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5476,7 +5482,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6049,7 +6055,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6139,7 +6145,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU26">
         <v>2.95</v>
@@ -6431,7 +6437,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6622,7 +6628,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6813,7 +6819,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7004,7 +7010,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7091,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT31">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU31">
         <v>2.25</v>
@@ -7386,7 +7392,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7577,7 +7583,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7959,7 +7965,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8150,7 +8156,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8619,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT39">
         <v>0.7</v>
@@ -8914,7 +8920,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9386,7 +9392,7 @@
         <v>1.91</v>
       </c>
       <c r="AT43">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU43">
         <v>1.42</v>
@@ -9869,7 +9875,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9959,7 +9965,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU46">
         <v>1.28</v>
@@ -10147,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT47">
         <v>0.9</v>
@@ -10338,7 +10344,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT48">
         <v>0.8</v>
@@ -10633,7 +10639,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11779,7 +11785,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -12060,7 +12066,7 @@
         <v>2.18</v>
       </c>
       <c r="AT57">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU57">
         <v>1.25</v>
@@ -12161,7 +12167,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12543,7 +12549,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13206,7 +13212,7 @@
         <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13585,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT65">
         <v>0.9</v>
@@ -14262,7 +14268,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14922,10 +14928,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT72">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU72">
         <v>1.45</v>
@@ -15217,7 +15223,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15495,7 +15501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT75">
         <v>0.89</v>
@@ -16071,7 +16077,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16363,7 +16369,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16554,7 +16560,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16745,7 +16751,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16936,7 +16942,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17127,7 +17133,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17318,7 +17324,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17509,7 +17515,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17599,7 +17605,7 @@
         <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU86">
         <v>1.58</v>
@@ -17700,7 +17706,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17891,7 +17897,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -18082,7 +18088,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18273,7 +18279,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18464,7 +18470,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18655,7 +18661,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19506,7 +19512,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT96">
         <v>0.5600000000000001</v>
@@ -19610,7 +19616,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19888,7 +19894,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19992,7 +19998,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -20183,7 +20189,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20374,7 +20380,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20655,7 +20661,7 @@
         <v>2.1</v>
       </c>
       <c r="AT102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU102">
         <v>1.93</v>
@@ -20947,7 +20953,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21989,7 +21995,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT109">
         <v>0.89</v>
@@ -22475,7 +22481,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22666,7 +22672,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22857,7 +22863,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23048,7 +23054,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23520,7 +23526,7 @@
         <v>1.3</v>
       </c>
       <c r="AT117">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU117">
         <v>1.64</v>
@@ -23621,7 +23627,7 @@
         <v>113</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23812,7 +23818,7 @@
         <v>85</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>9</v>
@@ -24003,7 +24009,7 @@
         <v>164</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24194,7 +24200,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -25430,7 +25436,7 @@
         <v>1.6</v>
       </c>
       <c r="AT127">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU127">
         <v>1.91</v>
@@ -25618,7 +25624,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT128">
         <v>0.7</v>
@@ -26000,7 +26006,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT130">
         <v>1.45</v>
@@ -27059,7 +27065,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27250,7 +27256,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27340,7 +27346,7 @@
         <v>0.89</v>
       </c>
       <c r="AT137">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU137">
         <v>1.77</v>
@@ -27823,7 +27829,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28014,7 +28020,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28396,7 +28402,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28483,7 +28489,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT143">
         <v>0.89</v>
@@ -28587,7 +28593,7 @@
         <v>181</v>
       </c>
       <c r="P144" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28865,7 +28871,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT145">
         <v>0.5</v>
@@ -28969,7 +28975,7 @@
         <v>120</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29160,7 +29166,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -31070,7 +31076,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31348,7 +31354,7 @@
         <v>1.25</v>
       </c>
       <c r="AS158">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT158">
         <v>1</v>
@@ -31924,7 +31930,7 @@
         <v>1.73</v>
       </c>
       <c r="AT161">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU161">
         <v>1.87</v>
@@ -32598,7 +32604,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32685,7 +32691,7 @@
         <v>1.14</v>
       </c>
       <c r="AS165">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT165">
         <v>1.2</v>
@@ -32879,7 +32885,7 @@
         <v>1.6</v>
       </c>
       <c r="AT166">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU166">
         <v>1.89</v>
@@ -32980,7 +32986,7 @@
         <v>195</v>
       </c>
       <c r="P167" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33362,7 +33368,7 @@
         <v>196</v>
       </c>
       <c r="P169" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33935,7 +33941,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34126,7 +34132,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q173">
         <v>8</v>
@@ -34317,7 +34323,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -35168,7 +35174,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT178">
         <v>0.78</v>
@@ -35272,7 +35278,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -36036,7 +36042,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q183">
         <v>16</v>
@@ -36696,7 +36702,7 @@
         <v>1.63</v>
       </c>
       <c r="AS186">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT186">
         <v>1.6</v>
@@ -36800,7 +36806,7 @@
         <v>208</v>
       </c>
       <c r="P187" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37373,7 +37379,7 @@
         <v>211</v>
       </c>
       <c r="P190" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37463,7 +37469,7 @@
         <v>0.44</v>
       </c>
       <c r="AT190">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU190">
         <v>1.77</v>
@@ -37654,7 +37660,7 @@
         <v>1.8</v>
       </c>
       <c r="AT191">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU191">
         <v>1.71</v>
@@ -37755,7 +37761,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38328,7 +38334,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q195">
         <v>1</v>
@@ -38519,7 +38525,7 @@
         <v>85</v>
       </c>
       <c r="P196" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38852,6 +38858,388 @@
       </c>
       <c r="BK197">
         <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7191759</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45179.66666666666</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198" t="s">
+        <v>79</v>
+      </c>
+      <c r="H198" t="s">
+        <v>65</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>216</v>
+      </c>
+      <c r="P198" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
+        <v>7</v>
+      </c>
+      <c r="S198">
+        <v>11</v>
+      </c>
+      <c r="T198">
+        <v>2.4</v>
+      </c>
+      <c r="U198">
+        <v>1.91</v>
+      </c>
+      <c r="V198">
+        <v>6.5</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <v>1.7</v>
+      </c>
+      <c r="AD198">
+        <v>3.1</v>
+      </c>
+      <c r="AE198">
+        <v>4.8</v>
+      </c>
+      <c r="AF198">
+        <v>0</v>
+      </c>
+      <c r="AG198">
+        <v>0</v>
+      </c>
+      <c r="AH198">
+        <v>1.56</v>
+      </c>
+      <c r="AI198">
+        <v>2.29</v>
+      </c>
+      <c r="AJ198">
+        <v>2.3</v>
+      </c>
+      <c r="AK198">
+        <v>1.5</v>
+      </c>
+      <c r="AL198">
+        <v>0</v>
+      </c>
+      <c r="AM198">
+        <v>0</v>
+      </c>
+      <c r="AN198">
+        <v>0</v>
+      </c>
+      <c r="AO198">
+        <v>0</v>
+      </c>
+      <c r="AP198">
+        <v>0</v>
+      </c>
+      <c r="AQ198">
+        <v>2.4</v>
+      </c>
+      <c r="AR198">
+        <v>1.2</v>
+      </c>
+      <c r="AS198">
+        <v>2.45</v>
+      </c>
+      <c r="AT198">
+        <v>1.09</v>
+      </c>
+      <c r="AU198">
+        <v>1.87</v>
+      </c>
+      <c r="AV198">
+        <v>1.19</v>
+      </c>
+      <c r="AW198">
+        <v>3.06</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="AZ198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>7</v>
+      </c>
+      <c r="BG198">
+        <v>4</v>
+      </c>
+      <c r="BH198">
+        <v>9</v>
+      </c>
+      <c r="BI198">
+        <v>6</v>
+      </c>
+      <c r="BJ198">
+        <v>16</v>
+      </c>
+      <c r="BK198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7191761</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45179.79166666666</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199" t="s">
+        <v>66</v>
+      </c>
+      <c r="H199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>217</v>
+      </c>
+      <c r="P199" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q199">
+        <v>8</v>
+      </c>
+      <c r="R199">
+        <v>5</v>
+      </c>
+      <c r="S199">
+        <v>13</v>
+      </c>
+      <c r="T199">
+        <v>2.63</v>
+      </c>
+      <c r="U199">
+        <v>1.91</v>
+      </c>
+      <c r="V199">
+        <v>4.75</v>
+      </c>
+      <c r="W199">
+        <v>1.53</v>
+      </c>
+      <c r="X199">
+        <v>2.34</v>
+      </c>
+      <c r="Y199">
+        <v>3.42</v>
+      </c>
+      <c r="Z199">
+        <v>1.27</v>
+      </c>
+      <c r="AA199">
+        <v>9</v>
+      </c>
+      <c r="AB199">
+        <v>1.03</v>
+      </c>
+      <c r="AC199">
+        <v>1.85</v>
+      </c>
+      <c r="AD199">
+        <v>3</v>
+      </c>
+      <c r="AE199">
+        <v>3.75</v>
+      </c>
+      <c r="AF199">
+        <v>1.06</v>
+      </c>
+      <c r="AG199">
+        <v>6.55</v>
+      </c>
+      <c r="AH199">
+        <v>1.43</v>
+      </c>
+      <c r="AI199">
+        <v>2.54</v>
+      </c>
+      <c r="AJ199">
+        <v>2.41</v>
+      </c>
+      <c r="AK199">
+        <v>1.5</v>
+      </c>
+      <c r="AL199">
+        <v>2.04</v>
+      </c>
+      <c r="AM199">
+        <v>1.74</v>
+      </c>
+      <c r="AN199">
+        <v>1.22</v>
+      </c>
+      <c r="AO199">
+        <v>1.32</v>
+      </c>
+      <c r="AP199">
+        <v>1.72</v>
+      </c>
+      <c r="AQ199">
+        <v>2.3</v>
+      </c>
+      <c r="AR199">
+        <v>1.56</v>
+      </c>
+      <c r="AS199">
+        <v>2.36</v>
+      </c>
+      <c r="AT199">
+        <v>1.4</v>
+      </c>
+      <c r="AU199">
+        <v>1.87</v>
+      </c>
+      <c r="AV199">
+        <v>1.44</v>
+      </c>
+      <c r="AW199">
+        <v>3.31</v>
+      </c>
+      <c r="AX199">
+        <v>1.5</v>
+      </c>
+      <c r="AY199">
+        <v>7.5</v>
+      </c>
+      <c r="AZ199">
+        <v>3.3</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>1.34</v>
+      </c>
+      <c r="BC199">
+        <v>1.65</v>
+      </c>
+      <c r="BD199">
+        <v>2.03</v>
+      </c>
+      <c r="BE199">
+        <v>2.5</v>
+      </c>
+      <c r="BF199">
+        <v>6</v>
+      </c>
+      <c r="BG199">
+        <v>7</v>
+      </c>
+      <c r="BH199">
+        <v>8</v>
+      </c>
+      <c r="BI199">
+        <v>3</v>
+      </c>
+      <c r="BJ199">
+        <v>14</v>
+      </c>
+      <c r="BK199">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>1.45</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>1.73</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT12" t="n">
         <v>0.7</v>
@@ -3136,7 +3136,7 @@
         <v>1.78</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.9</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.56</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>2.95</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.52</v>
@@ -6790,7 +6790,7 @@
         <v>2.45</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU31" t="n">
         <v>2.25</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.1</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU37" t="n">
         <v>1.56</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT38" t="n">
         <v>0.7</v>
@@ -9223,10 +9223,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU43" t="n">
         <v>1.42</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU46" t="n">
         <v>1.28</v>
@@ -11053,7 +11053,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU52" t="n">
         <v>2.39</v>
@@ -11459,7 +11459,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.42</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>1.1</v>
@@ -12065,10 +12065,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU57" t="n">
         <v>1.25</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>0.78</v>
@@ -13083,7 +13083,7 @@
         <v>1.9</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.54</v>
@@ -13283,10 +13283,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -15113,7 +15113,7 @@
         <v>2.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU72" t="n">
         <v>1.45</v>
@@ -15313,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT73" t="n">
         <v>0.7</v>
@@ -16331,7 +16331,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -17749,7 +17749,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>0.78</v>
@@ -17955,7 +17955,7 @@
         <v>1.44</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU86" t="n">
         <v>1.58</v>
@@ -18158,7 +18158,7 @@
         <v>1.8</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18358,7 +18358,7 @@
         <v>0.67</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT88" t="n">
         <v>0.7</v>
@@ -18764,10 +18764,10 @@
         <v>0</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.76</v>
@@ -19576,7 +19576,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.7</v>
@@ -21200,10 +21200,10 @@
         <v>1.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU102" t="n">
         <v>1.93</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT104" t="n">
         <v>1.6</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT106" t="n">
         <v>0.8</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU107" t="n">
         <v>1.35</v>
@@ -23230,7 +23230,7 @@
         <v>0.2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT112" t="n">
         <v>0.9</v>
@@ -23636,7 +23636,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
         <v>0.5</v>
@@ -24248,7 +24248,7 @@
         <v>1.3</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU117" t="n">
         <v>1.64</v>
@@ -24654,7 +24654,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -25060,7 +25060,7 @@
         <v>1.56</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU121" t="n">
         <v>1.93</v>
@@ -25260,7 +25260,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT122" t="n">
         <v>1.1</v>
@@ -26278,7 +26278,7 @@
         <v>1.6</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT131" t="n">
         <v>1.1</v>
@@ -27290,7 +27290,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT132" t="n">
         <v>0.5600000000000001</v>
@@ -27699,7 +27699,7 @@
         <v>1.89</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU134" t="n">
         <v>1.6</v>
@@ -27899,7 +27899,7 @@
         <v>0.86</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>0.7</v>
@@ -28308,7 +28308,7 @@
         <v>0.89</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU137" t="n">
         <v>1.77</v>
@@ -28508,7 +28508,7 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT138" t="n">
         <v>0.89</v>
@@ -29120,7 +29120,7 @@
         <v>1.9</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.88</v>
@@ -30944,7 +30944,7 @@
         <v>1.29</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT152" t="n">
         <v>1</v>
@@ -31962,7 +31962,7 @@
         <v>1.56</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.82</v>
@@ -33180,7 +33180,7 @@
         <v>1.73</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU161" t="n">
         <v>1.87</v>
@@ -33380,7 +33380,7 @@
         <v>2</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
         <v>1.45</v>
@@ -33786,7 +33786,7 @@
         <v>0.63</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT164" t="n">
         <v>0.5</v>
@@ -33992,7 +33992,7 @@
         <v>2.36</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU165" t="n">
         <v>1.86</v>
@@ -34195,7 +34195,7 @@
         <v>1.6</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU166" t="n">
         <v>1.89</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT167" t="n">
         <v>0.89</v>
@@ -35410,7 +35410,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT172" t="n">
         <v>0.89</v>
@@ -35819,7 +35819,7 @@
         <v>0.89</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU174" t="n">
         <v>1.62</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT179" t="n">
         <v>0.8</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT180" t="n">
         <v>0.5600000000000001</v>
@@ -37646,7 +37646,7 @@
         <v>1.3</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU183" t="n">
         <v>1.57</v>
@@ -38861,7 +38861,7 @@
         <v>1</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT189" t="n">
         <v>0.89</v>
@@ -39067,7 +39067,7 @@
         <v>0.44</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU190" t="n">
         <v>1.77</v>
@@ -39270,7 +39270,7 @@
         <v>1.8</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU191" t="n">
         <v>1.71</v>
@@ -39673,10 +39673,10 @@
         <v>1.33</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU193" t="n">
         <v>2.01</v>
@@ -39876,10 +39876,10 @@
         <v>1.11</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU194" t="n">
         <v>1.43</v>
@@ -40282,7 +40282,7 @@
         <v>0.67</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT196" t="n">
         <v>0.9</v>
@@ -40485,7 +40485,7 @@
         <v>1.1</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40691,7 +40691,7 @@
         <v>2.45</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -40894,7 +40894,7 @@
         <v>2.36</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU199" t="n">
         <v>1.87</v>
@@ -40945,6 +40945,818 @@
         <v>14</v>
       </c>
       <c r="BK199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>7191764</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45185.66666666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>São Bernardo</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>EC São José</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>10</v>
+      </c>
+      <c r="R200" t="n">
+        <v>6</v>
+      </c>
+      <c r="S200" t="n">
+        <v>16</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V200" t="n">
+        <v>5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>7191765</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45185.75</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['12', '75']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>5</v>
+      </c>
+      <c r="S201" t="n">
+        <v>6</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7191766</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45186.66666666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Botafogo PB</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['90+10']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>10</v>
+      </c>
+      <c r="R202" t="n">
+        <v>5</v>
+      </c>
+      <c r="S202" t="n">
+        <v>15</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V202" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>7191763</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45186.79166666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Operário PR</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>4</v>
+      </c>
+      <c r="M203" t="n">
+        <v>3</v>
+      </c>
+      <c r="N203" t="n">
+        <v>7</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['24', '85', '89', '90+1']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['4', '51', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>3</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>5</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK203" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK203"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>0.7</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT3" t="n">
         <v>0.8</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT9" t="n">
         <v>1.09</v>
@@ -3339,7 +3339,7 @@
         <v>0.44</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT16" t="n">
         <v>0.7</v>
@@ -4354,7 +4354,7 @@
         <v>1.3</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.8</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU22" t="n">
         <v>1.79</v>
@@ -5166,7 +5166,7 @@
         <v>0.44</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU23" t="n">
         <v>2.19</v>
@@ -6181,7 +6181,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU28" t="n">
         <v>1.82</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT31" t="n">
         <v>1.08</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU35" t="n">
         <v>2.77</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT36" t="n">
         <v>0.8</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT39" t="n">
         <v>0.7</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>1.1</v>
@@ -9632,7 +9632,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU45" t="n">
         <v>1.94</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU47" t="n">
         <v>1.56</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT48" t="n">
         <v>0.8</v>
@@ -10444,7 +10444,7 @@
         <v>1.78</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU49" t="n">
         <v>1.41</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT58" t="n">
         <v>0.7</v>
@@ -12677,7 +12677,7 @@
         <v>1.89</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU60" t="n">
         <v>1.61</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU65" t="n">
         <v>1.95</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -14301,7 +14301,7 @@
         <v>1.78</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU68" t="n">
         <v>1.65</v>
@@ -14504,7 +14504,7 @@
         <v>1.3</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT72" t="n">
         <v>1.27</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT75" t="n">
         <v>0.89</v>
@@ -16128,7 +16128,7 @@
         <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU77" t="n">
         <v>2.18</v>
@@ -16534,7 +16534,7 @@
         <v>2.25</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU79" t="n">
         <v>1.18</v>
@@ -17346,7 +17346,7 @@
         <v>0.89</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU83" t="n">
         <v>1.87</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT89" t="n">
         <v>0.89</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT96" t="n">
         <v>0.5600000000000001</v>
@@ -20185,10 +20185,10 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU97" t="n">
         <v>1.98</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20591,10 +20591,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU99" t="n">
         <v>1.64</v>
@@ -21000,7 +21000,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21609,7 +21609,7 @@
         <v>2.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU104" t="n">
         <v>1.18</v>
@@ -22621,7 +22621,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT109" t="n">
         <v>0.89</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>0.7</v>
@@ -23233,7 +23233,7 @@
         <v>1.73</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23433,10 +23433,10 @@
         <v>1.4</v>
       </c>
       <c r="AS113" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT113" t="n">
         <v>1.73</v>
-      </c>
-      <c r="AT113" t="n">
-        <v>1.6</v>
       </c>
       <c r="AU113" t="n">
         <v>1.86</v>
@@ -25466,7 +25466,7 @@
         <v>1.44</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU123" t="n">
         <v>1.56</v>
@@ -25869,7 +25869,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT128" t="n">
         <v>0.7</v>
@@ -26884,10 +26884,10 @@
         <v>2.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU130" t="n">
         <v>1.68</v>
@@ -28105,7 +28105,7 @@
         <v>1.44</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU136" t="n">
         <v>1.53</v>
@@ -29117,7 +29117,7 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>1</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
         <v>1.1</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT143" t="n">
         <v>0.89</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT145" t="n">
         <v>0.5</v>
@@ -30135,7 +30135,7 @@
         <v>1.33</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU146" t="n">
         <v>2.32</v>
@@ -30538,7 +30538,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT148" t="n">
         <v>0.7</v>
@@ -30744,7 +30744,7 @@
         <v>1.5</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU149" t="n">
         <v>1.45</v>
@@ -30947,7 +30947,7 @@
         <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU150" t="n">
         <v>1.72</v>
@@ -31759,7 +31759,7 @@
         <v>1.8</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU154" t="n">
         <v>1.66</v>
@@ -32368,7 +32368,7 @@
         <v>0.89</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU157" t="n">
         <v>1.67</v>
@@ -32568,10 +32568,10 @@
         <v>1.25</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU158" t="n">
         <v>1.95</v>
@@ -33177,7 +33177,7 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT161" t="n">
         <v>1.08</v>
@@ -33383,7 +33383,7 @@
         <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU162" t="n">
         <v>1.94</v>
@@ -33989,7 +33989,7 @@
         <v>1.14</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT165" t="n">
         <v>1.09</v>
@@ -34801,7 +34801,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT169" t="n">
         <v>0.78</v>
@@ -35613,7 +35613,7 @@
         <v>0.89</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT173" t="n">
         <v>1.1</v>
@@ -36019,10 +36019,10 @@
         <v>1.78</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU175" t="n">
         <v>1.83</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT178" t="n">
         <v>0.78</v>
@@ -38052,7 +38052,7 @@
         <v>1.89</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU185" t="n">
         <v>1.57</v>
@@ -38252,10 +38252,10 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU186" t="n">
         <v>1.9</v>
@@ -38458,7 +38458,7 @@
         <v>1.9</v>
       </c>
       <c r="AT187" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU187" t="n">
         <v>1.82</v>
@@ -39470,10 +39470,10 @@
         <v>1.44</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU192" t="n">
         <v>1.89</v>
@@ -40079,10 +40079,10 @@
         <v>1.6</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU195" t="n">
         <v>1.85</v>
@@ -40285,7 +40285,7 @@
         <v>1.73</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU196" t="n">
         <v>1.78</v>
@@ -40488,7 +40488,7 @@
         <v>2</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU197" t="n">
         <v>1.79</v>
@@ -40688,7 +40688,7 @@
         <v>1.2</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT198" t="n">
         <v>1.08</v>
@@ -40891,7 +40891,7 @@
         <v>1.56</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT199" t="n">
         <v>1.27</v>
@@ -41758,6 +41758,818 @@
       </c>
       <c r="BK203" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>7191770</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Botafogo PB</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2</v>
+      </c>
+      <c r="K204" t="n">
+        <v>4</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>3</v>
+      </c>
+      <c r="N204" t="n">
+        <v>5</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['1', '45+8']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['41', '45+5', '57']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>10</v>
+      </c>
+      <c r="R204" t="n">
+        <v>6</v>
+      </c>
+      <c r="S204" t="n">
+        <v>16</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7191768</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>EC São José</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>São Bernardo</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['17', '90+1']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>7</v>
+      </c>
+      <c r="S205" t="n">
+        <v>11</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>7191767</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Operário PR</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['89', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>11</v>
+      </c>
+      <c r="R206" t="n">
+        <v>4</v>
+      </c>
+      <c r="S206" t="n">
+        <v>15</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>7191769</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['35', '54']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3</v>
+      </c>
+      <c r="R207" t="n">
+        <v>6</v>
+      </c>
+      <c r="S207" t="n">
+        <v>9</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
